--- a/dados/_ALVAulasGrupo.xlsx
+++ b/dados/_ALVAulasGrupo.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="292">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="332">
   <x:si>
     <x:t xml:space="preserve">ID</x:t>
   </x:si>
@@ -902,6 +902,126 @@
   <x:si>
     <x:t xml:space="preserve">Sós abs </x:t>
   </x:si>
+  <x:si>
+    <x:t xml:space="preserve">19h15m</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">20h30m </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">8h</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">9h30</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">SOS abs</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">1w</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">17h30m</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">18h40m </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">17h30m </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">32</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">11h15m</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">13.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">14h30</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">15h</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">15:30</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">16.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">18h30m </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">17;35</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Bofypump</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">11:20</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">9:25</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">18h40m</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">20h10m</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">19:10</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">11:15</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">13h35</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">9h25</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">15h30</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Sos</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">18h35 </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">10:05</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">19h30m</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">7h40m</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">9h30m</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">11h10m</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">10h55</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">18h30m</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">14:30</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">15:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">sosspeeding</x:t>
+  </x:si>
 </x:sst>
 </file>
 
@@ -997,8 +1117,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:V553" insertRow="1" totalsRowShown="0">
-  <x:autoFilter ref="A1:V553"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:V780" insertRow="1" totalsRowShown="0">
+  <x:autoFilter ref="A1:V780"/>
   <x:tableColumns count="22">
     <x:tableColumn id="1" uniqueName="1" name="ID" dataDxfId="0"/>
     <x:tableColumn id="2" uniqueName="2" name="Hora de início" dataDxfId="3"/>
@@ -23800,11 +23920,9545 @@
       <x:c r="U553"/>
       <x:c r="V553" s="10" t="s"/>
     </x:row>
+    <x:row r="554" hidden="0">
+      <x:c r="A554">
+        <x:v>553</x:v>
+      </x:c>
+      <x:c r="B554" s="2">
+        <x:v>43857.699837963</x:v>
+      </x:c>
+      <x:c r="C554" s="2">
+        <x:v>43857.7000462963</x:v>
+      </x:c>
+      <x:c r="D554" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E554" s="10" t="s"/>
+      <x:c r="F554"/>
+      <x:c r="G554" s="10" t="s"/>
+      <x:c r="H554" s="3">
+        <x:v>43857</x:v>
+      </x:c>
+      <x:c r="I554"/>
+      <x:c r="J554" s="10" t="s"/>
+      <x:c r="K554" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="L554"/>
+      <x:c r="M554" s="10" t="s"/>
+      <x:c r="N554" s="10" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="O554"/>
+      <x:c r="P554" s="10" t="s"/>
+      <x:c r="Q554" s="7" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="R554"/>
+      <x:c r="S554" s="10" t="s"/>
+      <x:c r="T554" s="10" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="U554"/>
+      <x:c r="V554" s="10" t="s"/>
+    </x:row>
+    <x:row r="555" hidden="0">
+      <x:c r="A555">
+        <x:v>554</x:v>
+      </x:c>
+      <x:c r="B555" s="2">
+        <x:v>43857.7152893519</x:v>
+      </x:c>
+      <x:c r="C555" s="2">
+        <x:v>43857.7155787037</x:v>
+      </x:c>
+      <x:c r="D555" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E555" s="10" t="s"/>
+      <x:c r="F555"/>
+      <x:c r="G555" s="10" t="s"/>
+      <x:c r="H555" s="3">
+        <x:v>43857</x:v>
+      </x:c>
+      <x:c r="I555"/>
+      <x:c r="J555" s="10" t="s"/>
+      <x:c r="K555" s="10" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="L555"/>
+      <x:c r="M555" s="10" t="s"/>
+      <x:c r="N555" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="O555"/>
+      <x:c r="P555" s="10" t="s"/>
+      <x:c r="Q555" s="7" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="R555"/>
+      <x:c r="S555" s="10" t="s"/>
+      <x:c r="T555" s="10" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="U555"/>
+      <x:c r="V555" s="10" t="s"/>
+    </x:row>
+    <x:row r="556" hidden="0">
+      <x:c r="A556">
+        <x:v>555</x:v>
+      </x:c>
+      <x:c r="B556" s="2">
+        <x:v>43857.7627199074</x:v>
+      </x:c>
+      <x:c r="C556" s="2">
+        <x:v>43857.7629282407</x:v>
+      </x:c>
+      <x:c r="D556" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E556" s="10" t="s"/>
+      <x:c r="F556"/>
+      <x:c r="G556" s="10" t="s"/>
+      <x:c r="H556" s="3">
+        <x:v>43857</x:v>
+      </x:c>
+      <x:c r="I556"/>
+      <x:c r="J556" s="10" t="s"/>
+      <x:c r="K556" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="L556"/>
+      <x:c r="M556" s="10" t="s"/>
+      <x:c r="N556" s="10" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="O556"/>
+      <x:c r="P556" s="10" t="s"/>
+      <x:c r="Q556" s="7" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="R556"/>
+      <x:c r="S556" s="10" t="s"/>
+      <x:c r="T556" s="10" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="U556"/>
+      <x:c r="V556" s="10" t="s"/>
+    </x:row>
+    <x:row r="557" hidden="0">
+      <x:c r="A557">
+        <x:v>556</x:v>
+      </x:c>
+      <x:c r="B557" s="2">
+        <x:v>43857.8150694444</x:v>
+      </x:c>
+      <x:c r="C557" s="2">
+        <x:v>43857.8155324074</x:v>
+      </x:c>
+      <x:c r="D557" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E557" s="10" t="s"/>
+      <x:c r="F557"/>
+      <x:c r="G557" s="10" t="s"/>
+      <x:c r="H557" s="3">
+        <x:v>43857</x:v>
+      </x:c>
+      <x:c r="I557"/>
+      <x:c r="J557" s="10" t="s"/>
+      <x:c r="K557" s="10" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="L557"/>
+      <x:c r="M557" s="10" t="s"/>
+      <x:c r="N557" s="10" t="s">
+        <x:v>292</x:v>
+      </x:c>
+      <x:c r="O557"/>
+      <x:c r="P557" s="10" t="s"/>
+      <x:c r="Q557" s="7" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="R557"/>
+      <x:c r="S557" s="10" t="s"/>
+      <x:c r="T557" s="10" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="U557"/>
+      <x:c r="V557" s="10" t="s"/>
+    </x:row>
+    <x:row r="558" hidden="0">
+      <x:c r="A558">
+        <x:v>557</x:v>
+      </x:c>
+      <x:c r="B558" s="2">
+        <x:v>43857.8277430556</x:v>
+      </x:c>
+      <x:c r="C558" s="2">
+        <x:v>43857.8282060185</x:v>
+      </x:c>
+      <x:c r="D558" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E558" s="10" t="s"/>
+      <x:c r="F558"/>
+      <x:c r="G558" s="10" t="s"/>
+      <x:c r="H558" s="3">
+        <x:v>43857</x:v>
+      </x:c>
+      <x:c r="I558"/>
+      <x:c r="J558" s="10" t="s"/>
+      <x:c r="K558" s="10" t="s">
+        <x:v>271</x:v>
+      </x:c>
+      <x:c r="L558"/>
+      <x:c r="M558" s="10" t="s"/>
+      <x:c r="N558" s="10" t="s">
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="O558"/>
+      <x:c r="P558" s="10" t="s"/>
+      <x:c r="Q558" s="7" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="R558"/>
+      <x:c r="S558" s="10" t="s"/>
+      <x:c r="T558" s="10" t="s">
+        <x:v>259</x:v>
+      </x:c>
+      <x:c r="U558"/>
+      <x:c r="V558" s="10" t="s"/>
+    </x:row>
+    <x:row r="559" hidden="0">
+      <x:c r="A559">
+        <x:v>558</x:v>
+      </x:c>
+      <x:c r="B559" s="2">
+        <x:v>43857.8553472222</x:v>
+      </x:c>
+      <x:c r="C559" s="2">
+        <x:v>43857.8564814815</x:v>
+      </x:c>
+      <x:c r="D559" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E559" s="10" t="s"/>
+      <x:c r="F559"/>
+      <x:c r="G559" s="10" t="s"/>
+      <x:c r="H559" s="3">
+        <x:v>43857</x:v>
+      </x:c>
+      <x:c r="I559"/>
+      <x:c r="J559" s="10" t="s"/>
+      <x:c r="K559" s="10" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="L559"/>
+      <x:c r="M559" s="10" t="s"/>
+      <x:c r="N559" s="10" t="s">
+        <x:v>293</x:v>
+      </x:c>
+      <x:c r="O559"/>
+      <x:c r="P559" s="10" t="s"/>
+      <x:c r="Q559" s="7" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="R559"/>
+      <x:c r="S559" s="10" t="s"/>
+      <x:c r="T559" s="10" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="U559"/>
+      <x:c r="V559" s="10" t="s"/>
+    </x:row>
+    <x:row r="560" hidden="0">
+      <x:c r="A560">
+        <x:v>559</x:v>
+      </x:c>
+      <x:c r="B560" s="2">
+        <x:v>43858.3897800926</x:v>
+      </x:c>
+      <x:c r="C560" s="2">
+        <x:v>43858.3900115741</x:v>
+      </x:c>
+      <x:c r="D560" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E560" s="10" t="s"/>
+      <x:c r="F560"/>
+      <x:c r="G560" s="10" t="s"/>
+      <x:c r="H560" s="3">
+        <x:v>43858</x:v>
+      </x:c>
+      <x:c r="I560"/>
+      <x:c r="J560" s="10" t="s"/>
+      <x:c r="K560" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="L560"/>
+      <x:c r="M560" s="10" t="s"/>
+      <x:c r="N560" s="7" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="O560"/>
+      <x:c r="P560" s="10" t="s"/>
+      <x:c r="Q560" s="7" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="R560"/>
+      <x:c r="S560" s="10" t="s"/>
+      <x:c r="T560" s="10" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="U560"/>
+      <x:c r="V560" s="10" t="s"/>
+    </x:row>
+    <x:row r="561" hidden="0">
+      <x:c r="A561">
+        <x:v>560</x:v>
+      </x:c>
+      <x:c r="B561" s="2">
+        <x:v>43858.3900694444</x:v>
+      </x:c>
+      <x:c r="C561" s="2">
+        <x:v>43858.3902893519</x:v>
+      </x:c>
+      <x:c r="D561" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E561" s="10" t="s"/>
+      <x:c r="F561"/>
+      <x:c r="G561" s="10" t="s"/>
+      <x:c r="H561" s="3">
+        <x:v>43858</x:v>
+      </x:c>
+      <x:c r="I561"/>
+      <x:c r="J561" s="10" t="s"/>
+      <x:c r="K561" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="L561"/>
+      <x:c r="M561" s="10" t="s"/>
+      <x:c r="N561" s="10" t="s">
+        <x:v>294</x:v>
+      </x:c>
+      <x:c r="O561"/>
+      <x:c r="P561" s="10" t="s"/>
+      <x:c r="Q561" s="7" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="R561"/>
+      <x:c r="S561" s="10" t="s"/>
+      <x:c r="T561" s="10" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="U561"/>
+      <x:c r="V561" s="10" t="s"/>
+    </x:row>
+    <x:row r="562" hidden="0">
+      <x:c r="A562">
+        <x:v>561</x:v>
+      </x:c>
+      <x:c r="B562" s="2">
+        <x:v>43858.3903240741</x:v>
+      </x:c>
+      <x:c r="C562" s="2">
+        <x:v>43858.3906018518</x:v>
+      </x:c>
+      <x:c r="D562" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E562" s="10" t="s"/>
+      <x:c r="F562"/>
+      <x:c r="G562" s="10" t="s"/>
+      <x:c r="H562" s="3">
+        <x:v>43858</x:v>
+      </x:c>
+      <x:c r="I562"/>
+      <x:c r="J562" s="10" t="s"/>
+      <x:c r="K562" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="L562"/>
+      <x:c r="M562" s="10" t="s"/>
+      <x:c r="N562" s="10" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="O562"/>
+      <x:c r="P562" s="10" t="s"/>
+      <x:c r="Q562" s="7" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="R562"/>
+      <x:c r="S562" s="10" t="s"/>
+      <x:c r="T562" s="10" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="U562"/>
+      <x:c r="V562" s="10" t="s"/>
+    </x:row>
+    <x:row r="563" hidden="0">
+      <x:c r="A563">
+        <x:v>562</x:v>
+      </x:c>
+      <x:c r="B563" s="2">
+        <x:v>43858.4218634259</x:v>
+      </x:c>
+      <x:c r="C563" s="2">
+        <x:v>43858.4222337963</x:v>
+      </x:c>
+      <x:c r="D563" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E563" s="10" t="s"/>
+      <x:c r="F563"/>
+      <x:c r="G563" s="10" t="s"/>
+      <x:c r="H563" s="3">
+        <x:v>43858</x:v>
+      </x:c>
+      <x:c r="I563"/>
+      <x:c r="J563" s="10" t="s"/>
+      <x:c r="K563" s="10" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="L563"/>
+      <x:c r="M563" s="10" t="s"/>
+      <x:c r="N563" s="10" t="s">
+        <x:v>295</x:v>
+      </x:c>
+      <x:c r="O563"/>
+      <x:c r="P563" s="10" t="s"/>
+      <x:c r="Q563" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="R563"/>
+      <x:c r="S563" s="10" t="s"/>
+      <x:c r="T563" s="10" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="U563"/>
+      <x:c r="V563" s="10" t="s"/>
+    </x:row>
+    <x:row r="564" hidden="0">
+      <x:c r="A564">
+        <x:v>563</x:v>
+      </x:c>
+      <x:c r="B564" s="2">
+        <x:v>43858.484837963</x:v>
+      </x:c>
+      <x:c r="C564" s="2">
+        <x:v>43858.4851273148</x:v>
+      </x:c>
+      <x:c r="D564" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E564" s="10" t="s"/>
+      <x:c r="F564"/>
+      <x:c r="G564" s="10" t="s"/>
+      <x:c r="H564" s="3">
+        <x:v>43858</x:v>
+      </x:c>
+      <x:c r="I564"/>
+      <x:c r="J564" s="10" t="s"/>
+      <x:c r="K564" s="10" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="L564"/>
+      <x:c r="M564" s="10" t="s"/>
+      <x:c r="N564" s="10" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="O564"/>
+      <x:c r="P564" s="10" t="s"/>
+      <x:c r="Q564" s="7" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="R564"/>
+      <x:c r="S564" s="10" t="s"/>
+      <x:c r="T564" s="10" t="s">
+        <x:v>259</x:v>
+      </x:c>
+      <x:c r="U564"/>
+      <x:c r="V564" s="10" t="s"/>
+    </x:row>
+    <x:row r="565" hidden="0">
+      <x:c r="A565">
+        <x:v>564</x:v>
+      </x:c>
+      <x:c r="B565" s="2">
+        <x:v>43858.485150463</x:v>
+      </x:c>
+      <x:c r="C565" s="2">
+        <x:v>43858.4854513889</x:v>
+      </x:c>
+      <x:c r="D565" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E565" s="10" t="s"/>
+      <x:c r="F565"/>
+      <x:c r="G565" s="10" t="s"/>
+      <x:c r="H565" s="3">
+        <x:v>43858</x:v>
+      </x:c>
+      <x:c r="I565"/>
+      <x:c r="J565" s="10" t="s"/>
+      <x:c r="K565" s="10" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="L565"/>
+      <x:c r="M565" s="10" t="s"/>
+      <x:c r="N565" s="10" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="O565"/>
+      <x:c r="P565" s="10" t="s"/>
+      <x:c r="Q565" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="R565"/>
+      <x:c r="S565" s="10" t="s"/>
+      <x:c r="T565" s="10" t="s">
+        <x:v>268</x:v>
+      </x:c>
+      <x:c r="U565"/>
+      <x:c r="V565" s="10" t="s"/>
+    </x:row>
+    <x:row r="566" hidden="0">
+      <x:c r="A566">
+        <x:v>565</x:v>
+      </x:c>
+      <x:c r="B566" s="2">
+        <x:v>43857.6248958333</x:v>
+      </x:c>
+      <x:c r="C566" s="2">
+        <x:v>43858.5468287037</x:v>
+      </x:c>
+      <x:c r="D566" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E566" s="10" t="s"/>
+      <x:c r="F566"/>
+      <x:c r="G566" s="10" t="s"/>
+      <x:c r="H566" s="3">
+        <x:v>43857</x:v>
+      </x:c>
+      <x:c r="I566"/>
+      <x:c r="J566" s="10" t="s"/>
+      <x:c r="K566" s="10" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="L566"/>
+      <x:c r="M566" s="10" t="s"/>
+      <x:c r="N566" s="10" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="O566"/>
+      <x:c r="P566" s="10" t="s"/>
+      <x:c r="Q566" s="7" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="R566"/>
+      <x:c r="S566" s="10" t="s"/>
+      <x:c r="T566" s="10" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="U566"/>
+      <x:c r="V566" s="10" t="s"/>
+    </x:row>
+    <x:row r="567" hidden="0">
+      <x:c r="A567">
+        <x:v>566</x:v>
+      </x:c>
+      <x:c r="B567" s="2">
+        <x:v>43858.5796180556</x:v>
+      </x:c>
+      <x:c r="C567" s="2">
+        <x:v>43858.5798958333</x:v>
+      </x:c>
+      <x:c r="D567" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E567" s="10" t="s"/>
+      <x:c r="F567"/>
+      <x:c r="G567" s="10" t="s"/>
+      <x:c r="H567" s="3">
+        <x:v>43858</x:v>
+      </x:c>
+      <x:c r="I567"/>
+      <x:c r="J567" s="10" t="s"/>
+      <x:c r="K567" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="L567"/>
+      <x:c r="M567" s="10" t="s"/>
+      <x:c r="N567" s="10" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="O567"/>
+      <x:c r="P567" s="10" t="s"/>
+      <x:c r="Q567" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="R567"/>
+      <x:c r="S567" s="10" t="s"/>
+      <x:c r="T567" s="10" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="U567"/>
+      <x:c r="V567" s="10" t="s"/>
+    </x:row>
+    <x:row r="568" hidden="0">
+      <x:c r="A568">
+        <x:v>567</x:v>
+      </x:c>
+      <x:c r="B568" s="2">
+        <x:v>43858.5836689815</x:v>
+      </x:c>
+      <x:c r="C568" s="2">
+        <x:v>43858.5839699074</x:v>
+      </x:c>
+      <x:c r="D568" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E568" s="10" t="s"/>
+      <x:c r="F568"/>
+      <x:c r="G568" s="10" t="s"/>
+      <x:c r="H568" s="3">
+        <x:v>43858</x:v>
+      </x:c>
+      <x:c r="I568"/>
+      <x:c r="J568" s="10" t="s"/>
+      <x:c r="K568" s="10" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="L568"/>
+      <x:c r="M568" s="10" t="s"/>
+      <x:c r="N568" s="10" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="O568"/>
+      <x:c r="P568" s="10" t="s"/>
+      <x:c r="Q568" s="7" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="R568"/>
+      <x:c r="S568" s="10" t="s"/>
+      <x:c r="T568" s="10" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="U568"/>
+      <x:c r="V568" s="10" t="s"/>
+    </x:row>
+    <x:row r="569" hidden="0">
+      <x:c r="A569">
+        <x:v>568</x:v>
+      </x:c>
+      <x:c r="B569" s="2">
+        <x:v>43858.7103935185</x:v>
+      </x:c>
+      <x:c r="C569" s="2">
+        <x:v>43858.7106712963</x:v>
+      </x:c>
+      <x:c r="D569" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E569" s="10" t="s"/>
+      <x:c r="F569"/>
+      <x:c r="G569" s="10" t="s"/>
+      <x:c r="H569" s="3">
+        <x:v>43858</x:v>
+      </x:c>
+      <x:c r="I569"/>
+      <x:c r="J569" s="10" t="s"/>
+      <x:c r="K569" s="10" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="L569"/>
+      <x:c r="M569" s="10" t="s"/>
+      <x:c r="N569" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="O569"/>
+      <x:c r="P569" s="10" t="s"/>
+      <x:c r="Q569" s="7" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="R569"/>
+      <x:c r="S569" s="10" t="s"/>
+      <x:c r="T569" s="10" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="U569"/>
+      <x:c r="V569" s="10" t="s"/>
+    </x:row>
+    <x:row r="570" hidden="0">
+      <x:c r="A570">
+        <x:v>569</x:v>
+      </x:c>
+      <x:c r="B570" s="2">
+        <x:v>43858.7565625</x:v>
+      </x:c>
+      <x:c r="C570" s="2">
+        <x:v>43858.7572916667</x:v>
+      </x:c>
+      <x:c r="D570" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E570" s="10" t="s"/>
+      <x:c r="F570"/>
+      <x:c r="G570" s="10" t="s"/>
+      <x:c r="H570" s="3">
+        <x:v>43858</x:v>
+      </x:c>
+      <x:c r="I570"/>
+      <x:c r="J570" s="10" t="s"/>
+      <x:c r="K570" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L570"/>
+      <x:c r="M570" s="10" t="s"/>
+      <x:c r="N570" s="7" t="s">
+        <x:v>240</x:v>
+      </x:c>
+      <x:c r="O570"/>
+      <x:c r="P570" s="10" t="s"/>
+      <x:c r="Q570" s="7" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="R570"/>
+      <x:c r="S570" s="10" t="s"/>
+      <x:c r="T570" s="10" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="U570"/>
+      <x:c r="V570" s="10" t="s"/>
+    </x:row>
+    <x:row r="571" hidden="0">
+      <x:c r="A571">
+        <x:v>570</x:v>
+      </x:c>
+      <x:c r="B571" s="2">
+        <x:v>43858.8336111111</x:v>
+      </x:c>
+      <x:c r="C571" s="2">
+        <x:v>43858.8338425926</x:v>
+      </x:c>
+      <x:c r="D571" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E571" s="10" t="s"/>
+      <x:c r="F571"/>
+      <x:c r="G571" s="10" t="s"/>
+      <x:c r="H571" s="3">
+        <x:v>43858</x:v>
+      </x:c>
+      <x:c r="I571"/>
+      <x:c r="J571" s="10" t="s"/>
+      <x:c r="K571" s="10" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="L571"/>
+      <x:c r="M571" s="10" t="s"/>
+      <x:c r="N571" s="7" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="O571"/>
+      <x:c r="P571" s="10" t="s"/>
+      <x:c r="Q571" s="7" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="R571"/>
+      <x:c r="S571" s="10" t="s"/>
+      <x:c r="T571" s="10" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="U571"/>
+      <x:c r="V571" s="10" t="s"/>
+    </x:row>
+    <x:row r="572" hidden="0">
+      <x:c r="A572">
+        <x:v>571</x:v>
+      </x:c>
+      <x:c r="B572" s="2">
+        <x:v>43858.8338541667</x:v>
+      </x:c>
+      <x:c r="C572" s="2">
+        <x:v>43858.8341319444</x:v>
+      </x:c>
+      <x:c r="D572" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E572" s="10" t="s"/>
+      <x:c r="F572"/>
+      <x:c r="G572" s="10" t="s"/>
+      <x:c r="H572" s="3">
+        <x:v>43858</x:v>
+      </x:c>
+      <x:c r="I572"/>
+      <x:c r="J572" s="10" t="s"/>
+      <x:c r="K572" s="10" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="L572"/>
+      <x:c r="M572" s="10" t="s"/>
+      <x:c r="N572" s="10" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="O572"/>
+      <x:c r="P572" s="10" t="s"/>
+      <x:c r="Q572" s="7" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="R572"/>
+      <x:c r="S572" s="10" t="s"/>
+      <x:c r="T572" s="10" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="U572"/>
+      <x:c r="V572" s="10" t="s"/>
+    </x:row>
+    <x:row r="573" hidden="0">
+      <x:c r="A573">
+        <x:v>572</x:v>
+      </x:c>
+      <x:c r="B573" s="2">
+        <x:v>43858.8937037037</x:v>
+      </x:c>
+      <x:c r="C573" s="2">
+        <x:v>43858.8999768518</x:v>
+      </x:c>
+      <x:c r="D573" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E573" s="10" t="s"/>
+      <x:c r="F573"/>
+      <x:c r="G573" s="10" t="s"/>
+      <x:c r="H573" s="3">
+        <x:v>43858</x:v>
+      </x:c>
+      <x:c r="I573"/>
+      <x:c r="J573" s="10" t="s"/>
+      <x:c r="K573" s="10" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="L573"/>
+      <x:c r="M573" s="10" t="s"/>
+      <x:c r="N573" s="10" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="O573"/>
+      <x:c r="P573" s="10" t="s"/>
+      <x:c r="Q573" s="7" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="R573"/>
+      <x:c r="S573" s="10" t="s"/>
+      <x:c r="T573" s="10" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="U573"/>
+      <x:c r="V573" s="10" t="s"/>
+    </x:row>
+    <x:row r="574" hidden="0">
+      <x:c r="A574">
+        <x:v>573</x:v>
+      </x:c>
+      <x:c r="B574" s="2">
+        <x:v>43858.9</x:v>
+      </x:c>
+      <x:c r="C574" s="2">
+        <x:v>43858.9002199074</x:v>
+      </x:c>
+      <x:c r="D574" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E574" s="10" t="s"/>
+      <x:c r="F574"/>
+      <x:c r="G574" s="10" t="s"/>
+      <x:c r="H574" s="3">
+        <x:v>43858</x:v>
+      </x:c>
+      <x:c r="I574"/>
+      <x:c r="J574" s="10" t="s"/>
+      <x:c r="K574" s="10" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="L574"/>
+      <x:c r="M574" s="10" t="s"/>
+      <x:c r="N574" s="10" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="O574"/>
+      <x:c r="P574" s="10" t="s"/>
+      <x:c r="Q574" s="7" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="R574"/>
+      <x:c r="S574" s="10" t="s"/>
+      <x:c r="T574" s="10" t="s">
+        <x:v>265</x:v>
+      </x:c>
+      <x:c r="U574"/>
+      <x:c r="V574" s="10" t="s"/>
+    </x:row>
+    <x:row r="575" hidden="0">
+      <x:c r="A575">
+        <x:v>574</x:v>
+      </x:c>
+      <x:c r="B575" s="2">
+        <x:v>43858.9002314815</x:v>
+      </x:c>
+      <x:c r="C575" s="2">
+        <x:v>43858.9006481481</x:v>
+      </x:c>
+      <x:c r="D575" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E575" s="10" t="s"/>
+      <x:c r="F575"/>
+      <x:c r="G575" s="10" t="s"/>
+      <x:c r="H575" s="3">
+        <x:v>43858</x:v>
+      </x:c>
+      <x:c r="I575"/>
+      <x:c r="J575" s="10" t="s"/>
+      <x:c r="K575" s="10" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="L575"/>
+      <x:c r="M575" s="10" t="s"/>
+      <x:c r="N575" s="10" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="O575"/>
+      <x:c r="P575" s="10" t="s"/>
+      <x:c r="Q575" s="10" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="R575"/>
+      <x:c r="S575" s="10" t="s"/>
+      <x:c r="T575" s="10" t="s">
+        <x:v>254</x:v>
+      </x:c>
+      <x:c r="U575"/>
+      <x:c r="V575" s="10" t="s"/>
+    </x:row>
+    <x:row r="576" hidden="0">
+      <x:c r="A576">
+        <x:v>575</x:v>
+      </x:c>
+      <x:c r="B576" s="2">
+        <x:v>43858.9671875</x:v>
+      </x:c>
+      <x:c r="C576" s="2">
+        <x:v>43858.9677430556</x:v>
+      </x:c>
+      <x:c r="D576" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E576" s="10" t="s"/>
+      <x:c r="F576"/>
+      <x:c r="G576" s="10" t="s"/>
+      <x:c r="H576" s="3">
+        <x:v>43858</x:v>
+      </x:c>
+      <x:c r="I576"/>
+      <x:c r="J576" s="10" t="s"/>
+      <x:c r="K576" s="10" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="L576"/>
+      <x:c r="M576" s="10" t="s"/>
+      <x:c r="N576" s="10" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="O576"/>
+      <x:c r="P576" s="10" t="s"/>
+      <x:c r="Q576" s="7" t="s">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="R576"/>
+      <x:c r="S576" s="10" t="s"/>
+      <x:c r="T576" s="10" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="U576"/>
+      <x:c r="V576" s="10" t="s"/>
+    </x:row>
+    <x:row r="577" hidden="0">
+      <x:c r="A577">
+        <x:v>576</x:v>
+      </x:c>
+      <x:c r="B577" s="2">
+        <x:v>43859.0085069444</x:v>
+      </x:c>
+      <x:c r="C577" s="2">
+        <x:v>43859.0087731481</x:v>
+      </x:c>
+      <x:c r="D577" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E577" s="10" t="s"/>
+      <x:c r="F577"/>
+      <x:c r="G577" s="10" t="s"/>
+      <x:c r="H577" s="3">
+        <x:v>43859</x:v>
+      </x:c>
+      <x:c r="I577"/>
+      <x:c r="J577" s="10" t="s"/>
+      <x:c r="K577" s="10" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="L577"/>
+      <x:c r="M577" s="10" t="s"/>
+      <x:c r="N577" s="10" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="O577"/>
+      <x:c r="P577" s="10" t="s"/>
+      <x:c r="Q577" s="7" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="R577"/>
+      <x:c r="S577" s="10" t="s"/>
+      <x:c r="T577" s="10" t="s">
+        <x:v>261</x:v>
+      </x:c>
+      <x:c r="U577"/>
+      <x:c r="V577" s="10" t="s"/>
+    </x:row>
+    <x:row r="578" hidden="0">
+      <x:c r="A578">
+        <x:v>577</x:v>
+      </x:c>
+      <x:c r="B578" s="2">
+        <x:v>43859.009375</x:v>
+      </x:c>
+      <x:c r="C578" s="2">
+        <x:v>43859.0096064815</x:v>
+      </x:c>
+      <x:c r="D578" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E578" s="10" t="s"/>
+      <x:c r="F578"/>
+      <x:c r="G578" s="10" t="s"/>
+      <x:c r="H578" s="3">
+        <x:v>43858</x:v>
+      </x:c>
+      <x:c r="I578"/>
+      <x:c r="J578" s="10" t="s"/>
+      <x:c r="K578" s="10" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="L578"/>
+      <x:c r="M578" s="10" t="s"/>
+      <x:c r="N578" s="10" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="O578"/>
+      <x:c r="P578" s="10" t="s"/>
+      <x:c r="Q578" s="7" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="R578"/>
+      <x:c r="S578" s="10" t="s"/>
+      <x:c r="T578" s="10" t="s">
+        <x:v>261</x:v>
+      </x:c>
+      <x:c r="U578"/>
+      <x:c r="V578" s="10" t="s"/>
+    </x:row>
+    <x:row r="579" hidden="0">
+      <x:c r="A579">
+        <x:v>578</x:v>
+      </x:c>
+      <x:c r="B579" s="2">
+        <x:v>43859.0131944444</x:v>
+      </x:c>
+      <x:c r="C579" s="2">
+        <x:v>43859.0143865741</x:v>
+      </x:c>
+      <x:c r="D579" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E579" s="10" t="s"/>
+      <x:c r="F579"/>
+      <x:c r="G579" s="10" t="s"/>
+      <x:c r="H579" s="3">
+        <x:v>43858</x:v>
+      </x:c>
+      <x:c r="I579"/>
+      <x:c r="J579" s="10" t="s"/>
+      <x:c r="K579" s="10" t="s">
+        <x:v>296</x:v>
+      </x:c>
+      <x:c r="L579"/>
+      <x:c r="M579" s="10" t="s"/>
+      <x:c r="N579" s="10" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="O579"/>
+      <x:c r="P579" s="10" t="s"/>
+      <x:c r="Q579" s="7" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="R579"/>
+      <x:c r="S579" s="10" t="s"/>
+      <x:c r="T579" s="10" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="U579"/>
+      <x:c r="V579" s="10" t="s"/>
+    </x:row>
+    <x:row r="580" hidden="0">
+      <x:c r="A580">
+        <x:v>579</x:v>
+      </x:c>
+      <x:c r="B580" s="2">
+        <x:v>43859.3224189815</x:v>
+      </x:c>
+      <x:c r="C580" s="2">
+        <x:v>43859.3227430556</x:v>
+      </x:c>
+      <x:c r="D580" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E580" s="10" t="s"/>
+      <x:c r="F580"/>
+      <x:c r="G580" s="10" t="s"/>
+      <x:c r="H580" s="3">
+        <x:v>43859</x:v>
+      </x:c>
+      <x:c r="I580"/>
+      <x:c r="J580" s="10" t="s"/>
+      <x:c r="K580" s="10" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="L580"/>
+      <x:c r="M580" s="10" t="s"/>
+      <x:c r="N580" s="10" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="O580"/>
+      <x:c r="P580" s="10" t="s"/>
+      <x:c r="Q580" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="R580"/>
+      <x:c r="S580" s="10" t="s"/>
+      <x:c r="T580" s="10" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="U580"/>
+      <x:c r="V580" s="10" t="s"/>
+    </x:row>
+    <x:row r="581" hidden="0">
+      <x:c r="A581">
+        <x:v>580</x:v>
+      </x:c>
+      <x:c r="B581" s="2">
+        <x:v>43859.3399537037</x:v>
+      </x:c>
+      <x:c r="C581" s="2">
+        <x:v>43859.3414467593</x:v>
+      </x:c>
+      <x:c r="D581" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E581" s="10" t="s"/>
+      <x:c r="F581"/>
+      <x:c r="G581" s="10" t="s"/>
+      <x:c r="H581" s="3">
+        <x:v>43859</x:v>
+      </x:c>
+      <x:c r="I581"/>
+      <x:c r="J581" s="10" t="s"/>
+      <x:c r="K581" s="10" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="L581"/>
+      <x:c r="M581" s="10" t="s"/>
+      <x:c r="N581" s="10" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="O581"/>
+      <x:c r="P581" s="10" t="s"/>
+      <x:c r="Q581" s="7" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="R581"/>
+      <x:c r="S581" s="10" t="s"/>
+      <x:c r="T581" s="10" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="U581"/>
+      <x:c r="V581" s="10" t="s"/>
+    </x:row>
+    <x:row r="582" hidden="0">
+      <x:c r="A582">
+        <x:v>581</x:v>
+      </x:c>
+      <x:c r="B582" s="2">
+        <x:v>43859.3887268519</x:v>
+      </x:c>
+      <x:c r="C582" s="2">
+        <x:v>43859.3890740741</x:v>
+      </x:c>
+      <x:c r="D582" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E582" s="10" t="s"/>
+      <x:c r="F582"/>
+      <x:c r="G582" s="10" t="s"/>
+      <x:c r="H582" s="3">
+        <x:v>43859</x:v>
+      </x:c>
+      <x:c r="I582"/>
+      <x:c r="J582" s="10" t="s"/>
+      <x:c r="K582" s="10" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="L582"/>
+      <x:c r="M582" s="10" t="s"/>
+      <x:c r="N582" s="10" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="O582"/>
+      <x:c r="P582" s="10" t="s"/>
+      <x:c r="Q582" s="7" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="R582"/>
+      <x:c r="S582" s="10" t="s"/>
+      <x:c r="T582" s="10" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="U582"/>
+      <x:c r="V582" s="10" t="s"/>
+    </x:row>
+    <x:row r="583" hidden="0">
+      <x:c r="A583">
+        <x:v>582</x:v>
+      </x:c>
+      <x:c r="B583" s="2">
+        <x:v>43859.4090162037</x:v>
+      </x:c>
+      <x:c r="C583" s="2">
+        <x:v>43859.410474537</x:v>
+      </x:c>
+      <x:c r="D583" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E583" s="10" t="s"/>
+      <x:c r="F583"/>
+      <x:c r="G583" s="10" t="s"/>
+      <x:c r="H583" s="3">
+        <x:v>43859</x:v>
+      </x:c>
+      <x:c r="I583"/>
+      <x:c r="J583" s="10" t="s"/>
+      <x:c r="K583" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="L583"/>
+      <x:c r="M583" s="10" t="s"/>
+      <x:c r="N583" s="10" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="O583"/>
+      <x:c r="P583" s="10" t="s"/>
+      <x:c r="Q583" s="7" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="R583"/>
+      <x:c r="S583" s="10" t="s"/>
+      <x:c r="T583" s="10" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="U583"/>
+      <x:c r="V583" s="10" t="s"/>
+    </x:row>
+    <x:row r="584" hidden="0">
+      <x:c r="A584">
+        <x:v>583</x:v>
+      </x:c>
+      <x:c r="B584" s="2">
+        <x:v>43859.4790046296</x:v>
+      </x:c>
+      <x:c r="C584" s="2">
+        <x:v>43859.4795486111</x:v>
+      </x:c>
+      <x:c r="D584" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E584" s="10" t="s"/>
+      <x:c r="F584"/>
+      <x:c r="G584" s="10" t="s"/>
+      <x:c r="H584" s="3">
+        <x:v>43859</x:v>
+      </x:c>
+      <x:c r="I584"/>
+      <x:c r="J584" s="10" t="s"/>
+      <x:c r="K584" s="10" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="L584"/>
+      <x:c r="M584" s="10" t="s"/>
+      <x:c r="N584" s="10" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="O584"/>
+      <x:c r="P584" s="10" t="s"/>
+      <x:c r="Q584" s="7" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="R584"/>
+      <x:c r="S584" s="10" t="s"/>
+      <x:c r="T584" s="10" t="s">
+        <x:v>259</x:v>
+      </x:c>
+      <x:c r="U584"/>
+      <x:c r="V584" s="10" t="s"/>
+    </x:row>
+    <x:row r="585" hidden="0">
+      <x:c r="A585">
+        <x:v>584</x:v>
+      </x:c>
+      <x:c r="B585" s="2">
+        <x:v>43859.5183796296</x:v>
+      </x:c>
+      <x:c r="C585" s="2">
+        <x:v>43859.5203125</x:v>
+      </x:c>
+      <x:c r="D585" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E585" s="10" t="s"/>
+      <x:c r="F585"/>
+      <x:c r="G585" s="10" t="s"/>
+      <x:c r="H585" s="3">
+        <x:v>43858</x:v>
+      </x:c>
+      <x:c r="I585"/>
+      <x:c r="J585" s="10" t="s"/>
+      <x:c r="K585" s="10" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="L585"/>
+      <x:c r="M585" s="10" t="s"/>
+      <x:c r="N585" s="10" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="O585"/>
+      <x:c r="P585" s="10" t="s"/>
+      <x:c r="Q585" s="7" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="R585"/>
+      <x:c r="S585" s="10" t="s"/>
+      <x:c r="T585" s="10" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="U585"/>
+      <x:c r="V585" s="10" t="s"/>
+    </x:row>
+    <x:row r="586" hidden="0">
+      <x:c r="A586">
+        <x:v>585</x:v>
+      </x:c>
+      <x:c r="B586" s="2">
+        <x:v>43859.5530787037</x:v>
+      </x:c>
+      <x:c r="C586" s="2">
+        <x:v>43859.553912037</x:v>
+      </x:c>
+      <x:c r="D586" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E586" s="10" t="s"/>
+      <x:c r="F586"/>
+      <x:c r="G586" s="10" t="s"/>
+      <x:c r="H586" s="3">
+        <x:v>43859</x:v>
+      </x:c>
+      <x:c r="I586"/>
+      <x:c r="J586" s="10" t="s"/>
+      <x:c r="K586" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="L586"/>
+      <x:c r="M586" s="10" t="s"/>
+      <x:c r="N586" s="10" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="O586"/>
+      <x:c r="P586" s="10" t="s"/>
+      <x:c r="Q586" s="7" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="R586"/>
+      <x:c r="S586" s="10" t="s"/>
+      <x:c r="T586" s="10" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="U586"/>
+      <x:c r="V586" s="10" t="s"/>
+    </x:row>
+    <x:row r="587" hidden="0">
+      <x:c r="A587">
+        <x:v>586</x:v>
+      </x:c>
+      <x:c r="B587" s="2">
+        <x:v>43859.5840856481</x:v>
+      </x:c>
+      <x:c r="C587" s="2">
+        <x:v>43859.5851273148</x:v>
+      </x:c>
+      <x:c r="D587" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E587" s="10" t="s"/>
+      <x:c r="F587"/>
+      <x:c r="G587" s="10" t="s"/>
+      <x:c r="H587" s="3">
+        <x:v>43859</x:v>
+      </x:c>
+      <x:c r="I587"/>
+      <x:c r="J587" s="10" t="s"/>
+      <x:c r="K587" s="10" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="L587"/>
+      <x:c r="M587" s="10" t="s"/>
+      <x:c r="N587" s="10" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="O587"/>
+      <x:c r="P587" s="10" t="s"/>
+      <x:c r="Q587" s="7" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="R587"/>
+      <x:c r="S587" s="10" t="s"/>
+      <x:c r="T587" s="10" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="U587"/>
+      <x:c r="V587" s="10" t="s"/>
+    </x:row>
+    <x:row r="588" hidden="0">
+      <x:c r="A588">
+        <x:v>587</x:v>
+      </x:c>
+      <x:c r="B588" s="2">
+        <x:v>43859.7028819444</x:v>
+      </x:c>
+      <x:c r="C588" s="2">
+        <x:v>43859.7033449074</x:v>
+      </x:c>
+      <x:c r="D588" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E588" s="10" t="s"/>
+      <x:c r="F588"/>
+      <x:c r="G588" s="10" t="s"/>
+      <x:c r="H588" s="3">
+        <x:v>43859</x:v>
+      </x:c>
+      <x:c r="I588"/>
+      <x:c r="J588" s="10" t="s"/>
+      <x:c r="K588" s="10" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="L588"/>
+      <x:c r="M588" s="10" t="s"/>
+      <x:c r="N588" s="10" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="O588"/>
+      <x:c r="P588" s="10" t="s"/>
+      <x:c r="Q588" s="7" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="R588"/>
+      <x:c r="S588" s="10" t="s"/>
+      <x:c r="T588" s="10" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="U588"/>
+      <x:c r="V588" s="10" t="s"/>
+    </x:row>
+    <x:row r="589" hidden="0">
+      <x:c r="A589">
+        <x:v>588</x:v>
+      </x:c>
+      <x:c r="B589" s="2">
+        <x:v>43859.708599537</x:v>
+      </x:c>
+      <x:c r="C589" s="2">
+        <x:v>43859.7114583333</x:v>
+      </x:c>
+      <x:c r="D589" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E589" s="10" t="s"/>
+      <x:c r="F589"/>
+      <x:c r="G589" s="10" t="s"/>
+      <x:c r="H589" s="3">
+        <x:v>43859</x:v>
+      </x:c>
+      <x:c r="I589"/>
+      <x:c r="J589" s="10" t="s"/>
+      <x:c r="K589" s="10" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="L589"/>
+      <x:c r="M589" s="10" t="s"/>
+      <x:c r="N589" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="O589"/>
+      <x:c r="P589" s="10" t="s"/>
+      <x:c r="Q589" s="7" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="R589"/>
+      <x:c r="S589" s="10" t="s"/>
+      <x:c r="T589" s="10" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="U589"/>
+      <x:c r="V589" s="10" t="s"/>
+    </x:row>
+    <x:row r="590" hidden="0">
+      <x:c r="A590">
+        <x:v>589</x:v>
+      </x:c>
+      <x:c r="B590" s="2">
+        <x:v>43859.7926041667</x:v>
+      </x:c>
+      <x:c r="C590" s="2">
+        <x:v>43859.7940162037</x:v>
+      </x:c>
+      <x:c r="D590" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E590" s="10" t="s"/>
+      <x:c r="F590"/>
+      <x:c r="G590" s="10" t="s"/>
+      <x:c r="H590" s="3">
+        <x:v>43859</x:v>
+      </x:c>
+      <x:c r="I590"/>
+      <x:c r="J590" s="10" t="s"/>
+      <x:c r="K590" s="10" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="L590"/>
+      <x:c r="M590" s="10" t="s"/>
+      <x:c r="N590" s="10" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="O590"/>
+      <x:c r="P590" s="10" t="s"/>
+      <x:c r="Q590" s="7" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="R590"/>
+      <x:c r="S590" s="10" t="s"/>
+      <x:c r="T590" s="10" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="U590"/>
+      <x:c r="V590" s="10" t="s"/>
+    </x:row>
+    <x:row r="591" hidden="0">
+      <x:c r="A591">
+        <x:v>590</x:v>
+      </x:c>
+      <x:c r="B591" s="2">
+        <x:v>43859.8258217593</x:v>
+      </x:c>
+      <x:c r="C591" s="2">
+        <x:v>43859.8260763889</x:v>
+      </x:c>
+      <x:c r="D591" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E591" s="10" t="s"/>
+      <x:c r="F591"/>
+      <x:c r="G591" s="10" t="s"/>
+      <x:c r="H591" s="3">
+        <x:v>43859</x:v>
+      </x:c>
+      <x:c r="I591"/>
+      <x:c r="J591" s="10" t="s"/>
+      <x:c r="K591" s="10" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="L591"/>
+      <x:c r="M591" s="10" t="s"/>
+      <x:c r="N591" s="7" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="O591"/>
+      <x:c r="P591" s="10" t="s"/>
+      <x:c r="Q591" s="7" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="R591"/>
+      <x:c r="S591" s="10" t="s"/>
+      <x:c r="T591" s="10" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="U591"/>
+      <x:c r="V591" s="10" t="s"/>
+    </x:row>
+    <x:row r="592" hidden="0">
+      <x:c r="A592">
+        <x:v>591</x:v>
+      </x:c>
+      <x:c r="B592" s="2">
+        <x:v>43859.8653819444</x:v>
+      </x:c>
+      <x:c r="C592" s="2">
+        <x:v>43859.8657291667</x:v>
+      </x:c>
+      <x:c r="D592" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E592" s="10" t="s"/>
+      <x:c r="F592"/>
+      <x:c r="G592" s="10" t="s"/>
+      <x:c r="H592" s="3">
+        <x:v>43859</x:v>
+      </x:c>
+      <x:c r="I592"/>
+      <x:c r="J592" s="10" t="s"/>
+      <x:c r="K592" s="10" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="L592"/>
+      <x:c r="M592" s="10" t="s"/>
+      <x:c r="N592" s="10" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="O592"/>
+      <x:c r="P592" s="10" t="s"/>
+      <x:c r="Q592" s="7" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="R592"/>
+      <x:c r="S592" s="10" t="s"/>
+      <x:c r="T592" s="10" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="U592"/>
+      <x:c r="V592" s="10" t="s"/>
+    </x:row>
+    <x:row r="593" hidden="0">
+      <x:c r="A593">
+        <x:v>592</x:v>
+      </x:c>
+      <x:c r="B593" s="2">
+        <x:v>43859.9077777778</x:v>
+      </x:c>
+      <x:c r="C593" s="2">
+        <x:v>43859.9080555556</x:v>
+      </x:c>
+      <x:c r="D593" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E593" s="10" t="s"/>
+      <x:c r="F593"/>
+      <x:c r="G593" s="10" t="s"/>
+      <x:c r="H593" s="3">
+        <x:v>43858</x:v>
+      </x:c>
+      <x:c r="I593"/>
+      <x:c r="J593" s="10" t="s"/>
+      <x:c r="K593" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="L593"/>
+      <x:c r="M593" s="10" t="s"/>
+      <x:c r="N593" s="10" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="O593"/>
+      <x:c r="P593" s="10" t="s"/>
+      <x:c r="Q593" s="7" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="R593"/>
+      <x:c r="S593" s="10" t="s"/>
+      <x:c r="T593" s="10" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="U593"/>
+      <x:c r="V593" s="10" t="s"/>
+    </x:row>
+    <x:row r="594" hidden="0">
+      <x:c r="A594">
+        <x:v>593</x:v>
+      </x:c>
+      <x:c r="B594" s="2">
+        <x:v>43859.9081018518</x:v>
+      </x:c>
+      <x:c r="C594" s="2">
+        <x:v>43859.9083101852</x:v>
+      </x:c>
+      <x:c r="D594" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E594" s="10" t="s"/>
+      <x:c r="F594"/>
+      <x:c r="G594" s="10" t="s"/>
+      <x:c r="H594" s="3">
+        <x:v>43858</x:v>
+      </x:c>
+      <x:c r="I594"/>
+      <x:c r="J594" s="10" t="s"/>
+      <x:c r="K594" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="L594"/>
+      <x:c r="M594" s="10" t="s"/>
+      <x:c r="N594" s="10" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="O594"/>
+      <x:c r="P594" s="10" t="s"/>
+      <x:c r="Q594" s="10" t="s">
+        <x:v>297</x:v>
+      </x:c>
+      <x:c r="R594"/>
+      <x:c r="S594" s="10" t="s"/>
+      <x:c r="T594" s="10" t="s">
+        <x:v>251</x:v>
+      </x:c>
+      <x:c r="U594"/>
+      <x:c r="V594" s="10" t="s"/>
+    </x:row>
+    <x:row r="595" hidden="0">
+      <x:c r="A595">
+        <x:v>594</x:v>
+      </x:c>
+      <x:c r="B595" s="2">
+        <x:v>43859.9083912037</x:v>
+      </x:c>
+      <x:c r="C595" s="2">
+        <x:v>43859.9092824074</x:v>
+      </x:c>
+      <x:c r="D595" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E595" s="10" t="s"/>
+      <x:c r="F595"/>
+      <x:c r="G595" s="10" t="s"/>
+      <x:c r="H595" s="3">
+        <x:v>43859</x:v>
+      </x:c>
+      <x:c r="I595"/>
+      <x:c r="J595" s="10" t="s"/>
+      <x:c r="K595" s="10" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="L595"/>
+      <x:c r="M595" s="10" t="s"/>
+      <x:c r="N595" s="7" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="O595"/>
+      <x:c r="P595" s="10" t="s"/>
+      <x:c r="Q595" s="7" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="R595"/>
+      <x:c r="S595" s="10" t="s"/>
+      <x:c r="T595" s="10" t="s">
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="U595"/>
+      <x:c r="V595" s="10" t="s"/>
+    </x:row>
+    <x:row r="596" hidden="0">
+      <x:c r="A596">
+        <x:v>595</x:v>
+      </x:c>
+      <x:c r="B596" s="2">
+        <x:v>43859.9093634259</x:v>
+      </x:c>
+      <x:c r="C596" s="2">
+        <x:v>43859.9096064815</x:v>
+      </x:c>
+      <x:c r="D596" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E596" s="10" t="s"/>
+      <x:c r="F596"/>
+      <x:c r="G596" s="10" t="s"/>
+      <x:c r="H596" s="3">
+        <x:v>43859</x:v>
+      </x:c>
+      <x:c r="I596"/>
+      <x:c r="J596" s="10" t="s"/>
+      <x:c r="K596" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="L596"/>
+      <x:c r="M596" s="10" t="s"/>
+      <x:c r="N596" s="10" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="O596"/>
+      <x:c r="P596" s="10" t="s"/>
+      <x:c r="Q596" s="7" t="s">
+        <x:v>257</x:v>
+      </x:c>
+      <x:c r="R596"/>
+      <x:c r="S596" s="10" t="s"/>
+      <x:c r="T596" s="10" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="U596"/>
+      <x:c r="V596" s="10" t="s"/>
+    </x:row>
+    <x:row r="597" hidden="0">
+      <x:c r="A597">
+        <x:v>596</x:v>
+      </x:c>
+      <x:c r="B597" s="2">
+        <x:v>43859.9096643519</x:v>
+      </x:c>
+      <x:c r="C597" s="2">
+        <x:v>43859.9098726852</x:v>
+      </x:c>
+      <x:c r="D597" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E597" s="10" t="s"/>
+      <x:c r="F597"/>
+      <x:c r="G597" s="10" t="s"/>
+      <x:c r="H597" s="3">
+        <x:v>43859</x:v>
+      </x:c>
+      <x:c r="I597"/>
+      <x:c r="J597" s="10" t="s"/>
+      <x:c r="K597" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="L597"/>
+      <x:c r="M597" s="10" t="s"/>
+      <x:c r="N597" s="10" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="O597"/>
+      <x:c r="P597" s="10" t="s"/>
+      <x:c r="Q597" s="7" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="R597"/>
+      <x:c r="S597" s="10" t="s"/>
+      <x:c r="T597" s="10" t="s">
+        <x:v>251</x:v>
+      </x:c>
+      <x:c r="U597"/>
+      <x:c r="V597" s="10" t="s"/>
+    </x:row>
+    <x:row r="598" hidden="0">
+      <x:c r="A598">
+        <x:v>597</x:v>
+      </x:c>
+      <x:c r="B598" s="2">
+        <x:v>43859.9723842593</x:v>
+      </x:c>
+      <x:c r="C598" s="2">
+        <x:v>43859.9726851852</x:v>
+      </x:c>
+      <x:c r="D598" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E598" s="10" t="s"/>
+      <x:c r="F598"/>
+      <x:c r="G598" s="10" t="s"/>
+      <x:c r="H598" s="3">
+        <x:v>43859</x:v>
+      </x:c>
+      <x:c r="I598"/>
+      <x:c r="J598" s="10" t="s"/>
+      <x:c r="K598" s="10" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="L598"/>
+      <x:c r="M598" s="10" t="s"/>
+      <x:c r="N598" s="10" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="O598"/>
+      <x:c r="P598" s="10" t="s"/>
+      <x:c r="Q598" s="7" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="R598"/>
+      <x:c r="S598" s="10" t="s"/>
+      <x:c r="T598" s="10" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="U598"/>
+      <x:c r="V598" s="10" t="s"/>
+    </x:row>
+    <x:row r="599" hidden="0">
+      <x:c r="A599">
+        <x:v>598</x:v>
+      </x:c>
+      <x:c r="B599" s="2">
+        <x:v>43859.9727199074</x:v>
+      </x:c>
+      <x:c r="C599" s="2">
+        <x:v>43859.972974537</x:v>
+      </x:c>
+      <x:c r="D599" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E599" s="10" t="s"/>
+      <x:c r="F599"/>
+      <x:c r="G599" s="10" t="s"/>
+      <x:c r="H599" s="3">
+        <x:v>43859</x:v>
+      </x:c>
+      <x:c r="I599"/>
+      <x:c r="J599" s="10" t="s"/>
+      <x:c r="K599" s="10" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="L599"/>
+      <x:c r="M599" s="10" t="s"/>
+      <x:c r="N599" s="10" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="O599"/>
+      <x:c r="P599" s="10" t="s"/>
+      <x:c r="Q599" s="7" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="R599"/>
+      <x:c r="S599" s="10" t="s"/>
+      <x:c r="T599" s="10" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="U599"/>
+      <x:c r="V599" s="10" t="s"/>
+    </x:row>
+    <x:row r="600" hidden="0">
+      <x:c r="A600">
+        <x:v>599</x:v>
+      </x:c>
+      <x:c r="B600" s="2">
+        <x:v>43860.3506481481</x:v>
+      </x:c>
+      <x:c r="C600" s="2">
+        <x:v>43860.3509143519</x:v>
+      </x:c>
+      <x:c r="D600" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E600" s="10" t="s"/>
+      <x:c r="F600"/>
+      <x:c r="G600" s="10" t="s"/>
+      <x:c r="H600" s="3">
+        <x:v>43860</x:v>
+      </x:c>
+      <x:c r="I600"/>
+      <x:c r="J600" s="10" t="s"/>
+      <x:c r="K600" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="L600"/>
+      <x:c r="M600" s="10" t="s"/>
+      <x:c r="N600" s="10" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="O600"/>
+      <x:c r="P600" s="10" t="s"/>
+      <x:c r="Q600" s="7" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="R600"/>
+      <x:c r="S600" s="10" t="s"/>
+      <x:c r="T600" s="10" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="U600"/>
+      <x:c r="V600" s="10" t="s"/>
+    </x:row>
+    <x:row r="601" hidden="0">
+      <x:c r="A601">
+        <x:v>600</x:v>
+      </x:c>
+      <x:c r="B601" s="2">
+        <x:v>43860.3885532407</x:v>
+      </x:c>
+      <x:c r="C601" s="2">
+        <x:v>43860.389375</x:v>
+      </x:c>
+      <x:c r="D601" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E601" s="10" t="s"/>
+      <x:c r="F601"/>
+      <x:c r="G601" s="10" t="s"/>
+      <x:c r="H601" s="3">
+        <x:v>43860</x:v>
+      </x:c>
+      <x:c r="I601"/>
+      <x:c r="J601" s="10" t="s"/>
+      <x:c r="K601" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="L601"/>
+      <x:c r="M601" s="10" t="s"/>
+      <x:c r="N601" s="10" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="O601"/>
+      <x:c r="P601" s="10" t="s"/>
+      <x:c r="Q601" s="7" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="R601"/>
+      <x:c r="S601" s="10" t="s"/>
+      <x:c r="T601" s="10" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="U601"/>
+      <x:c r="V601" s="10" t="s"/>
+    </x:row>
+    <x:row r="602" hidden="0">
+      <x:c r="A602">
+        <x:v>601</x:v>
+      </x:c>
+      <x:c r="B602" s="2">
+        <x:v>43860.4076157407</x:v>
+      </x:c>
+      <x:c r="C602" s="2">
+        <x:v>43860.408125</x:v>
+      </x:c>
+      <x:c r="D602" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E602" s="10" t="s"/>
+      <x:c r="F602"/>
+      <x:c r="G602" s="10" t="s"/>
+      <x:c r="H602" s="3">
+        <x:v>43860</x:v>
+      </x:c>
+      <x:c r="I602"/>
+      <x:c r="J602" s="10" t="s"/>
+      <x:c r="K602" s="10" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="L602"/>
+      <x:c r="M602" s="10" t="s"/>
+      <x:c r="N602" s="10" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="O602"/>
+      <x:c r="P602" s="10" t="s"/>
+      <x:c r="Q602" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="R602"/>
+      <x:c r="S602" s="10" t="s"/>
+      <x:c r="T602" s="10" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="U602"/>
+      <x:c r="V602" s="10" t="s"/>
+    </x:row>
+    <x:row r="603" hidden="0">
+      <x:c r="A603">
+        <x:v>602</x:v>
+      </x:c>
+      <x:c r="B603" s="2">
+        <x:v>43860.5370717593</x:v>
+      </x:c>
+      <x:c r="C603" s="2">
+        <x:v>43860.5373263889</x:v>
+      </x:c>
+      <x:c r="D603" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E603" s="10" t="s"/>
+      <x:c r="F603"/>
+      <x:c r="G603" s="10" t="s"/>
+      <x:c r="H603" s="3">
+        <x:v>43860</x:v>
+      </x:c>
+      <x:c r="I603"/>
+      <x:c r="J603" s="10" t="s"/>
+      <x:c r="K603" s="10" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="L603"/>
+      <x:c r="M603" s="10" t="s"/>
+      <x:c r="N603" s="10" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="O603"/>
+      <x:c r="P603" s="10" t="s"/>
+      <x:c r="Q603" s="7" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="R603"/>
+      <x:c r="S603" s="10" t="s"/>
+      <x:c r="T603" s="10" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="U603"/>
+      <x:c r="V603" s="10" t="s"/>
+    </x:row>
+    <x:row r="604" hidden="0">
+      <x:c r="A604">
+        <x:v>603</x:v>
+      </x:c>
+      <x:c r="B604" s="2">
+        <x:v>43860.5975347222</x:v>
+      </x:c>
+      <x:c r="C604" s="2">
+        <x:v>43860.5977546296</x:v>
+      </x:c>
+      <x:c r="D604" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E604" s="10" t="s"/>
+      <x:c r="F604"/>
+      <x:c r="G604" s="10" t="s"/>
+      <x:c r="H604" s="3">
+        <x:v>43860</x:v>
+      </x:c>
+      <x:c r="I604"/>
+      <x:c r="J604" s="10" t="s"/>
+      <x:c r="K604" s="10" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="L604"/>
+      <x:c r="M604" s="10" t="s"/>
+      <x:c r="N604" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="O604"/>
+      <x:c r="P604" s="10" t="s"/>
+      <x:c r="Q604" s="7" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="R604"/>
+      <x:c r="S604" s="10" t="s"/>
+      <x:c r="T604" s="10" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="U604"/>
+      <x:c r="V604" s="10" t="s"/>
+    </x:row>
+    <x:row r="605" hidden="0">
+      <x:c r="A605">
+        <x:v>604</x:v>
+      </x:c>
+      <x:c r="B605" s="2">
+        <x:v>43860.6680902778</x:v>
+      </x:c>
+      <x:c r="C605" s="2">
+        <x:v>43860.6682986111</x:v>
+      </x:c>
+      <x:c r="D605" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E605" s="10" t="s"/>
+      <x:c r="F605"/>
+      <x:c r="G605" s="10" t="s"/>
+      <x:c r="H605" s="3">
+        <x:v>43860</x:v>
+      </x:c>
+      <x:c r="I605"/>
+      <x:c r="J605" s="10" t="s"/>
+      <x:c r="K605" s="10" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="L605"/>
+      <x:c r="M605" s="10" t="s"/>
+      <x:c r="N605" s="10" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="O605"/>
+      <x:c r="P605" s="10" t="s"/>
+      <x:c r="Q605" s="7" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="R605"/>
+      <x:c r="S605" s="10" t="s"/>
+      <x:c r="T605" s="10" t="s">
+        <x:v>254</x:v>
+      </x:c>
+      <x:c r="U605"/>
+      <x:c r="V605" s="10" t="s"/>
+    </x:row>
+    <x:row r="606" hidden="0">
+      <x:c r="A606">
+        <x:v>605</x:v>
+      </x:c>
+      <x:c r="B606" s="2">
+        <x:v>43860.6997222222</x:v>
+      </x:c>
+      <x:c r="C606" s="2">
+        <x:v>43860.7003009259</x:v>
+      </x:c>
+      <x:c r="D606" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E606" s="10" t="s"/>
+      <x:c r="F606"/>
+      <x:c r="G606" s="10" t="s"/>
+      <x:c r="H606" s="3">
+        <x:v>43860</x:v>
+      </x:c>
+      <x:c r="I606"/>
+      <x:c r="J606" s="10" t="s"/>
+      <x:c r="K606" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="L606"/>
+      <x:c r="M606" s="10" t="s"/>
+      <x:c r="N606" s="10" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="O606"/>
+      <x:c r="P606" s="10" t="s"/>
+      <x:c r="Q606" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="R606"/>
+      <x:c r="S606" s="10" t="s"/>
+      <x:c r="T606" s="10" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="U606"/>
+      <x:c r="V606" s="10" t="s"/>
+    </x:row>
+    <x:row r="607" hidden="0">
+      <x:c r="A607">
+        <x:v>606</x:v>
+      </x:c>
+      <x:c r="B607" s="2">
+        <x:v>43860.7218402778</x:v>
+      </x:c>
+      <x:c r="C607" s="2">
+        <x:v>43860.7222569444</x:v>
+      </x:c>
+      <x:c r="D607" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E607" s="10" t="s"/>
+      <x:c r="F607"/>
+      <x:c r="G607" s="10" t="s"/>
+      <x:c r="H607" s="3">
+        <x:v>43860</x:v>
+      </x:c>
+      <x:c r="I607"/>
+      <x:c r="J607" s="10" t="s"/>
+      <x:c r="K607" s="10" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="L607"/>
+      <x:c r="M607" s="10" t="s"/>
+      <x:c r="N607" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="O607"/>
+      <x:c r="P607" s="10" t="s"/>
+      <x:c r="Q607" s="7" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="R607"/>
+      <x:c r="S607" s="10" t="s"/>
+      <x:c r="T607" s="10" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="U607"/>
+      <x:c r="V607" s="10" t="s"/>
+    </x:row>
+    <x:row r="608" hidden="0">
+      <x:c r="A608">
+        <x:v>607</x:v>
+      </x:c>
+      <x:c r="B608" s="2">
+        <x:v>43860.7324884259</x:v>
+      </x:c>
+      <x:c r="C608" s="2">
+        <x:v>43860.7327662037</x:v>
+      </x:c>
+      <x:c r="D608" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E608" s="10" t="s"/>
+      <x:c r="F608"/>
+      <x:c r="G608" s="10" t="s"/>
+      <x:c r="H608" s="3">
+        <x:v>43860</x:v>
+      </x:c>
+      <x:c r="I608"/>
+      <x:c r="J608" s="10" t="s"/>
+      <x:c r="K608" s="10" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="L608"/>
+      <x:c r="M608" s="10" t="s"/>
+      <x:c r="N608" s="10" t="s">
+        <x:v>298</x:v>
+      </x:c>
+      <x:c r="O608"/>
+      <x:c r="P608" s="10" t="s"/>
+      <x:c r="Q608" s="7" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="R608"/>
+      <x:c r="S608" s="10" t="s"/>
+      <x:c r="T608" s="10" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="U608"/>
+      <x:c r="V608" s="10" t="s"/>
+    </x:row>
+    <x:row r="609" hidden="0">
+      <x:c r="A609">
+        <x:v>608</x:v>
+      </x:c>
+      <x:c r="B609" s="2">
+        <x:v>43860.7701041667</x:v>
+      </x:c>
+      <x:c r="C609" s="2">
+        <x:v>43860.7703935185</x:v>
+      </x:c>
+      <x:c r="D609" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E609" s="10" t="s"/>
+      <x:c r="F609"/>
+      <x:c r="G609" s="10" t="s"/>
+      <x:c r="H609" s="3">
+        <x:v>43860</x:v>
+      </x:c>
+      <x:c r="I609"/>
+      <x:c r="J609" s="10" t="s"/>
+      <x:c r="K609" s="10" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="L609"/>
+      <x:c r="M609" s="10" t="s"/>
+      <x:c r="N609" s="10" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="O609"/>
+      <x:c r="P609" s="10" t="s"/>
+      <x:c r="Q609" s="7" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="R609"/>
+      <x:c r="S609" s="10" t="s"/>
+      <x:c r="T609" s="10" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="U609"/>
+      <x:c r="V609" s="10" t="s"/>
+    </x:row>
+    <x:row r="610" hidden="0">
+      <x:c r="A610">
+        <x:v>609</x:v>
+      </x:c>
+      <x:c r="B610" s="2">
+        <x:v>43860.7917013889</x:v>
+      </x:c>
+      <x:c r="C610" s="2">
+        <x:v>43860.7919444444</x:v>
+      </x:c>
+      <x:c r="D610" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E610" s="10" t="s"/>
+      <x:c r="F610"/>
+      <x:c r="G610" s="10" t="s"/>
+      <x:c r="H610" s="3">
+        <x:v>43860</x:v>
+      </x:c>
+      <x:c r="I610"/>
+      <x:c r="J610" s="10" t="s"/>
+      <x:c r="K610" s="10" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="L610"/>
+      <x:c r="M610" s="10" t="s"/>
+      <x:c r="N610" s="10" t="s">
+        <x:v>299</x:v>
+      </x:c>
+      <x:c r="O610"/>
+      <x:c r="P610" s="10" t="s"/>
+      <x:c r="Q610" s="7" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="R610"/>
+      <x:c r="S610" s="10" t="s"/>
+      <x:c r="T610" s="10" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="U610"/>
+      <x:c r="V610" s="10" t="s"/>
+    </x:row>
+    <x:row r="611" hidden="0">
+      <x:c r="A611">
+        <x:v>610</x:v>
+      </x:c>
+      <x:c r="B611" s="2">
+        <x:v>43860.8260532407</x:v>
+      </x:c>
+      <x:c r="C611" s="2">
+        <x:v>43860.826412037</x:v>
+      </x:c>
+      <x:c r="D611" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E611" s="10" t="s"/>
+      <x:c r="F611"/>
+      <x:c r="G611" s="10" t="s"/>
+      <x:c r="H611" s="3">
+        <x:v>43860</x:v>
+      </x:c>
+      <x:c r="I611"/>
+      <x:c r="J611" s="10" t="s"/>
+      <x:c r="K611" s="10" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="L611"/>
+      <x:c r="M611" s="10" t="s"/>
+      <x:c r="N611" s="10" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="O611"/>
+      <x:c r="P611" s="10" t="s"/>
+      <x:c r="Q611" s="7" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="R611"/>
+      <x:c r="S611" s="10" t="s"/>
+      <x:c r="T611" s="10" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="U611"/>
+      <x:c r="V611" s="10" t="s"/>
+    </x:row>
+    <x:row r="612" hidden="0">
+      <x:c r="A612">
+        <x:v>611</x:v>
+      </x:c>
+      <x:c r="B612" s="2">
+        <x:v>43861.0030902778</x:v>
+      </x:c>
+      <x:c r="C612" s="2">
+        <x:v>43861.0034490741</x:v>
+      </x:c>
+      <x:c r="D612" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E612" s="10" t="s"/>
+      <x:c r="F612"/>
+      <x:c r="G612" s="10" t="s"/>
+      <x:c r="H612" s="3">
+        <x:v>43860</x:v>
+      </x:c>
+      <x:c r="I612"/>
+      <x:c r="J612" s="10" t="s"/>
+      <x:c r="K612" s="10" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="L612"/>
+      <x:c r="M612" s="10" t="s"/>
+      <x:c r="N612" s="10" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="O612"/>
+      <x:c r="P612" s="10" t="s"/>
+      <x:c r="Q612" s="7" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="R612"/>
+      <x:c r="S612" s="10" t="s"/>
+      <x:c r="T612" s="10" t="s">
+        <x:v>261</x:v>
+      </x:c>
+      <x:c r="U612"/>
+      <x:c r="V612" s="10" t="s"/>
+    </x:row>
+    <x:row r="613" hidden="0">
+      <x:c r="A613">
+        <x:v>612</x:v>
+      </x:c>
+      <x:c r="B613" s="2">
+        <x:v>43861.0035185185</x:v>
+      </x:c>
+      <x:c r="C613" s="2">
+        <x:v>43861.0038888889</x:v>
+      </x:c>
+      <x:c r="D613" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E613" s="10" t="s"/>
+      <x:c r="F613"/>
+      <x:c r="G613" s="10" t="s"/>
+      <x:c r="H613" s="3">
+        <x:v>43860</x:v>
+      </x:c>
+      <x:c r="I613"/>
+      <x:c r="J613" s="10" t="s"/>
+      <x:c r="K613" s="10" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="L613"/>
+      <x:c r="M613" s="10" t="s"/>
+      <x:c r="N613" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="O613"/>
+      <x:c r="P613" s="10" t="s"/>
+      <x:c r="Q613" s="7" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="R613"/>
+      <x:c r="S613" s="10" t="s"/>
+      <x:c r="T613" s="10" t="s">
+        <x:v>261</x:v>
+      </x:c>
+      <x:c r="U613"/>
+      <x:c r="V613" s="10" t="s"/>
+    </x:row>
+    <x:row r="614" hidden="0">
+      <x:c r="A614">
+        <x:v>613</x:v>
+      </x:c>
+      <x:c r="B614" s="2">
+        <x:v>43861.3144444444</x:v>
+      </x:c>
+      <x:c r="C614" s="2">
+        <x:v>43861.3147685185</x:v>
+      </x:c>
+      <x:c r="D614" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E614" s="10" t="s"/>
+      <x:c r="F614"/>
+      <x:c r="G614" s="10" t="s"/>
+      <x:c r="H614" s="3">
+        <x:v>43861</x:v>
+      </x:c>
+      <x:c r="I614"/>
+      <x:c r="J614" s="10" t="s"/>
+      <x:c r="K614" s="10" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="L614"/>
+      <x:c r="M614" s="10" t="s"/>
+      <x:c r="N614" s="10" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="O614"/>
+      <x:c r="P614" s="10" t="s"/>
+      <x:c r="Q614" s="7" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="R614"/>
+      <x:c r="S614" s="10" t="s"/>
+      <x:c r="T614" s="10" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="U614"/>
+      <x:c r="V614" s="10" t="s"/>
+    </x:row>
+    <x:row r="615" hidden="0">
+      <x:c r="A615">
+        <x:v>614</x:v>
+      </x:c>
+      <x:c r="B615" s="2">
+        <x:v>43861.3318287037</x:v>
+      </x:c>
+      <x:c r="C615" s="2">
+        <x:v>43861.3321643519</x:v>
+      </x:c>
+      <x:c r="D615" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E615" s="10" t="s"/>
+      <x:c r="F615"/>
+      <x:c r="G615" s="10" t="s"/>
+      <x:c r="H615" s="3">
+        <x:v>43861</x:v>
+      </x:c>
+      <x:c r="I615"/>
+      <x:c r="J615" s="10" t="s"/>
+      <x:c r="K615" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="L615"/>
+      <x:c r="M615" s="10" t="s"/>
+      <x:c r="N615" s="10" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="O615"/>
+      <x:c r="P615" s="10" t="s"/>
+      <x:c r="Q615" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="R615"/>
+      <x:c r="S615" s="10" t="s"/>
+      <x:c r="T615" s="10" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="U615"/>
+      <x:c r="V615" s="10" t="s"/>
+    </x:row>
+    <x:row r="616" hidden="0">
+      <x:c r="A616">
+        <x:v>615</x:v>
+      </x:c>
+      <x:c r="B616" s="2">
+        <x:v>43861.3833912037</x:v>
+      </x:c>
+      <x:c r="C616" s="2">
+        <x:v>43861.3835300926</x:v>
+      </x:c>
+      <x:c r="D616" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E616" s="10" t="s"/>
+      <x:c r="F616"/>
+      <x:c r="G616" s="10" t="s"/>
+      <x:c r="H616" s="3">
+        <x:v>43861</x:v>
+      </x:c>
+      <x:c r="I616"/>
+      <x:c r="J616" s="10" t="s"/>
+      <x:c r="K616" s="10" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="L616"/>
+      <x:c r="M616" s="10" t="s"/>
+      <x:c r="N616" s="7" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="O616"/>
+      <x:c r="P616" s="10" t="s"/>
+      <x:c r="Q616" s="7" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="R616"/>
+      <x:c r="S616" s="10" t="s"/>
+      <x:c r="T616" s="10" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="U616"/>
+      <x:c r="V616" s="10" t="s"/>
+    </x:row>
+    <x:row r="617" hidden="0">
+      <x:c r="A617">
+        <x:v>616</x:v>
+      </x:c>
+      <x:c r="B617" s="2">
+        <x:v>43861.4149884259</x:v>
+      </x:c>
+      <x:c r="C617" s="2">
+        <x:v>43861.4152083333</x:v>
+      </x:c>
+      <x:c r="D617" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E617" s="10" t="s"/>
+      <x:c r="F617"/>
+      <x:c r="G617" s="10" t="s"/>
+      <x:c r="H617" s="3">
+        <x:v>43861</x:v>
+      </x:c>
+      <x:c r="I617"/>
+      <x:c r="J617" s="10" t="s"/>
+      <x:c r="K617" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="L617"/>
+      <x:c r="M617" s="10" t="s"/>
+      <x:c r="N617" s="10" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="O617"/>
+      <x:c r="P617" s="10" t="s"/>
+      <x:c r="Q617" s="7" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="R617"/>
+      <x:c r="S617" s="10" t="s"/>
+      <x:c r="T617" s="10" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="U617"/>
+      <x:c r="V617" s="10" t="s"/>
+    </x:row>
+    <x:row r="618" hidden="0">
+      <x:c r="A618">
+        <x:v>617</x:v>
+      </x:c>
+      <x:c r="B618" s="2">
+        <x:v>43861.562337963</x:v>
+      </x:c>
+      <x:c r="C618" s="2">
+        <x:v>43861.5626388889</x:v>
+      </x:c>
+      <x:c r="D618" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E618" s="10" t="s"/>
+      <x:c r="F618"/>
+      <x:c r="G618" s="10" t="s"/>
+      <x:c r="H618" s="3">
+        <x:v>43861</x:v>
+      </x:c>
+      <x:c r="I618"/>
+      <x:c r="J618" s="10" t="s"/>
+      <x:c r="K618" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L618"/>
+      <x:c r="M618" s="10" t="s"/>
+      <x:c r="N618" s="7" t="s">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="O618"/>
+      <x:c r="P618" s="10" t="s"/>
+      <x:c r="Q618" s="7" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="R618"/>
+      <x:c r="S618" s="10" t="s"/>
+      <x:c r="T618" s="10" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="U618"/>
+      <x:c r="V618" s="10" t="s"/>
+    </x:row>
+    <x:row r="619" hidden="0">
+      <x:c r="A619">
+        <x:v>618</x:v>
+      </x:c>
+      <x:c r="B619" s="2">
+        <x:v>43861.6826041667</x:v>
+      </x:c>
+      <x:c r="C619" s="2">
+        <x:v>43861.6828819444</x:v>
+      </x:c>
+      <x:c r="D619" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E619" s="10" t="s"/>
+      <x:c r="F619"/>
+      <x:c r="G619" s="10" t="s"/>
+      <x:c r="H619" s="3">
+        <x:v>43861</x:v>
+      </x:c>
+      <x:c r="I619"/>
+      <x:c r="J619" s="10" t="s"/>
+      <x:c r="K619" s="10" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="L619"/>
+      <x:c r="M619" s="10" t="s"/>
+      <x:c r="N619" s="10" t="s">
+        <x:v>284</x:v>
+      </x:c>
+      <x:c r="O619"/>
+      <x:c r="P619" s="10" t="s"/>
+      <x:c r="Q619" s="7" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="R619"/>
+      <x:c r="S619" s="10" t="s"/>
+      <x:c r="T619" s="10" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="U619"/>
+      <x:c r="V619" s="10" t="s"/>
+    </x:row>
+    <x:row r="620" hidden="0">
+      <x:c r="A620">
+        <x:v>619</x:v>
+      </x:c>
+      <x:c r="B620" s="2">
+        <x:v>43861.7102893519</x:v>
+      </x:c>
+      <x:c r="C620" s="2">
+        <x:v>43861.7105787037</x:v>
+      </x:c>
+      <x:c r="D620" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E620" s="10" t="s"/>
+      <x:c r="F620"/>
+      <x:c r="G620" s="10" t="s"/>
+      <x:c r="H620" s="3">
+        <x:v>43861</x:v>
+      </x:c>
+      <x:c r="I620"/>
+      <x:c r="J620" s="10" t="s"/>
+      <x:c r="K620" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L620"/>
+      <x:c r="M620" s="10" t="s"/>
+      <x:c r="N620" s="7" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="O620"/>
+      <x:c r="P620" s="10" t="s"/>
+      <x:c r="Q620" s="7" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="R620"/>
+      <x:c r="S620" s="10" t="s"/>
+      <x:c r="T620" s="10" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="U620"/>
+      <x:c r="V620" s="10" t="s"/>
+    </x:row>
+    <x:row r="621" hidden="0">
+      <x:c r="A621">
+        <x:v>620</x:v>
+      </x:c>
+      <x:c r="B621" s="2">
+        <x:v>43861.7335185185</x:v>
+      </x:c>
+      <x:c r="C621" s="2">
+        <x:v>43861.7338888889</x:v>
+      </x:c>
+      <x:c r="D621" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E621" s="10" t="s"/>
+      <x:c r="F621"/>
+      <x:c r="G621" s="10" t="s"/>
+      <x:c r="H621" s="3">
+        <x:v>43861</x:v>
+      </x:c>
+      <x:c r="I621"/>
+      <x:c r="J621" s="10" t="s"/>
+      <x:c r="K621" s="10" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="L621"/>
+      <x:c r="M621" s="10" t="s"/>
+      <x:c r="N621" s="10" t="s">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="O621"/>
+      <x:c r="P621" s="10" t="s"/>
+      <x:c r="Q621" s="7" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="R621"/>
+      <x:c r="S621" s="10" t="s"/>
+      <x:c r="T621" s="10" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="U621"/>
+      <x:c r="V621" s="10" t="s"/>
+    </x:row>
+    <x:row r="622" hidden="0">
+      <x:c r="A622">
+        <x:v>621</x:v>
+      </x:c>
+      <x:c r="B622" s="2">
+        <x:v>43862.0141898148</x:v>
+      </x:c>
+      <x:c r="C622" s="2">
+        <x:v>43862.0144560185</x:v>
+      </x:c>
+      <x:c r="D622" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E622" s="10" t="s"/>
+      <x:c r="F622"/>
+      <x:c r="G622" s="10" t="s"/>
+      <x:c r="H622" s="3">
+        <x:v>43861</x:v>
+      </x:c>
+      <x:c r="I622"/>
+      <x:c r="J622" s="10" t="s"/>
+      <x:c r="K622" s="10" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="L622"/>
+      <x:c r="M622" s="10" t="s"/>
+      <x:c r="N622" s="10" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="O622"/>
+      <x:c r="P622" s="10" t="s"/>
+      <x:c r="Q622" s="7" t="s">
+        <x:v>301</x:v>
+      </x:c>
+      <x:c r="R622"/>
+      <x:c r="S622" s="10" t="s"/>
+      <x:c r="T622" s="10" t="s">
+        <x:v>261</x:v>
+      </x:c>
+      <x:c r="U622"/>
+      <x:c r="V622" s="10" t="s"/>
+    </x:row>
+    <x:row r="623" hidden="0">
+      <x:c r="A623">
+        <x:v>622</x:v>
+      </x:c>
+      <x:c r="B623" s="2">
+        <x:v>43862.5245023148</x:v>
+      </x:c>
+      <x:c r="C623" s="2">
+        <x:v>43862.527037037</x:v>
+      </x:c>
+      <x:c r="D623" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E623" s="10" t="s"/>
+      <x:c r="F623"/>
+      <x:c r="G623" s="10" t="s"/>
+      <x:c r="H623" s="3">
+        <x:v>43862</x:v>
+      </x:c>
+      <x:c r="I623"/>
+      <x:c r="J623" s="10" t="s"/>
+      <x:c r="K623" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="L623"/>
+      <x:c r="M623" s="10" t="s"/>
+      <x:c r="N623" s="10" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="O623"/>
+      <x:c r="P623" s="10" t="s"/>
+      <x:c r="Q623" s="7" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="R623"/>
+      <x:c r="S623" s="10" t="s"/>
+      <x:c r="T623" s="10" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="U623"/>
+      <x:c r="V623" s="10" t="s"/>
+    </x:row>
+    <x:row r="624" hidden="0">
+      <x:c r="A624">
+        <x:v>623</x:v>
+      </x:c>
+      <x:c r="B624" s="2">
+        <x:v>43863.4579050926</x:v>
+      </x:c>
+      <x:c r="C624" s="2">
+        <x:v>43863.4584722222</x:v>
+      </x:c>
+      <x:c r="D624" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E624" s="10" t="s"/>
+      <x:c r="F624"/>
+      <x:c r="G624" s="10" t="s"/>
+      <x:c r="H624" s="3">
+        <x:v>43863</x:v>
+      </x:c>
+      <x:c r="I624"/>
+      <x:c r="J624" s="10" t="s"/>
+      <x:c r="K624" s="10" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="L624"/>
+      <x:c r="M624" s="10" t="s"/>
+      <x:c r="N624" s="10" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="O624"/>
+      <x:c r="P624" s="10" t="s"/>
+      <x:c r="Q624" s="7" t="s">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="R624"/>
+      <x:c r="S624" s="10" t="s"/>
+      <x:c r="T624" s="10" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="U624"/>
+      <x:c r="V624" s="10" t="s"/>
+    </x:row>
+    <x:row r="625" hidden="0">
+      <x:c r="A625">
+        <x:v>624</x:v>
+      </x:c>
+      <x:c r="B625" s="2">
+        <x:v>43863.5219212963</x:v>
+      </x:c>
+      <x:c r="C625" s="2">
+        <x:v>43863.5224652778</x:v>
+      </x:c>
+      <x:c r="D625" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E625" s="10" t="s"/>
+      <x:c r="F625"/>
+      <x:c r="G625" s="10" t="s"/>
+      <x:c r="H625" s="3">
+        <x:v>43863</x:v>
+      </x:c>
+      <x:c r="I625"/>
+      <x:c r="J625" s="10" t="s"/>
+      <x:c r="K625" s="10" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="L625"/>
+      <x:c r="M625" s="10" t="s"/>
+      <x:c r="N625" s="10" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="O625"/>
+      <x:c r="P625" s="10" t="s"/>
+      <x:c r="Q625" s="7" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="R625"/>
+      <x:c r="S625" s="10" t="s"/>
+      <x:c r="T625" s="10" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="U625"/>
+      <x:c r="V625" s="10" t="s"/>
+    </x:row>
+    <x:row r="626" hidden="0">
+      <x:c r="A626">
+        <x:v>625</x:v>
+      </x:c>
+      <x:c r="B626" s="2">
+        <x:v>43863.5230671296</x:v>
+      </x:c>
+      <x:c r="C626" s="2">
+        <x:v>43863.5255555556</x:v>
+      </x:c>
+      <x:c r="D626" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E626" s="10" t="s"/>
+      <x:c r="F626"/>
+      <x:c r="G626" s="10" t="s"/>
+      <x:c r="H626" s="3">
+        <x:v>43863</x:v>
+      </x:c>
+      <x:c r="I626"/>
+      <x:c r="J626" s="10" t="s"/>
+      <x:c r="K626" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="L626"/>
+      <x:c r="M626" s="10" t="s"/>
+      <x:c r="N626" s="10" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="O626"/>
+      <x:c r="P626" s="10" t="s"/>
+      <x:c r="Q626" s="7" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="R626"/>
+      <x:c r="S626" s="10" t="s"/>
+      <x:c r="T626" s="10" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="U626"/>
+      <x:c r="V626" s="10" t="s"/>
+    </x:row>
+    <x:row r="627" hidden="0">
+      <x:c r="A627">
+        <x:v>626</x:v>
+      </x:c>
+      <x:c r="B627" s="2">
+        <x:v>43864.3870717593</x:v>
+      </x:c>
+      <x:c r="C627" s="2">
+        <x:v>43864.3873263889</x:v>
+      </x:c>
+      <x:c r="D627" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E627" s="10" t="s"/>
+      <x:c r="F627"/>
+      <x:c r="G627" s="10" t="s"/>
+      <x:c r="H627" s="3">
+        <x:v>43864</x:v>
+      </x:c>
+      <x:c r="I627"/>
+      <x:c r="J627" s="10" t="s"/>
+      <x:c r="K627" s="10" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="L627"/>
+      <x:c r="M627" s="10" t="s"/>
+      <x:c r="N627" s="7" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="O627"/>
+      <x:c r="P627" s="10" t="s"/>
+      <x:c r="Q627" s="7" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="R627"/>
+      <x:c r="S627" s="10" t="s"/>
+      <x:c r="T627" s="10" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="U627"/>
+      <x:c r="V627" s="10" t="s"/>
+    </x:row>
+    <x:row r="628" hidden="0">
+      <x:c r="A628">
+        <x:v>627</x:v>
+      </x:c>
+      <x:c r="B628" s="2">
+        <x:v>43864.48375</x:v>
+      </x:c>
+      <x:c r="C628" s="2">
+        <x:v>43864.4844212963</x:v>
+      </x:c>
+      <x:c r="D628" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E628" s="10" t="s"/>
+      <x:c r="F628"/>
+      <x:c r="G628" s="10" t="s"/>
+      <x:c r="H628" s="3">
+        <x:v>43864</x:v>
+      </x:c>
+      <x:c r="I628"/>
+      <x:c r="J628" s="10" t="s"/>
+      <x:c r="K628" s="10" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="L628"/>
+      <x:c r="M628" s="10" t="s"/>
+      <x:c r="N628" s="10" t="s">
+        <x:v>302</x:v>
+      </x:c>
+      <x:c r="O628"/>
+      <x:c r="P628" s="10" t="s"/>
+      <x:c r="Q628" s="7" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="R628"/>
+      <x:c r="S628" s="10" t="s"/>
+      <x:c r="T628" s="10" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="U628"/>
+      <x:c r="V628" s="10" t="s"/>
+    </x:row>
+    <x:row r="629" hidden="0">
+      <x:c r="A629">
+        <x:v>628</x:v>
+      </x:c>
+      <x:c r="B629" s="2">
+        <x:v>43864.5489930556</x:v>
+      </x:c>
+      <x:c r="C629" s="2">
+        <x:v>43864.5492013889</x:v>
+      </x:c>
+      <x:c r="D629" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E629" s="10" t="s"/>
+      <x:c r="F629"/>
+      <x:c r="G629" s="10" t="s"/>
+      <x:c r="H629" s="3">
+        <x:v>43864</x:v>
+      </x:c>
+      <x:c r="I629"/>
+      <x:c r="J629" s="10" t="s"/>
+      <x:c r="K629" s="10" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="L629"/>
+      <x:c r="M629" s="10" t="s"/>
+      <x:c r="N629" s="7" t="s">
+        <x:v>303</x:v>
+      </x:c>
+      <x:c r="O629"/>
+      <x:c r="P629" s="10" t="s"/>
+      <x:c r="Q629" s="7" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="R629"/>
+      <x:c r="S629" s="10" t="s"/>
+      <x:c r="T629" s="10" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="U629"/>
+      <x:c r="V629" s="10" t="s"/>
+    </x:row>
+    <x:row r="630" hidden="0">
+      <x:c r="A630">
+        <x:v>629</x:v>
+      </x:c>
+      <x:c r="B630" s="2">
+        <x:v>43864.62</x:v>
+      </x:c>
+      <x:c r="C630" s="2">
+        <x:v>43864.6203472222</x:v>
+      </x:c>
+      <x:c r="D630" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E630" s="10" t="s"/>
+      <x:c r="F630"/>
+      <x:c r="G630" s="10" t="s"/>
+      <x:c r="H630" s="3">
+        <x:v>43864</x:v>
+      </x:c>
+      <x:c r="I630"/>
+      <x:c r="J630" s="10" t="s"/>
+      <x:c r="K630" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="L630"/>
+      <x:c r="M630" s="10" t="s"/>
+      <x:c r="N630" s="10" t="s">
+        <x:v>304</x:v>
+      </x:c>
+      <x:c r="O630"/>
+      <x:c r="P630" s="10" t="s"/>
+      <x:c r="Q630" s="7" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="R630"/>
+      <x:c r="S630" s="10" t="s"/>
+      <x:c r="T630" s="10" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="U630"/>
+      <x:c r="V630" s="10" t="s"/>
+    </x:row>
+    <x:row r="631" hidden="0">
+      <x:c r="A631">
+        <x:v>630</x:v>
+      </x:c>
+      <x:c r="B631" s="2">
+        <x:v>43864.6403587963</x:v>
+      </x:c>
+      <x:c r="C631" s="2">
+        <x:v>43864.6413425926</x:v>
+      </x:c>
+      <x:c r="D631" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E631" s="10" t="s"/>
+      <x:c r="F631"/>
+      <x:c r="G631" s="10" t="s"/>
+      <x:c r="H631" s="3">
+        <x:v>43864</x:v>
+      </x:c>
+      <x:c r="I631"/>
+      <x:c r="J631" s="10" t="s"/>
+      <x:c r="K631" s="10" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="L631"/>
+      <x:c r="M631" s="10" t="s"/>
+      <x:c r="N631" s="10" t="s">
+        <x:v>305</x:v>
+      </x:c>
+      <x:c r="O631"/>
+      <x:c r="P631" s="10" t="s"/>
+      <x:c r="Q631" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="R631"/>
+      <x:c r="S631" s="10" t="s"/>
+      <x:c r="T631" s="10" t="s">
+        <x:v>259</x:v>
+      </x:c>
+      <x:c r="U631"/>
+      <x:c r="V631" s="10" t="s"/>
+    </x:row>
+    <x:row r="632" hidden="0">
+      <x:c r="A632">
+        <x:v>631</x:v>
+      </x:c>
+      <x:c r="B632" s="2">
+        <x:v>43864.660474537</x:v>
+      </x:c>
+      <x:c r="C632" s="2">
+        <x:v>43864.661400463</x:v>
+      </x:c>
+      <x:c r="D632" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E632" s="10" t="s"/>
+      <x:c r="F632"/>
+      <x:c r="G632" s="10" t="s"/>
+      <x:c r="H632" s="3">
+        <x:v>43864</x:v>
+      </x:c>
+      <x:c r="I632"/>
+      <x:c r="J632" s="10" t="s"/>
+      <x:c r="K632" s="10" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="L632"/>
+      <x:c r="M632" s="10" t="s"/>
+      <x:c r="N632" s="10" t="s">
+        <x:v>306</x:v>
+      </x:c>
+      <x:c r="O632"/>
+      <x:c r="P632" s="10" t="s"/>
+      <x:c r="Q632" s="7" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="R632"/>
+      <x:c r="S632" s="10" t="s"/>
+      <x:c r="T632" s="10" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="U632"/>
+      <x:c r="V632" s="10" t="s"/>
+    </x:row>
+    <x:row r="633" hidden="0">
+      <x:c r="A633">
+        <x:v>632</x:v>
+      </x:c>
+      <x:c r="B633" s="2">
+        <x:v>43864.6776273148</x:v>
+      </x:c>
+      <x:c r="C633" s="2">
+        <x:v>43864.6780902778</x:v>
+      </x:c>
+      <x:c r="D633" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E633" s="10" t="s"/>
+      <x:c r="F633"/>
+      <x:c r="G633" s="10" t="s"/>
+      <x:c r="H633" s="3">
+        <x:v>43864</x:v>
+      </x:c>
+      <x:c r="I633"/>
+      <x:c r="J633" s="10" t="s"/>
+      <x:c r="K633" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L633"/>
+      <x:c r="M633" s="10" t="s"/>
+      <x:c r="N633" s="7" t="s">
+        <x:v>307</x:v>
+      </x:c>
+      <x:c r="O633"/>
+      <x:c r="P633" s="10" t="s"/>
+      <x:c r="Q633" s="7" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="R633"/>
+      <x:c r="S633" s="10" t="s"/>
+      <x:c r="T633" s="10" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="U633"/>
+      <x:c r="V633" s="10" t="s"/>
+    </x:row>
+    <x:row r="634" hidden="0">
+      <x:c r="A634">
+        <x:v>633</x:v>
+      </x:c>
+      <x:c r="B634" s="2">
+        <x:v>43864.7665509259</x:v>
+      </x:c>
+      <x:c r="C634" s="2">
+        <x:v>43864.7670023148</x:v>
+      </x:c>
+      <x:c r="D634" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E634" s="10" t="s"/>
+      <x:c r="F634"/>
+      <x:c r="G634" s="10" t="s"/>
+      <x:c r="H634" s="3">
+        <x:v>43864</x:v>
+      </x:c>
+      <x:c r="I634"/>
+      <x:c r="J634" s="10" t="s"/>
+      <x:c r="K634" s="10" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="L634"/>
+      <x:c r="M634" s="10" t="s"/>
+      <x:c r="N634" s="10" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="O634"/>
+      <x:c r="P634" s="10" t="s"/>
+      <x:c r="Q634" s="7" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="R634"/>
+      <x:c r="S634" s="10" t="s"/>
+      <x:c r="T634" s="10" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="U634"/>
+      <x:c r="V634" s="10" t="s"/>
+    </x:row>
+    <x:row r="635" hidden="0">
+      <x:c r="A635">
+        <x:v>634</x:v>
+      </x:c>
+      <x:c r="B635" s="2">
+        <x:v>43864.7811689815</x:v>
+      </x:c>
+      <x:c r="C635" s="2">
+        <x:v>43864.781400463</x:v>
+      </x:c>
+      <x:c r="D635" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E635" s="10" t="s"/>
+      <x:c r="F635"/>
+      <x:c r="G635" s="10" t="s"/>
+      <x:c r="H635" s="3">
+        <x:v>43864</x:v>
+      </x:c>
+      <x:c r="I635"/>
+      <x:c r="J635" s="10" t="s"/>
+      <x:c r="K635" s="10" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="L635"/>
+      <x:c r="M635" s="10" t="s"/>
+      <x:c r="N635" s="10" t="s">
+        <x:v>308</x:v>
+      </x:c>
+      <x:c r="O635"/>
+      <x:c r="P635" s="10" t="s"/>
+      <x:c r="Q635" s="7" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="R635"/>
+      <x:c r="S635" s="10" t="s"/>
+      <x:c r="T635" s="10" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="U635"/>
+      <x:c r="V635" s="10" t="s"/>
+    </x:row>
+    <x:row r="636" hidden="0">
+      <x:c r="A636">
+        <x:v>635</x:v>
+      </x:c>
+      <x:c r="B636" s="2">
+        <x:v>43864.8504513889</x:v>
+      </x:c>
+      <x:c r="C636" s="2">
+        <x:v>43864.8512962963</x:v>
+      </x:c>
+      <x:c r="D636" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E636" s="10" t="s"/>
+      <x:c r="F636"/>
+      <x:c r="G636" s="10" t="s"/>
+      <x:c r="H636" s="3">
+        <x:v>43864</x:v>
+      </x:c>
+      <x:c r="I636"/>
+      <x:c r="J636" s="10" t="s"/>
+      <x:c r="K636" s="10" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="L636"/>
+      <x:c r="M636" s="10" t="s"/>
+      <x:c r="N636" s="10" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="O636"/>
+      <x:c r="P636" s="10" t="s"/>
+      <x:c r="Q636" s="7" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="R636"/>
+      <x:c r="S636" s="10" t="s"/>
+      <x:c r="T636" s="10" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="U636"/>
+      <x:c r="V636" s="10" t="s"/>
+    </x:row>
+    <x:row r="637" hidden="0">
+      <x:c r="A637">
+        <x:v>636</x:v>
+      </x:c>
+      <x:c r="B637" s="2">
+        <x:v>43864.8660069444</x:v>
+      </x:c>
+      <x:c r="C637" s="2">
+        <x:v>43864.8661805556</x:v>
+      </x:c>
+      <x:c r="D637" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E637" s="10" t="s"/>
+      <x:c r="F637"/>
+      <x:c r="G637" s="10" t="s"/>
+      <x:c r="H637" s="3">
+        <x:v>43864</x:v>
+      </x:c>
+      <x:c r="I637"/>
+      <x:c r="J637" s="10" t="s"/>
+      <x:c r="K637" s="10" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="L637"/>
+      <x:c r="M637" s="10" t="s"/>
+      <x:c r="N637" s="10" t="s">
+        <x:v>293</x:v>
+      </x:c>
+      <x:c r="O637"/>
+      <x:c r="P637" s="10" t="s"/>
+      <x:c r="Q637" s="7" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="R637"/>
+      <x:c r="S637" s="10" t="s"/>
+      <x:c r="T637" s="10" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="U637"/>
+      <x:c r="V637" s="10" t="s"/>
+    </x:row>
+    <x:row r="638" hidden="0">
+      <x:c r="A638">
+        <x:v>637</x:v>
+      </x:c>
+      <x:c r="B638" s="2">
+        <x:v>43864.8238773148</x:v>
+      </x:c>
+      <x:c r="C638" s="2">
+        <x:v>43864.8714814815</x:v>
+      </x:c>
+      <x:c r="D638" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E638" s="10" t="s"/>
+      <x:c r="F638"/>
+      <x:c r="G638" s="10" t="s"/>
+      <x:c r="H638" s="3">
+        <x:v>43864</x:v>
+      </x:c>
+      <x:c r="I638"/>
+      <x:c r="J638" s="10" t="s"/>
+      <x:c r="K638" s="10" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="L638"/>
+      <x:c r="M638" s="10" t="s"/>
+      <x:c r="N638" s="10" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="O638"/>
+      <x:c r="P638" s="10" t="s"/>
+      <x:c r="Q638" s="7" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="R638"/>
+      <x:c r="S638" s="10" t="s"/>
+      <x:c r="T638" s="10" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="U638"/>
+      <x:c r="V638" s="10" t="s"/>
+    </x:row>
+    <x:row r="639" hidden="0">
+      <x:c r="A639">
+        <x:v>638</x:v>
+      </x:c>
+      <x:c r="B639" s="2">
+        <x:v>43864.8715046296</x:v>
+      </x:c>
+      <x:c r="C639" s="2">
+        <x:v>43864.8719560185</x:v>
+      </x:c>
+      <x:c r="D639" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E639" s="10" t="s"/>
+      <x:c r="F639"/>
+      <x:c r="G639" s="10" t="s"/>
+      <x:c r="H639" s="3">
+        <x:v>43864</x:v>
+      </x:c>
+      <x:c r="I639"/>
+      <x:c r="J639" s="10" t="s"/>
+      <x:c r="K639" s="10" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="L639"/>
+      <x:c r="M639" s="10" t="s"/>
+      <x:c r="N639" s="7" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="O639"/>
+      <x:c r="P639" s="10" t="s"/>
+      <x:c r="Q639" s="7" t="s">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="R639"/>
+      <x:c r="S639" s="10" t="s"/>
+      <x:c r="T639" s="10" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="U639"/>
+      <x:c r="V639" s="10" t="s"/>
+    </x:row>
+    <x:row r="640" hidden="0">
+      <x:c r="A640">
+        <x:v>639</x:v>
+      </x:c>
+      <x:c r="B640" s="2">
+        <x:v>43864.8719675926</x:v>
+      </x:c>
+      <x:c r="C640" s="2">
+        <x:v>43864.872349537</x:v>
+      </x:c>
+      <x:c r="D640" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E640" s="10" t="s"/>
+      <x:c r="F640"/>
+      <x:c r="G640" s="10" t="s"/>
+      <x:c r="H640" s="3">
+        <x:v>43864</x:v>
+      </x:c>
+      <x:c r="I640"/>
+      <x:c r="J640" s="10" t="s"/>
+      <x:c r="K640" s="10" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="L640"/>
+      <x:c r="M640" s="10" t="s"/>
+      <x:c r="N640" s="10" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="O640"/>
+      <x:c r="P640" s="10" t="s"/>
+      <x:c r="Q640" s="7" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="R640"/>
+      <x:c r="S640" s="10" t="s"/>
+      <x:c r="T640" s="10" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="U640"/>
+      <x:c r="V640" s="10" t="s"/>
+    </x:row>
+    <x:row r="641" hidden="0">
+      <x:c r="A641">
+        <x:v>640</x:v>
+      </x:c>
+      <x:c r="B641" s="2">
+        <x:v>43864.8723726852</x:v>
+      </x:c>
+      <x:c r="C641" s="2">
+        <x:v>43864.87375</x:v>
+      </x:c>
+      <x:c r="D641" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E641" s="10" t="s"/>
+      <x:c r="F641"/>
+      <x:c r="G641" s="10" t="s"/>
+      <x:c r="H641" s="3">
+        <x:v>43864</x:v>
+      </x:c>
+      <x:c r="I641"/>
+      <x:c r="J641" s="10" t="s"/>
+      <x:c r="K641" s="10" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="L641"/>
+      <x:c r="M641" s="10" t="s"/>
+      <x:c r="N641" s="10" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="O641"/>
+      <x:c r="P641" s="10" t="s"/>
+      <x:c r="Q641" s="7" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="R641"/>
+      <x:c r="S641" s="10" t="s"/>
+      <x:c r="T641" s="10" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="U641"/>
+      <x:c r="V641" s="10" t="s"/>
+    </x:row>
+    <x:row r="642" hidden="0">
+      <x:c r="A642">
+        <x:v>641</x:v>
+      </x:c>
+      <x:c r="B642" s="2">
+        <x:v>43865.3460763889</x:v>
+      </x:c>
+      <x:c r="C642" s="2">
+        <x:v>43865.3463078704</x:v>
+      </x:c>
+      <x:c r="D642" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E642" s="10" t="s"/>
+      <x:c r="F642"/>
+      <x:c r="G642" s="10" t="s"/>
+      <x:c r="H642" s="3">
+        <x:v>43865</x:v>
+      </x:c>
+      <x:c r="I642"/>
+      <x:c r="J642" s="10" t="s"/>
+      <x:c r="K642" s="10" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="L642"/>
+      <x:c r="M642" s="10" t="s"/>
+      <x:c r="N642" s="10" t="s">
+        <x:v>294</x:v>
+      </x:c>
+      <x:c r="O642"/>
+      <x:c r="P642" s="10" t="s"/>
+      <x:c r="Q642" s="7" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="R642"/>
+      <x:c r="S642" s="10" t="s"/>
+      <x:c r="T642" s="10" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="U642"/>
+      <x:c r="V642" s="10" t="s"/>
+    </x:row>
+    <x:row r="643" hidden="0">
+      <x:c r="A643">
+        <x:v>642</x:v>
+      </x:c>
+      <x:c r="B643" s="2">
+        <x:v>43865.4655092593</x:v>
+      </x:c>
+      <x:c r="C643" s="2">
+        <x:v>43865.4657407407</x:v>
+      </x:c>
+      <x:c r="D643" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E643" s="10" t="s"/>
+      <x:c r="F643"/>
+      <x:c r="G643" s="10" t="s"/>
+      <x:c r="H643" s="3">
+        <x:v>43857</x:v>
+      </x:c>
+      <x:c r="I643"/>
+      <x:c r="J643" s="10" t="s"/>
+      <x:c r="K643" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="L643"/>
+      <x:c r="M643" s="10" t="s"/>
+      <x:c r="N643" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="O643"/>
+      <x:c r="P643" s="10" t="s"/>
+      <x:c r="Q643" s="7" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="R643"/>
+      <x:c r="S643" s="10" t="s"/>
+      <x:c r="T643" s="10" t="s">
+        <x:v>251</x:v>
+      </x:c>
+      <x:c r="U643"/>
+      <x:c r="V643" s="10" t="s"/>
+    </x:row>
+    <x:row r="644" hidden="0">
+      <x:c r="A644">
+        <x:v>643</x:v>
+      </x:c>
+      <x:c r="B644" s="2">
+        <x:v>43865.4661458333</x:v>
+      </x:c>
+      <x:c r="C644" s="2">
+        <x:v>43865.4663425926</x:v>
+      </x:c>
+      <x:c r="D644" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E644" s="10" t="s"/>
+      <x:c r="F644"/>
+      <x:c r="G644" s="10" t="s"/>
+      <x:c r="H644" s="3">
+        <x:v>43857</x:v>
+      </x:c>
+      <x:c r="I644"/>
+      <x:c r="J644" s="10" t="s"/>
+      <x:c r="K644" s="10" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="L644"/>
+      <x:c r="M644" s="10" t="s"/>
+      <x:c r="N644" s="10" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="O644"/>
+      <x:c r="P644" s="10" t="s"/>
+      <x:c r="Q644" s="7" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="R644"/>
+      <x:c r="S644" s="10" t="s"/>
+      <x:c r="T644" s="10" t="s">
+        <x:v>267</x:v>
+      </x:c>
+      <x:c r="U644"/>
+      <x:c r="V644" s="10" t="s"/>
+    </x:row>
+    <x:row r="645" hidden="0">
+      <x:c r="A645">
+        <x:v>644</x:v>
+      </x:c>
+      <x:c r="B645" s="2">
+        <x:v>43865.4664583333</x:v>
+      </x:c>
+      <x:c r="C645" s="2">
+        <x:v>43865.4666435185</x:v>
+      </x:c>
+      <x:c r="D645" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E645" s="10" t="s"/>
+      <x:c r="F645"/>
+      <x:c r="G645" s="10" t="s"/>
+      <x:c r="H645" s="3">
+        <x:v>43857</x:v>
+      </x:c>
+      <x:c r="I645"/>
+      <x:c r="J645" s="10" t="s"/>
+      <x:c r="K645" s="10" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="L645"/>
+      <x:c r="M645" s="10" t="s"/>
+      <x:c r="N645" s="10" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="O645"/>
+      <x:c r="P645" s="10" t="s"/>
+      <x:c r="Q645" s="7" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="R645"/>
+      <x:c r="S645" s="10" t="s"/>
+      <x:c r="T645" s="10" t="s">
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="U645"/>
+      <x:c r="V645" s="10" t="s"/>
+    </x:row>
+    <x:row r="646" hidden="0">
+      <x:c r="A646">
+        <x:v>645</x:v>
+      </x:c>
+      <x:c r="B646" s="2">
+        <x:v>43865.4667361111</x:v>
+      </x:c>
+      <x:c r="C646" s="2">
+        <x:v>43865.467025463</x:v>
+      </x:c>
+      <x:c r="D646" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E646" s="10" t="s"/>
+      <x:c r="F646"/>
+      <x:c r="G646" s="10" t="s"/>
+      <x:c r="H646" s="3">
+        <x:v>43857</x:v>
+      </x:c>
+      <x:c r="I646"/>
+      <x:c r="J646" s="10" t="s"/>
+      <x:c r="K646" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="L646"/>
+      <x:c r="M646" s="10" t="s"/>
+      <x:c r="N646" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="O646"/>
+      <x:c r="P646" s="10" t="s"/>
+      <x:c r="Q646" s="7" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="R646"/>
+      <x:c r="S646" s="10" t="s"/>
+      <x:c r="T646" s="10" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="U646"/>
+      <x:c r="V646" s="10" t="s"/>
+    </x:row>
+    <x:row r="647" hidden="0">
+      <x:c r="A647">
+        <x:v>646</x:v>
+      </x:c>
+      <x:c r="B647" s="2">
+        <x:v>43865.4670833333</x:v>
+      </x:c>
+      <x:c r="C647" s="2">
+        <x:v>43865.4672569444</x:v>
+      </x:c>
+      <x:c r="D647" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E647" s="10" t="s"/>
+      <x:c r="F647"/>
+      <x:c r="G647" s="10" t="s"/>
+      <x:c r="H647" s="3">
+        <x:v>43857</x:v>
+      </x:c>
+      <x:c r="I647"/>
+      <x:c r="J647" s="10" t="s"/>
+      <x:c r="K647" s="10" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="L647"/>
+      <x:c r="M647" s="10" t="s"/>
+      <x:c r="N647" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="O647"/>
+      <x:c r="P647" s="10" t="s"/>
+      <x:c r="Q647" s="7" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="R647"/>
+      <x:c r="S647" s="10" t="s"/>
+      <x:c r="T647" s="10" t="s">
+        <x:v>267</x:v>
+      </x:c>
+      <x:c r="U647"/>
+      <x:c r="V647" s="10" t="s"/>
+    </x:row>
+    <x:row r="648" hidden="0">
+      <x:c r="A648">
+        <x:v>647</x:v>
+      </x:c>
+      <x:c r="B648" s="2">
+        <x:v>43865.4672916667</x:v>
+      </x:c>
+      <x:c r="C648" s="2">
+        <x:v>43865.4674421296</x:v>
+      </x:c>
+      <x:c r="D648" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E648" s="10" t="s"/>
+      <x:c r="F648"/>
+      <x:c r="G648" s="10" t="s"/>
+      <x:c r="H648" s="3">
+        <x:v>43857</x:v>
+      </x:c>
+      <x:c r="I648"/>
+      <x:c r="J648" s="10" t="s"/>
+      <x:c r="K648" s="10" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="L648"/>
+      <x:c r="M648" s="10" t="s"/>
+      <x:c r="N648" s="7" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="O648"/>
+      <x:c r="P648" s="10" t="s"/>
+      <x:c r="Q648" s="7" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="R648"/>
+      <x:c r="S648" s="10" t="s"/>
+      <x:c r="T648" s="10" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="U648"/>
+      <x:c r="V648" s="10" t="s"/>
+    </x:row>
+    <x:row r="649" hidden="0">
+      <x:c r="A649">
+        <x:v>648</x:v>
+      </x:c>
+      <x:c r="B649" s="2">
+        <x:v>43865.4675694444</x:v>
+      </x:c>
+      <x:c r="C649" s="2">
+        <x:v>43865.4678819444</x:v>
+      </x:c>
+      <x:c r="D649" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E649" s="10" t="s"/>
+      <x:c r="F649"/>
+      <x:c r="G649" s="10" t="s"/>
+      <x:c r="H649" s="3">
+        <x:v>43858</x:v>
+      </x:c>
+      <x:c r="I649"/>
+      <x:c r="J649" s="10" t="s"/>
+      <x:c r="K649" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="L649"/>
+      <x:c r="M649" s="10" t="s"/>
+      <x:c r="N649" s="10" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="O649"/>
+      <x:c r="P649" s="10" t="s"/>
+      <x:c r="Q649" s="7" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="R649"/>
+      <x:c r="S649" s="10" t="s"/>
+      <x:c r="T649" s="10" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="U649"/>
+      <x:c r="V649" s="10" t="s"/>
+    </x:row>
+    <x:row r="650" hidden="0">
+      <x:c r="A650">
+        <x:v>649</x:v>
+      </x:c>
+      <x:c r="B650" s="2">
+        <x:v>43865.4680208333</x:v>
+      </x:c>
+      <x:c r="C650" s="2">
+        <x:v>43865.4683912037</x:v>
+      </x:c>
+      <x:c r="D650" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E650" s="10" t="s"/>
+      <x:c r="F650"/>
+      <x:c r="G650" s="10" t="s"/>
+      <x:c r="H650" s="3">
+        <x:v>43858</x:v>
+      </x:c>
+      <x:c r="I650"/>
+      <x:c r="J650" s="10" t="s"/>
+      <x:c r="K650" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="L650"/>
+      <x:c r="M650" s="10" t="s"/>
+      <x:c r="N650" s="10" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="O650"/>
+      <x:c r="P650" s="10" t="s"/>
+      <x:c r="Q650" s="7" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="R650"/>
+      <x:c r="S650" s="10" t="s"/>
+      <x:c r="T650" s="10" t="s">
+        <x:v>251</x:v>
+      </x:c>
+      <x:c r="U650"/>
+      <x:c r="V650" s="10" t="s"/>
+    </x:row>
+    <x:row r="651" hidden="0">
+      <x:c r="A651">
+        <x:v>650</x:v>
+      </x:c>
+      <x:c r="B651" s="2">
+        <x:v>43865.4684953704</x:v>
+      </x:c>
+      <x:c r="C651" s="2">
+        <x:v>43865.4687037037</x:v>
+      </x:c>
+      <x:c r="D651" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E651" s="10" t="s"/>
+      <x:c r="F651"/>
+      <x:c r="G651" s="10" t="s"/>
+      <x:c r="H651" s="3">
+        <x:v>43858</x:v>
+      </x:c>
+      <x:c r="I651"/>
+      <x:c r="J651" s="10" t="s"/>
+      <x:c r="K651" s="10" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="L651"/>
+      <x:c r="M651" s="10" t="s"/>
+      <x:c r="N651" s="7" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="O651"/>
+      <x:c r="P651" s="10" t="s"/>
+      <x:c r="Q651" s="7" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="R651"/>
+      <x:c r="S651" s="10" t="s"/>
+      <x:c r="T651" s="10" t="s">
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="U651"/>
+      <x:c r="V651" s="10" t="s"/>
+    </x:row>
+    <x:row r="652" hidden="0">
+      <x:c r="A652">
+        <x:v>651</x:v>
+      </x:c>
+      <x:c r="B652" s="2">
+        <x:v>43865.4687384259</x:v>
+      </x:c>
+      <x:c r="C652" s="2">
+        <x:v>43865.4689351852</x:v>
+      </x:c>
+      <x:c r="D652" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E652" s="10" t="s"/>
+      <x:c r="F652"/>
+      <x:c r="G652" s="10" t="s"/>
+      <x:c r="H652" s="3">
+        <x:v>43858</x:v>
+      </x:c>
+      <x:c r="I652"/>
+      <x:c r="J652" s="10" t="s"/>
+      <x:c r="K652" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="L652"/>
+      <x:c r="M652" s="10" t="s"/>
+      <x:c r="N652" s="10" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="O652"/>
+      <x:c r="P652" s="10" t="s"/>
+      <x:c r="Q652" s="7" t="s">
+        <x:v>257</x:v>
+      </x:c>
+      <x:c r="R652"/>
+      <x:c r="S652" s="10" t="s"/>
+      <x:c r="T652" s="10" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="U652"/>
+      <x:c r="V652" s="10" t="s"/>
+    </x:row>
+    <x:row r="653" hidden="0">
+      <x:c r="A653">
+        <x:v>652</x:v>
+      </x:c>
+      <x:c r="B653" s="2">
+        <x:v>43865.4689814815</x:v>
+      </x:c>
+      <x:c r="C653" s="2">
+        <x:v>43865.4691782407</x:v>
+      </x:c>
+      <x:c r="D653" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E653" s="10" t="s"/>
+      <x:c r="F653"/>
+      <x:c r="G653" s="10" t="s"/>
+      <x:c r="H653" s="3">
+        <x:v>43858</x:v>
+      </x:c>
+      <x:c r="I653"/>
+      <x:c r="J653" s="10" t="s"/>
+      <x:c r="K653" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="L653"/>
+      <x:c r="M653" s="10" t="s"/>
+      <x:c r="N653" s="10" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="O653"/>
+      <x:c r="P653" s="10" t="s"/>
+      <x:c r="Q653" s="7" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="R653"/>
+      <x:c r="S653" s="10" t="s"/>
+      <x:c r="T653" s="10" t="s">
+        <x:v>251</x:v>
+      </x:c>
+      <x:c r="U653"/>
+      <x:c r="V653" s="10" t="s"/>
+    </x:row>
+    <x:row r="654" hidden="0">
+      <x:c r="A654">
+        <x:v>653</x:v>
+      </x:c>
+      <x:c r="B654" s="2">
+        <x:v>43865.4692592593</x:v>
+      </x:c>
+      <x:c r="C654" s="2">
+        <x:v>43865.4700231481</x:v>
+      </x:c>
+      <x:c r="D654" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E654" s="10" t="s"/>
+      <x:c r="F654"/>
+      <x:c r="G654" s="10" t="s"/>
+      <x:c r="H654" s="3">
+        <x:v>43858</x:v>
+      </x:c>
+      <x:c r="I654"/>
+      <x:c r="J654" s="10" t="s"/>
+      <x:c r="K654" s="10" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="L654"/>
+      <x:c r="M654" s="10" t="s"/>
+      <x:c r="N654" s="10" t="s">
+        <x:v>309</x:v>
+      </x:c>
+      <x:c r="O654"/>
+      <x:c r="P654" s="10" t="s"/>
+      <x:c r="Q654" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="R654"/>
+      <x:c r="S654" s="10" t="s"/>
+      <x:c r="T654" s="10" t="s">
+        <x:v>261</x:v>
+      </x:c>
+      <x:c r="U654"/>
+      <x:c r="V654" s="10" t="s"/>
+    </x:row>
+    <x:row r="655" hidden="0">
+      <x:c r="A655">
+        <x:v>654</x:v>
+      </x:c>
+      <x:c r="B655" s="2">
+        <x:v>43865.4700694444</x:v>
+      </x:c>
+      <x:c r="C655" s="2">
+        <x:v>43865.4704398148</x:v>
+      </x:c>
+      <x:c r="D655" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E655" s="10" t="s"/>
+      <x:c r="F655"/>
+      <x:c r="G655" s="10" t="s"/>
+      <x:c r="H655" s="3">
+        <x:v>43860</x:v>
+      </x:c>
+      <x:c r="I655"/>
+      <x:c r="J655" s="10" t="s"/>
+      <x:c r="K655" s="10" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="L655"/>
+      <x:c r="M655" s="10" t="s"/>
+      <x:c r="N655" s="10" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="O655"/>
+      <x:c r="P655" s="10" t="s"/>
+      <x:c r="Q655" s="7" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="R655"/>
+      <x:c r="S655" s="10" t="s"/>
+      <x:c r="T655" s="10" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="U655"/>
+      <x:c r="V655" s="10" t="s"/>
+    </x:row>
+    <x:row r="656" hidden="0">
+      <x:c r="A656">
+        <x:v>655</x:v>
+      </x:c>
+      <x:c r="B656" s="2">
+        <x:v>43865.4704861111</x:v>
+      </x:c>
+      <x:c r="C656" s="2">
+        <x:v>43865.4707175926</x:v>
+      </x:c>
+      <x:c r="D656" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E656" s="10" t="s"/>
+      <x:c r="F656"/>
+      <x:c r="G656" s="10" t="s"/>
+      <x:c r="H656" s="3">
+        <x:v>43860</x:v>
+      </x:c>
+      <x:c r="I656"/>
+      <x:c r="J656" s="10" t="s"/>
+      <x:c r="K656" s="10" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="L656"/>
+      <x:c r="M656" s="10" t="s"/>
+      <x:c r="N656" s="10" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="O656"/>
+      <x:c r="P656" s="10" t="s"/>
+      <x:c r="Q656" s="7" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="R656"/>
+      <x:c r="S656" s="10" t="s"/>
+      <x:c r="T656" s="10" t="s">
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="U656"/>
+      <x:c r="V656" s="10" t="s"/>
+    </x:row>
+    <x:row r="657" hidden="0">
+      <x:c r="A657">
+        <x:v>656</x:v>
+      </x:c>
+      <x:c r="B657" s="2">
+        <x:v>43865.4710416667</x:v>
+      </x:c>
+      <x:c r="C657" s="2">
+        <x:v>43865.4712962963</x:v>
+      </x:c>
+      <x:c r="D657" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E657" s="10" t="s"/>
+      <x:c r="F657"/>
+      <x:c r="G657" s="10" t="s"/>
+      <x:c r="H657" s="3">
+        <x:v>43861</x:v>
+      </x:c>
+      <x:c r="I657"/>
+      <x:c r="J657" s="10" t="s"/>
+      <x:c r="K657" s="10" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="L657"/>
+      <x:c r="M657" s="10" t="s"/>
+      <x:c r="N657" s="10" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="O657"/>
+      <x:c r="P657" s="10" t="s"/>
+      <x:c r="Q657" s="7" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="R657"/>
+      <x:c r="S657" s="10" t="s"/>
+      <x:c r="T657" s="10" t="s">
+        <x:v>265</x:v>
+      </x:c>
+      <x:c r="U657"/>
+      <x:c r="V657" s="10" t="s"/>
+    </x:row>
+    <x:row r="658" hidden="0">
+      <x:c r="A658">
+        <x:v>657</x:v>
+      </x:c>
+      <x:c r="B658" s="2">
+        <x:v>43865.4713425926</x:v>
+      </x:c>
+      <x:c r="C658" s="2">
+        <x:v>43865.4716087963</x:v>
+      </x:c>
+      <x:c r="D658" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E658" s="10" t="s"/>
+      <x:c r="F658"/>
+      <x:c r="G658" s="10" t="s"/>
+      <x:c r="H658" s="3">
+        <x:v>43861</x:v>
+      </x:c>
+      <x:c r="I658"/>
+      <x:c r="J658" s="10" t="s"/>
+      <x:c r="K658" s="10" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="L658"/>
+      <x:c r="M658" s="10" t="s"/>
+      <x:c r="N658" s="10" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="O658"/>
+      <x:c r="P658" s="10" t="s"/>
+      <x:c r="Q658" s="7" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="R658"/>
+      <x:c r="S658" s="10" t="s"/>
+      <x:c r="T658" s="10" t="s">
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="U658"/>
+      <x:c r="V658" s="10" t="s"/>
+    </x:row>
+    <x:row r="659" hidden="0">
+      <x:c r="A659">
+        <x:v>658</x:v>
+      </x:c>
+      <x:c r="B659" s="2">
+        <x:v>43865.4717361111</x:v>
+      </x:c>
+      <x:c r="C659" s="2">
+        <x:v>43865.4719444444</x:v>
+      </x:c>
+      <x:c r="D659" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E659" s="10" t="s"/>
+      <x:c r="F659"/>
+      <x:c r="G659" s="10" t="s"/>
+      <x:c r="H659" s="3">
+        <x:v>43861</x:v>
+      </x:c>
+      <x:c r="I659"/>
+      <x:c r="J659" s="10" t="s"/>
+      <x:c r="K659" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="L659"/>
+      <x:c r="M659" s="10" t="s"/>
+      <x:c r="N659" s="10" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="O659"/>
+      <x:c r="P659" s="10" t="s"/>
+      <x:c r="Q659" s="7" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="R659"/>
+      <x:c r="S659" s="10" t="s"/>
+      <x:c r="T659" s="10" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="U659"/>
+      <x:c r="V659" s="10" t="s"/>
+    </x:row>
+    <x:row r="660" hidden="0">
+      <x:c r="A660">
+        <x:v>659</x:v>
+      </x:c>
+      <x:c r="B660" s="2">
+        <x:v>43865.4719907407</x:v>
+      </x:c>
+      <x:c r="C660" s="2">
+        <x:v>43865.4721643519</x:v>
+      </x:c>
+      <x:c r="D660" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E660" s="10" t="s"/>
+      <x:c r="F660"/>
+      <x:c r="G660" s="10" t="s"/>
+      <x:c r="H660" s="3">
+        <x:v>43861</x:v>
+      </x:c>
+      <x:c r="I660"/>
+      <x:c r="J660" s="10" t="s"/>
+      <x:c r="K660" s="10" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="L660"/>
+      <x:c r="M660" s="10" t="s"/>
+      <x:c r="N660" s="10" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="O660"/>
+      <x:c r="P660" s="10" t="s"/>
+      <x:c r="Q660" s="7" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="R660"/>
+      <x:c r="S660" s="10" t="s"/>
+      <x:c r="T660" s="10" t="s">
+        <x:v>267</x:v>
+      </x:c>
+      <x:c r="U660"/>
+      <x:c r="V660" s="10" t="s"/>
+    </x:row>
+    <x:row r="661" hidden="0">
+      <x:c r="A661">
+        <x:v>660</x:v>
+      </x:c>
+      <x:c r="B661" s="2">
+        <x:v>43865.4725925926</x:v>
+      </x:c>
+      <x:c r="C661" s="2">
+        <x:v>43865.4735300926</x:v>
+      </x:c>
+      <x:c r="D661" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E661" s="10" t="s"/>
+      <x:c r="F661"/>
+      <x:c r="G661" s="10" t="s"/>
+      <x:c r="H661" s="3">
+        <x:v>43862</x:v>
+      </x:c>
+      <x:c r="I661"/>
+      <x:c r="J661" s="10" t="s"/>
+      <x:c r="K661" s="10" t="s">
+        <x:v>310</x:v>
+      </x:c>
+      <x:c r="L661"/>
+      <x:c r="M661" s="10" t="s"/>
+      <x:c r="N661" s="10" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="O661"/>
+      <x:c r="P661" s="10" t="s"/>
+      <x:c r="Q661" s="7" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="R661"/>
+      <x:c r="S661" s="10" t="s"/>
+      <x:c r="T661" s="10" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="U661"/>
+      <x:c r="V661" s="10" t="s"/>
+    </x:row>
+    <x:row r="662" hidden="0">
+      <x:c r="A662">
+        <x:v>661</x:v>
+      </x:c>
+      <x:c r="B662" s="2">
+        <x:v>43865.4736574074</x:v>
+      </x:c>
+      <x:c r="C662" s="2">
+        <x:v>43865.473900463</x:v>
+      </x:c>
+      <x:c r="D662" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E662" s="10" t="s"/>
+      <x:c r="F662"/>
+      <x:c r="G662" s="10" t="s"/>
+      <x:c r="H662" s="3">
+        <x:v>43862</x:v>
+      </x:c>
+      <x:c r="I662"/>
+      <x:c r="J662" s="10" t="s"/>
+      <x:c r="K662" s="10" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="L662"/>
+      <x:c r="M662" s="10" t="s"/>
+      <x:c r="N662" s="10" t="s">
+        <x:v>234</x:v>
+      </x:c>
+      <x:c r="O662"/>
+      <x:c r="P662" s="10" t="s"/>
+      <x:c r="Q662" s="7" t="s">
+        <x:v>257</x:v>
+      </x:c>
+      <x:c r="R662"/>
+      <x:c r="S662" s="10" t="s"/>
+      <x:c r="T662" s="10" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="U662"/>
+      <x:c r="V662" s="10" t="s"/>
+    </x:row>
+    <x:row r="663" hidden="0">
+      <x:c r="A663">
+        <x:v>662</x:v>
+      </x:c>
+      <x:c r="B663" s="2">
+        <x:v>43865.4739467593</x:v>
+      </x:c>
+      <x:c r="C663" s="2">
+        <x:v>43865.4741898148</x:v>
+      </x:c>
+      <x:c r="D663" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E663" s="10" t="s"/>
+      <x:c r="F663"/>
+      <x:c r="G663" s="10" t="s"/>
+      <x:c r="H663" s="3">
+        <x:v>43862</x:v>
+      </x:c>
+      <x:c r="I663"/>
+      <x:c r="J663" s="10" t="s"/>
+      <x:c r="K663" s="10" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="L663"/>
+      <x:c r="M663" s="10" t="s"/>
+      <x:c r="N663" s="10" t="s">
+        <x:v>311</x:v>
+      </x:c>
+      <x:c r="O663"/>
+      <x:c r="P663" s="10" t="s"/>
+      <x:c r="Q663" s="7" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="R663"/>
+      <x:c r="S663" s="10" t="s"/>
+      <x:c r="T663" s="10" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="U663"/>
+      <x:c r="V663" s="10" t="s"/>
+    </x:row>
+    <x:row r="664" hidden="0">
+      <x:c r="A664">
+        <x:v>663</x:v>
+      </x:c>
+      <x:c r="B664" s="2">
+        <x:v>43865.4746064815</x:v>
+      </x:c>
+      <x:c r="C664" s="2">
+        <x:v>43865.4748726852</x:v>
+      </x:c>
+      <x:c r="D664" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E664" s="10" t="s"/>
+      <x:c r="F664"/>
+      <x:c r="G664" s="10" t="s"/>
+      <x:c r="H664" s="3">
+        <x:v>43864</x:v>
+      </x:c>
+      <x:c r="I664"/>
+      <x:c r="J664" s="10" t="s"/>
+      <x:c r="K664" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="L664"/>
+      <x:c r="M664" s="10" t="s"/>
+      <x:c r="N664" s="10" t="s">
+        <x:v>312</x:v>
+      </x:c>
+      <x:c r="O664"/>
+      <x:c r="P664" s="10" t="s"/>
+      <x:c r="Q664" s="7" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="R664"/>
+      <x:c r="S664" s="10" t="s"/>
+      <x:c r="T664" s="10" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="U664"/>
+      <x:c r="V664" s="10" t="s"/>
+    </x:row>
+    <x:row r="665" hidden="0">
+      <x:c r="A665">
+        <x:v>664</x:v>
+      </x:c>
+      <x:c r="B665" s="2">
+        <x:v>43865.4749074074</x:v>
+      </x:c>
+      <x:c r="C665" s="2">
+        <x:v>43865.4750231481</x:v>
+      </x:c>
+      <x:c r="D665" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E665" s="10" t="s"/>
+      <x:c r="F665"/>
+      <x:c r="G665" s="10" t="s"/>
+      <x:c r="H665" s="3">
+        <x:v>43864</x:v>
+      </x:c>
+      <x:c r="I665"/>
+      <x:c r="J665" s="10" t="s"/>
+      <x:c r="K665" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="L665"/>
+      <x:c r="M665" s="10" t="s"/>
+      <x:c r="N665" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="O665"/>
+      <x:c r="P665" s="10" t="s"/>
+      <x:c r="Q665" s="7" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="R665"/>
+      <x:c r="S665" s="10" t="s"/>
+      <x:c r="T665" s="10" t="s">
+        <x:v>251</x:v>
+      </x:c>
+      <x:c r="U665"/>
+      <x:c r="V665" s="10" t="s"/>
+    </x:row>
+    <x:row r="666" hidden="0">
+      <x:c r="A666">
+        <x:v>665</x:v>
+      </x:c>
+      <x:c r="B666" s="2">
+        <x:v>43865.4755902778</x:v>
+      </x:c>
+      <x:c r="C666" s="2">
+        <x:v>43865.4758564815</x:v>
+      </x:c>
+      <x:c r="D666" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E666" s="10" t="s"/>
+      <x:c r="F666"/>
+      <x:c r="G666" s="10" t="s"/>
+      <x:c r="H666" s="3">
+        <x:v>43864</x:v>
+      </x:c>
+      <x:c r="I666"/>
+      <x:c r="J666" s="10" t="s"/>
+      <x:c r="K666" s="10" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="L666"/>
+      <x:c r="M666" s="10" t="s"/>
+      <x:c r="N666" s="10" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="O666"/>
+      <x:c r="P666" s="10" t="s"/>
+      <x:c r="Q666" s="7" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="R666"/>
+      <x:c r="S666" s="10" t="s"/>
+      <x:c r="T666" s="10" t="s">
+        <x:v>267</x:v>
+      </x:c>
+      <x:c r="U666"/>
+      <x:c r="V666" s="10" t="s"/>
+    </x:row>
+    <x:row r="667" hidden="0">
+      <x:c r="A667">
+        <x:v>666</x:v>
+      </x:c>
+      <x:c r="B667" s="2">
+        <x:v>43865.4759027778</x:v>
+      </x:c>
+      <x:c r="C667" s="2">
+        <x:v>43865.4761226852</x:v>
+      </x:c>
+      <x:c r="D667" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E667" s="10" t="s"/>
+      <x:c r="F667"/>
+      <x:c r="G667" s="10" t="s"/>
+      <x:c r="H667" s="3">
+        <x:v>43864</x:v>
+      </x:c>
+      <x:c r="I667"/>
+      <x:c r="J667" s="10" t="s"/>
+      <x:c r="K667" s="10" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="L667"/>
+      <x:c r="M667" s="10" t="s"/>
+      <x:c r="N667" s="10" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="O667"/>
+      <x:c r="P667" s="10" t="s"/>
+      <x:c r="Q667" s="7" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="R667"/>
+      <x:c r="S667" s="10" t="s"/>
+      <x:c r="T667" s="10" t="s">
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="U667"/>
+      <x:c r="V667" s="10" t="s"/>
+    </x:row>
+    <x:row r="668" hidden="0">
+      <x:c r="A668">
+        <x:v>667</x:v>
+      </x:c>
+      <x:c r="B668" s="2">
+        <x:v>43865.4761574074</x:v>
+      </x:c>
+      <x:c r="C668" s="2">
+        <x:v>43865.4763310185</x:v>
+      </x:c>
+      <x:c r="D668" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E668" s="10" t="s"/>
+      <x:c r="F668"/>
+      <x:c r="G668" s="10" t="s"/>
+      <x:c r="H668" s="3">
+        <x:v>43864</x:v>
+      </x:c>
+      <x:c r="I668"/>
+      <x:c r="J668" s="10" t="s"/>
+      <x:c r="K668" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="L668"/>
+      <x:c r="M668" s="10" t="s"/>
+      <x:c r="N668" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="O668"/>
+      <x:c r="P668" s="10" t="s"/>
+      <x:c r="Q668" s="7" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="R668"/>
+      <x:c r="S668" s="10" t="s"/>
+      <x:c r="T668" s="10" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="U668"/>
+      <x:c r="V668" s="10" t="s"/>
+    </x:row>
+    <x:row r="669" hidden="0">
+      <x:c r="A669">
+        <x:v>668</x:v>
+      </x:c>
+      <x:c r="B669" s="2">
+        <x:v>43865.4763773148</x:v>
+      </x:c>
+      <x:c r="C669" s="2">
+        <x:v>43865.4765509259</x:v>
+      </x:c>
+      <x:c r="D669" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E669" s="10" t="s"/>
+      <x:c r="F669"/>
+      <x:c r="G669" s="10" t="s"/>
+      <x:c r="H669" s="3">
+        <x:v>43864</x:v>
+      </x:c>
+      <x:c r="I669"/>
+      <x:c r="J669" s="10" t="s"/>
+      <x:c r="K669" s="10" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="L669"/>
+      <x:c r="M669" s="10" t="s"/>
+      <x:c r="N669" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="O669"/>
+      <x:c r="P669" s="10" t="s"/>
+      <x:c r="Q669" s="7" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="R669"/>
+      <x:c r="S669" s="10" t="s"/>
+      <x:c r="T669" s="10" t="s">
+        <x:v>267</x:v>
+      </x:c>
+      <x:c r="U669"/>
+      <x:c r="V669" s="10" t="s"/>
+    </x:row>
+    <x:row r="670" hidden="0">
+      <x:c r="A670">
+        <x:v>669</x:v>
+      </x:c>
+      <x:c r="B670" s="2">
+        <x:v>43865.4766087963</x:v>
+      </x:c>
+      <x:c r="C670" s="2">
+        <x:v>43865.4767476852</x:v>
+      </x:c>
+      <x:c r="D670" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E670" s="10" t="s"/>
+      <x:c r="F670"/>
+      <x:c r="G670" s="10" t="s"/>
+      <x:c r="H670" s="3">
+        <x:v>43864</x:v>
+      </x:c>
+      <x:c r="I670"/>
+      <x:c r="J670" s="10" t="s"/>
+      <x:c r="K670" s="10" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="L670"/>
+      <x:c r="M670" s="10" t="s"/>
+      <x:c r="N670" s="7" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="O670"/>
+      <x:c r="P670" s="10" t="s"/>
+      <x:c r="Q670" s="7" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="R670"/>
+      <x:c r="S670" s="10" t="s"/>
+      <x:c r="T670" s="10" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="U670"/>
+      <x:c r="V670" s="10" t="s"/>
+    </x:row>
+    <x:row r="671" hidden="0">
+      <x:c r="A671">
+        <x:v>670</x:v>
+      </x:c>
+      <x:c r="B671" s="2">
+        <x:v>43865.5404976852</x:v>
+      </x:c>
+      <x:c r="C671" s="2">
+        <x:v>43865.5411458333</x:v>
+      </x:c>
+      <x:c r="D671" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E671" s="10" t="s"/>
+      <x:c r="F671"/>
+      <x:c r="G671" s="10" t="s"/>
+      <x:c r="H671" s="3">
+        <x:v>43865</x:v>
+      </x:c>
+      <x:c r="I671"/>
+      <x:c r="J671" s="10" t="s"/>
+      <x:c r="K671" s="10" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="L671"/>
+      <x:c r="M671" s="10" t="s"/>
+      <x:c r="N671" s="10" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="O671"/>
+      <x:c r="P671" s="10" t="s"/>
+      <x:c r="Q671" s="7" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="R671"/>
+      <x:c r="S671" s="10" t="s"/>
+      <x:c r="T671" s="10" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="U671"/>
+      <x:c r="V671" s="10" t="s"/>
+    </x:row>
+    <x:row r="672" hidden="0">
+      <x:c r="A672">
+        <x:v>671</x:v>
+      </x:c>
+      <x:c r="B672" s="2">
+        <x:v>43865.5810763889</x:v>
+      </x:c>
+      <x:c r="C672" s="2">
+        <x:v>43865.5818287037</x:v>
+      </x:c>
+      <x:c r="D672" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E672" s="10" t="s"/>
+      <x:c r="F672"/>
+      <x:c r="G672" s="10" t="s"/>
+      <x:c r="H672" s="3">
+        <x:v>43865</x:v>
+      </x:c>
+      <x:c r="I672"/>
+      <x:c r="J672" s="10" t="s"/>
+      <x:c r="K672" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="L672"/>
+      <x:c r="M672" s="10" t="s"/>
+      <x:c r="N672" s="10" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="O672"/>
+      <x:c r="P672" s="10" t="s"/>
+      <x:c r="Q672" s="7" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="R672"/>
+      <x:c r="S672" s="10" t="s"/>
+      <x:c r="T672" s="10" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="U672"/>
+      <x:c r="V672" s="10" t="s"/>
+    </x:row>
+    <x:row r="673" hidden="0">
+      <x:c r="A673">
+        <x:v>672</x:v>
+      </x:c>
+      <x:c r="B673" s="2">
+        <x:v>43865.6590393518</x:v>
+      </x:c>
+      <x:c r="C673" s="2">
+        <x:v>43865.6593171296</x:v>
+      </x:c>
+      <x:c r="D673" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E673" s="10" t="s"/>
+      <x:c r="F673"/>
+      <x:c r="G673" s="10" t="s"/>
+      <x:c r="H673" s="3">
+        <x:v>43864</x:v>
+      </x:c>
+      <x:c r="I673"/>
+      <x:c r="J673" s="10" t="s"/>
+      <x:c r="K673" s="10" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="L673"/>
+      <x:c r="M673" s="10" t="s"/>
+      <x:c r="N673" s="10" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="O673"/>
+      <x:c r="P673" s="10" t="s"/>
+      <x:c r="Q673" s="7" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="R673"/>
+      <x:c r="S673" s="10" t="s"/>
+      <x:c r="T673" s="10" t="s">
+        <x:v>254</x:v>
+      </x:c>
+      <x:c r="U673"/>
+      <x:c r="V673" s="10" t="s"/>
+    </x:row>
+    <x:row r="674" hidden="0">
+      <x:c r="A674">
+        <x:v>673</x:v>
+      </x:c>
+      <x:c r="B674" s="2">
+        <x:v>43865.6593402778</x:v>
+      </x:c>
+      <x:c r="C674" s="2">
+        <x:v>43865.6598148148</x:v>
+      </x:c>
+      <x:c r="D674" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E674" s="10" t="s"/>
+      <x:c r="F674"/>
+      <x:c r="G674" s="10" t="s"/>
+      <x:c r="H674" s="3">
+        <x:v>43865</x:v>
+      </x:c>
+      <x:c r="I674"/>
+      <x:c r="J674" s="10" t="s"/>
+      <x:c r="K674" s="10" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="L674"/>
+      <x:c r="M674" s="10" t="s"/>
+      <x:c r="N674" s="10" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="O674"/>
+      <x:c r="P674" s="10" t="s"/>
+      <x:c r="Q674" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="R674"/>
+      <x:c r="S674" s="10" t="s"/>
+      <x:c r="T674" s="10" t="s">
+        <x:v>278</x:v>
+      </x:c>
+      <x:c r="U674"/>
+      <x:c r="V674" s="10" t="s"/>
+    </x:row>
+    <x:row r="675" hidden="0">
+      <x:c r="A675">
+        <x:v>674</x:v>
+      </x:c>
+      <x:c r="B675" s="2">
+        <x:v>43865.6598263889</x:v>
+      </x:c>
+      <x:c r="C675" s="2">
+        <x:v>43865.6601736111</x:v>
+      </x:c>
+      <x:c r="D675" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E675" s="10" t="s"/>
+      <x:c r="F675"/>
+      <x:c r="G675" s="10" t="s"/>
+      <x:c r="H675" s="3">
+        <x:v>43865</x:v>
+      </x:c>
+      <x:c r="I675"/>
+      <x:c r="J675" s="10" t="s"/>
+      <x:c r="K675" s="10" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="L675"/>
+      <x:c r="M675" s="10" t="s"/>
+      <x:c r="N675" s="10" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="O675"/>
+      <x:c r="P675" s="10" t="s"/>
+      <x:c r="Q675" s="7" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="R675"/>
+      <x:c r="S675" s="10" t="s"/>
+      <x:c r="T675" s="10" t="s">
+        <x:v>259</x:v>
+      </x:c>
+      <x:c r="U675"/>
+      <x:c r="V675" s="10" t="s"/>
+    </x:row>
+    <x:row r="676" hidden="0">
+      <x:c r="A676">
+        <x:v>675</x:v>
+      </x:c>
+      <x:c r="B676" s="2">
+        <x:v>43865.6601851852</x:v>
+      </x:c>
+      <x:c r="C676" s="2">
+        <x:v>43865.6604976852</x:v>
+      </x:c>
+      <x:c r="D676" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E676" s="10" t="s"/>
+      <x:c r="F676"/>
+      <x:c r="G676" s="10" t="s"/>
+      <x:c r="H676" s="3">
+        <x:v>43865</x:v>
+      </x:c>
+      <x:c r="I676"/>
+      <x:c r="J676" s="10" t="s"/>
+      <x:c r="K676" s="10" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="L676"/>
+      <x:c r="M676" s="10" t="s"/>
+      <x:c r="N676" s="10" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="O676"/>
+      <x:c r="P676" s="10" t="s"/>
+      <x:c r="Q676" s="7" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="R676"/>
+      <x:c r="S676" s="10" t="s"/>
+      <x:c r="T676" s="10" t="s">
+        <x:v>268</x:v>
+      </x:c>
+      <x:c r="U676"/>
+      <x:c r="V676" s="10" t="s"/>
+    </x:row>
+    <x:row r="677" hidden="0">
+      <x:c r="A677">
+        <x:v>676</x:v>
+      </x:c>
+      <x:c r="B677" s="2">
+        <x:v>43865.6605208333</x:v>
+      </x:c>
+      <x:c r="C677" s="2">
+        <x:v>43865.6607175926</x:v>
+      </x:c>
+      <x:c r="D677" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E677" s="10" t="s"/>
+      <x:c r="F677"/>
+      <x:c r="G677" s="10" t="s"/>
+      <x:c r="H677" s="3">
+        <x:v>43865</x:v>
+      </x:c>
+      <x:c r="I677"/>
+      <x:c r="J677" s="10" t="s"/>
+      <x:c r="K677" s="10" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="L677"/>
+      <x:c r="M677" s="10" t="s"/>
+      <x:c r="N677" s="10" t="s">
+        <x:v>306</x:v>
+      </x:c>
+      <x:c r="O677"/>
+      <x:c r="P677" s="10" t="s"/>
+      <x:c r="Q677" s="7" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="R677"/>
+      <x:c r="S677" s="10" t="s"/>
+      <x:c r="T677" s="10" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="U677"/>
+      <x:c r="V677" s="10" t="s"/>
+    </x:row>
+    <x:row r="678" hidden="0">
+      <x:c r="A678">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="B678" s="2">
+        <x:v>43865.6608217593</x:v>
+      </x:c>
+      <x:c r="C678" s="2">
+        <x:v>43865.6610069444</x:v>
+      </x:c>
+      <x:c r="D678" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E678" s="10" t="s"/>
+      <x:c r="F678"/>
+      <x:c r="G678" s="10" t="s"/>
+      <x:c r="H678" s="3">
+        <x:v>43865</x:v>
+      </x:c>
+      <x:c r="I678"/>
+      <x:c r="J678" s="10" t="s"/>
+      <x:c r="K678" s="10" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="L678"/>
+      <x:c r="M678" s="10" t="s"/>
+      <x:c r="N678" s="7" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="O678"/>
+      <x:c r="P678" s="10" t="s"/>
+      <x:c r="Q678" s="7" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="R678"/>
+      <x:c r="S678" s="10" t="s"/>
+      <x:c r="T678" s="10" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="U678"/>
+      <x:c r="V678" s="10" t="s"/>
+    </x:row>
+    <x:row r="679" hidden="0">
+      <x:c r="A679">
+        <x:v>678</x:v>
+      </x:c>
+      <x:c r="B679" s="2">
+        <x:v>43865.6774537037</x:v>
+      </x:c>
+      <x:c r="C679" s="2">
+        <x:v>43865.6777314815</x:v>
+      </x:c>
+      <x:c r="D679" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E679" s="10" t="s"/>
+      <x:c r="F679"/>
+      <x:c r="G679" s="10" t="s"/>
+      <x:c r="H679" s="3">
+        <x:v>43865</x:v>
+      </x:c>
+      <x:c r="I679"/>
+      <x:c r="J679" s="10" t="s"/>
+      <x:c r="K679" s="10" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="L679"/>
+      <x:c r="M679" s="10" t="s"/>
+      <x:c r="N679" s="7" t="s">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="O679"/>
+      <x:c r="P679" s="10" t="s"/>
+      <x:c r="Q679" s="7" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="R679"/>
+      <x:c r="S679" s="10" t="s"/>
+      <x:c r="T679" s="10" t="s">
+        <x:v>259</x:v>
+      </x:c>
+      <x:c r="U679"/>
+      <x:c r="V679" s="10" t="s"/>
+    </x:row>
+    <x:row r="680" hidden="0">
+      <x:c r="A680">
+        <x:v>679</x:v>
+      </x:c>
+      <x:c r="B680" s="2">
+        <x:v>43865.710462963</x:v>
+      </x:c>
+      <x:c r="C680" s="2">
+        <x:v>43865.7107291667</x:v>
+      </x:c>
+      <x:c r="D680" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E680" s="10" t="s"/>
+      <x:c r="F680"/>
+      <x:c r="G680" s="10" t="s"/>
+      <x:c r="H680" s="3">
+        <x:v>43865</x:v>
+      </x:c>
+      <x:c r="I680"/>
+      <x:c r="J680" s="10" t="s"/>
+      <x:c r="K680" s="10" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="L680"/>
+      <x:c r="M680" s="10" t="s"/>
+      <x:c r="N680" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="O680"/>
+      <x:c r="P680" s="10" t="s"/>
+      <x:c r="Q680" s="7" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="R680"/>
+      <x:c r="S680" s="10" t="s"/>
+      <x:c r="T680" s="10" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="U680"/>
+      <x:c r="V680" s="10" t="s"/>
+    </x:row>
+    <x:row r="681" hidden="0">
+      <x:c r="A681">
+        <x:v>680</x:v>
+      </x:c>
+      <x:c r="B681" s="2">
+        <x:v>43865.7519444444</x:v>
+      </x:c>
+      <x:c r="C681" s="2">
+        <x:v>43865.7522106481</x:v>
+      </x:c>
+      <x:c r="D681" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E681" s="10" t="s"/>
+      <x:c r="F681"/>
+      <x:c r="G681" s="10" t="s"/>
+      <x:c r="H681" s="3">
+        <x:v>43865</x:v>
+      </x:c>
+      <x:c r="I681"/>
+      <x:c r="J681" s="10" t="s"/>
+      <x:c r="K681" s="10" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="L681"/>
+      <x:c r="M681" s="10" t="s"/>
+      <x:c r="N681" s="10" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="O681"/>
+      <x:c r="P681" s="10" t="s"/>
+      <x:c r="Q681" s="7" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="R681"/>
+      <x:c r="S681" s="10" t="s"/>
+      <x:c r="T681" s="10" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="U681"/>
+      <x:c r="V681" s="10" t="s"/>
+    </x:row>
+    <x:row r="682" hidden="0">
+      <x:c r="A682">
+        <x:v>681</x:v>
+      </x:c>
+      <x:c r="B682" s="2">
+        <x:v>43865.7663541667</x:v>
+      </x:c>
+      <x:c r="C682" s="2">
+        <x:v>43865.7667476852</x:v>
+      </x:c>
+      <x:c r="D682" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E682" s="10" t="s"/>
+      <x:c r="F682"/>
+      <x:c r="G682" s="10" t="s"/>
+      <x:c r="H682" s="3">
+        <x:v>43865</x:v>
+      </x:c>
+      <x:c r="I682"/>
+      <x:c r="J682" s="10" t="s"/>
+      <x:c r="K682" s="10" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="L682"/>
+      <x:c r="M682" s="10" t="s"/>
+      <x:c r="N682" s="10" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="O682"/>
+      <x:c r="P682" s="10" t="s"/>
+      <x:c r="Q682" s="7" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="R682"/>
+      <x:c r="S682" s="10" t="s"/>
+      <x:c r="T682" s="10" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="U682"/>
+      <x:c r="V682" s="10" t="s"/>
+    </x:row>
+    <x:row r="683" hidden="0">
+      <x:c r="A683">
+        <x:v>682</x:v>
+      </x:c>
+      <x:c r="B683" s="2">
+        <x:v>43865.767037037</x:v>
+      </x:c>
+      <x:c r="C683" s="2">
+        <x:v>43865.7800347222</x:v>
+      </x:c>
+      <x:c r="D683" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E683" s="10" t="s"/>
+      <x:c r="F683"/>
+      <x:c r="G683" s="10" t="s"/>
+      <x:c r="H683" s="3">
+        <x:v>43865</x:v>
+      </x:c>
+      <x:c r="I683"/>
+      <x:c r="J683" s="10" t="s"/>
+      <x:c r="K683" s="10" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="L683"/>
+      <x:c r="M683" s="10" t="s"/>
+      <x:c r="N683" s="10" t="s">
+        <x:v>313</x:v>
+      </x:c>
+      <x:c r="O683"/>
+      <x:c r="P683" s="10" t="s"/>
+      <x:c r="Q683" s="7" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="R683"/>
+      <x:c r="S683" s="10" t="s"/>
+      <x:c r="T683" s="10" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="U683"/>
+      <x:c r="V683" s="10" t="s"/>
+    </x:row>
+    <x:row r="684" hidden="0">
+      <x:c r="A684">
+        <x:v>683</x:v>
+      </x:c>
+      <x:c r="B684" s="2">
+        <x:v>43865.7950810185</x:v>
+      </x:c>
+      <x:c r="C684" s="2">
+        <x:v>43865.7952314815</x:v>
+      </x:c>
+      <x:c r="D684" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E684" s="10" t="s"/>
+      <x:c r="F684"/>
+      <x:c r="G684" s="10" t="s"/>
+      <x:c r="H684" s="3">
+        <x:v>43865</x:v>
+      </x:c>
+      <x:c r="I684"/>
+      <x:c r="J684" s="10" t="s"/>
+      <x:c r="K684" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="L684"/>
+      <x:c r="M684" s="10" t="s"/>
+      <x:c r="N684" s="7" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="O684"/>
+      <x:c r="P684" s="10" t="s"/>
+      <x:c r="Q684" s="7" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="R684"/>
+      <x:c r="S684" s="10" t="s"/>
+      <x:c r="T684" s="10" t="s">
+        <x:v>251</x:v>
+      </x:c>
+      <x:c r="U684"/>
+      <x:c r="V684" s="10" t="s"/>
+    </x:row>
+    <x:row r="685" hidden="0">
+      <x:c r="A685">
+        <x:v>684</x:v>
+      </x:c>
+      <x:c r="B685" s="2">
+        <x:v>43865.7993287037</x:v>
+      </x:c>
+      <x:c r="C685" s="2">
+        <x:v>43865.7996643518</x:v>
+      </x:c>
+      <x:c r="D685" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E685" s="10" t="s"/>
+      <x:c r="F685"/>
+      <x:c r="G685" s="10" t="s"/>
+      <x:c r="H685" s="3">
+        <x:v>43864</x:v>
+      </x:c>
+      <x:c r="I685"/>
+      <x:c r="J685" s="10" t="s"/>
+      <x:c r="K685" s="10" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="L685"/>
+      <x:c r="M685" s="10" t="s"/>
+      <x:c r="N685" s="7" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="O685"/>
+      <x:c r="P685" s="10" t="s"/>
+      <x:c r="Q685" s="7" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="R685"/>
+      <x:c r="S685" s="10" t="s"/>
+      <x:c r="T685" s="10" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="U685"/>
+      <x:c r="V685" s="10" t="s"/>
+    </x:row>
+    <x:row r="686" hidden="0">
+      <x:c r="A686">
+        <x:v>685</x:v>
+      </x:c>
+      <x:c r="B686" s="2">
+        <x:v>43865.7996759259</x:v>
+      </x:c>
+      <x:c r="C686" s="2">
+        <x:v>43865.7999189815</x:v>
+      </x:c>
+      <x:c r="D686" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E686" s="10" t="s"/>
+      <x:c r="F686"/>
+      <x:c r="G686" s="10" t="s"/>
+      <x:c r="H686" s="3">
+        <x:v>43864</x:v>
+      </x:c>
+      <x:c r="I686"/>
+      <x:c r="J686" s="10" t="s"/>
+      <x:c r="K686" s="10" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="L686"/>
+      <x:c r="M686" s="10" t="s"/>
+      <x:c r="N686" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="O686"/>
+      <x:c r="P686" s="10" t="s"/>
+      <x:c r="Q686" s="7" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="R686"/>
+      <x:c r="S686" s="10" t="s"/>
+      <x:c r="T686" s="10" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="U686"/>
+      <x:c r="V686" s="10" t="s"/>
+    </x:row>
+    <x:row r="687" hidden="0">
+      <x:c r="A687">
+        <x:v>686</x:v>
+      </x:c>
+      <x:c r="B687" s="2">
+        <x:v>43865.7999652778</x:v>
+      </x:c>
+      <x:c r="C687" s="2">
+        <x:v>43865.8001967593</x:v>
+      </x:c>
+      <x:c r="D687" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E687" s="10" t="s"/>
+      <x:c r="F687"/>
+      <x:c r="G687" s="10" t="s"/>
+      <x:c r="H687" s="3">
+        <x:v>43865</x:v>
+      </x:c>
+      <x:c r="I687"/>
+      <x:c r="J687" s="10" t="s"/>
+      <x:c r="K687" s="10" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="L687"/>
+      <x:c r="M687" s="10" t="s"/>
+      <x:c r="N687" s="10" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="O687"/>
+      <x:c r="P687" s="10" t="s"/>
+      <x:c r="Q687" s="7" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="R687"/>
+      <x:c r="S687" s="10" t="s"/>
+      <x:c r="T687" s="10" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="U687"/>
+      <x:c r="V687" s="10" t="s"/>
+    </x:row>
+    <x:row r="688" hidden="0">
+      <x:c r="A688">
+        <x:v>687</x:v>
+      </x:c>
+      <x:c r="B688" s="2">
+        <x:v>43865.8002083333</x:v>
+      </x:c>
+      <x:c r="C688" s="2">
+        <x:v>43865.8004513889</x:v>
+      </x:c>
+      <x:c r="D688" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E688" s="10" t="s"/>
+      <x:c r="F688"/>
+      <x:c r="G688" s="10" t="s"/>
+      <x:c r="H688" s="3">
+        <x:v>43865</x:v>
+      </x:c>
+      <x:c r="I688"/>
+      <x:c r="J688" s="10" t="s"/>
+      <x:c r="K688" s="10" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="L688"/>
+      <x:c r="M688" s="10" t="s"/>
+      <x:c r="N688" s="10" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="O688"/>
+      <x:c r="P688" s="10" t="s"/>
+      <x:c r="Q688" s="7" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="R688"/>
+      <x:c r="S688" s="10" t="s"/>
+      <x:c r="T688" s="10" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="U688"/>
+      <x:c r="V688" s="10" t="s"/>
+    </x:row>
+    <x:row r="689" hidden="0">
+      <x:c r="A689">
+        <x:v>688</x:v>
+      </x:c>
+      <x:c r="B689" s="2">
+        <x:v>43865.8013541667</x:v>
+      </x:c>
+      <x:c r="C689" s="2">
+        <x:v>43865.8016203704</x:v>
+      </x:c>
+      <x:c r="D689" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E689" s="10" t="s"/>
+      <x:c r="F689"/>
+      <x:c r="G689" s="10" t="s"/>
+      <x:c r="H689" s="3">
+        <x:v>43865</x:v>
+      </x:c>
+      <x:c r="I689"/>
+      <x:c r="J689" s="10" t="s"/>
+      <x:c r="K689" s="10" t="s">
+        <x:v>271</x:v>
+      </x:c>
+      <x:c r="L689"/>
+      <x:c r="M689" s="10" t="s"/>
+      <x:c r="N689" s="10" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="O689"/>
+      <x:c r="P689" s="10" t="s"/>
+      <x:c r="Q689" s="7" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="R689"/>
+      <x:c r="S689" s="10" t="s"/>
+      <x:c r="T689" s="10" t="s">
+        <x:v>259</x:v>
+      </x:c>
+      <x:c r="U689"/>
+      <x:c r="V689" s="10" t="s"/>
+    </x:row>
+    <x:row r="690" hidden="0">
+      <x:c r="A690">
+        <x:v>689</x:v>
+      </x:c>
+      <x:c r="B690" s="2">
+        <x:v>43865.8458796296</x:v>
+      </x:c>
+      <x:c r="C690" s="2">
+        <x:v>43865.846087963</x:v>
+      </x:c>
+      <x:c r="D690" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E690" s="10" t="s"/>
+      <x:c r="F690"/>
+      <x:c r="G690" s="10" t="s"/>
+      <x:c r="H690" s="3">
+        <x:v>43865</x:v>
+      </x:c>
+      <x:c r="I690"/>
+      <x:c r="J690" s="10" t="s"/>
+      <x:c r="K690" s="10" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="L690"/>
+      <x:c r="M690" s="10" t="s"/>
+      <x:c r="N690" s="7" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="O690"/>
+      <x:c r="P690" s="10" t="s"/>
+      <x:c r="Q690" s="7" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="R690"/>
+      <x:c r="S690" s="10" t="s"/>
+      <x:c r="T690" s="10" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="U690"/>
+      <x:c r="V690" s="10" t="s"/>
+    </x:row>
+    <x:row r="691" hidden="0">
+      <x:c r="A691">
+        <x:v>690</x:v>
+      </x:c>
+      <x:c r="B691" s="2">
+        <x:v>43865.8461111111</x:v>
+      </x:c>
+      <x:c r="C691" s="2">
+        <x:v>43865.8462731481</x:v>
+      </x:c>
+      <x:c r="D691" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E691" s="10" t="s"/>
+      <x:c r="F691"/>
+      <x:c r="G691" s="10" t="s"/>
+      <x:c r="H691" s="3">
+        <x:v>43865</x:v>
+      </x:c>
+      <x:c r="I691"/>
+      <x:c r="J691" s="10" t="s"/>
+      <x:c r="K691" s="10" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="L691"/>
+      <x:c r="M691" s="10" t="s"/>
+      <x:c r="N691" s="10" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="O691"/>
+      <x:c r="P691" s="10" t="s"/>
+      <x:c r="Q691" s="7" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="R691"/>
+      <x:c r="S691" s="10" t="s"/>
+      <x:c r="T691" s="10" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="U691"/>
+      <x:c r="V691" s="10" t="s"/>
+    </x:row>
+    <x:row r="692" hidden="0">
+      <x:c r="A692">
+        <x:v>691</x:v>
+      </x:c>
+      <x:c r="B692" s="2">
+        <x:v>43865.8770023148</x:v>
+      </x:c>
+      <x:c r="C692" s="2">
+        <x:v>43865.8790162037</x:v>
+      </x:c>
+      <x:c r="D692" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E692" s="10" t="s"/>
+      <x:c r="F692"/>
+      <x:c r="G692" s="10" t="s"/>
+      <x:c r="H692" s="3">
+        <x:v>43865</x:v>
+      </x:c>
+      <x:c r="I692"/>
+      <x:c r="J692" s="10" t="s"/>
+      <x:c r="K692" s="10" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="L692"/>
+      <x:c r="M692" s="10" t="s"/>
+      <x:c r="N692" s="10" t="s">
+        <x:v>314</x:v>
+      </x:c>
+      <x:c r="O692"/>
+      <x:c r="P692" s="10" t="s"/>
+      <x:c r="Q692" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="R692"/>
+      <x:c r="S692" s="10" t="s"/>
+      <x:c r="T692" s="10" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="U692"/>
+      <x:c r="V692" s="10" t="s"/>
+    </x:row>
+    <x:row r="693" hidden="0">
+      <x:c r="A693">
+        <x:v>692</x:v>
+      </x:c>
+      <x:c r="B693" s="2">
+        <x:v>43865.957650463</x:v>
+      </x:c>
+      <x:c r="C693" s="2">
+        <x:v>43865.9581018519</x:v>
+      </x:c>
+      <x:c r="D693" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E693" s="10" t="s"/>
+      <x:c r="F693"/>
+      <x:c r="G693" s="10" t="s"/>
+      <x:c r="H693" s="3">
+        <x:v>43865</x:v>
+      </x:c>
+      <x:c r="I693"/>
+      <x:c r="J693" s="10" t="s"/>
+      <x:c r="K693" s="10" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="L693"/>
+      <x:c r="M693" s="10" t="s"/>
+      <x:c r="N693" s="10" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="O693"/>
+      <x:c r="P693" s="10" t="s"/>
+      <x:c r="Q693" s="7" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="R693"/>
+      <x:c r="S693" s="10" t="s"/>
+      <x:c r="T693" s="10" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="U693"/>
+      <x:c r="V693" s="10" t="s"/>
+    </x:row>
+    <x:row r="694" hidden="0">
+      <x:c r="A694">
+        <x:v>693</x:v>
+      </x:c>
+      <x:c r="B694" s="2">
+        <x:v>43865.958287037</x:v>
+      </x:c>
+      <x:c r="C694" s="2">
+        <x:v>43865.9584953704</x:v>
+      </x:c>
+      <x:c r="D694" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E694" s="10" t="s"/>
+      <x:c r="F694"/>
+      <x:c r="G694" s="10" t="s"/>
+      <x:c r="H694" s="3">
+        <x:v>43865</x:v>
+      </x:c>
+      <x:c r="I694"/>
+      <x:c r="J694" s="10" t="s"/>
+      <x:c r="K694" s="10" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="L694"/>
+      <x:c r="M694" s="10" t="s"/>
+      <x:c r="N694" s="10" t="s">
+        <x:v>315</x:v>
+      </x:c>
+      <x:c r="O694"/>
+      <x:c r="P694" s="10" t="s"/>
+      <x:c r="Q694" s="7" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="R694"/>
+      <x:c r="S694" s="10" t="s"/>
+      <x:c r="T694" s="10" t="s">
+        <x:v>268</x:v>
+      </x:c>
+      <x:c r="U694"/>
+      <x:c r="V694" s="10" t="s"/>
+    </x:row>
+    <x:row r="695" hidden="0">
+      <x:c r="A695">
+        <x:v>694</x:v>
+      </x:c>
+      <x:c r="B695" s="2">
+        <x:v>43865.9585069444</x:v>
+      </x:c>
+      <x:c r="C695" s="2">
+        <x:v>43865.9587962963</x:v>
+      </x:c>
+      <x:c r="D695" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E695" s="10" t="s"/>
+      <x:c r="F695"/>
+      <x:c r="G695" s="10" t="s"/>
+      <x:c r="H695" s="3">
+        <x:v>43865</x:v>
+      </x:c>
+      <x:c r="I695"/>
+      <x:c r="J695" s="10" t="s"/>
+      <x:c r="K695" s="10" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="L695"/>
+      <x:c r="M695" s="10" t="s"/>
+      <x:c r="N695" s="10" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="O695"/>
+      <x:c r="P695" s="10" t="s"/>
+      <x:c r="Q695" s="7" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="R695"/>
+      <x:c r="S695" s="10" t="s"/>
+      <x:c r="T695" s="10" t="s">
+        <x:v>254</x:v>
+      </x:c>
+      <x:c r="U695"/>
+      <x:c r="V695" s="10" t="s"/>
+    </x:row>
+    <x:row r="696" hidden="0">
+      <x:c r="A696">
+        <x:v>695</x:v>
+      </x:c>
+      <x:c r="B696" s="2">
+        <x:v>43866.0395717593</x:v>
+      </x:c>
+      <x:c r="C696" s="2">
+        <x:v>43866.0399652778</x:v>
+      </x:c>
+      <x:c r="D696" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E696" s="10" t="s"/>
+      <x:c r="F696"/>
+      <x:c r="G696" s="10" t="s"/>
+      <x:c r="H696" s="3">
+        <x:v>43865</x:v>
+      </x:c>
+      <x:c r="I696"/>
+      <x:c r="J696" s="10" t="s"/>
+      <x:c r="K696" s="10" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="L696"/>
+      <x:c r="M696" s="10" t="s"/>
+      <x:c r="N696" s="10" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="O696"/>
+      <x:c r="P696" s="10" t="s"/>
+      <x:c r="Q696" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="R696"/>
+      <x:c r="S696" s="10" t="s"/>
+      <x:c r="T696" s="10" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="U696"/>
+      <x:c r="V696" s="10" t="s"/>
+    </x:row>
+    <x:row r="697" hidden="0">
+      <x:c r="A697">
+        <x:v>696</x:v>
+      </x:c>
+      <x:c r="B697" s="2">
+        <x:v>43866.3368518518</x:v>
+      </x:c>
+      <x:c r="C697" s="2">
+        <x:v>43866.3372106481</x:v>
+      </x:c>
+      <x:c r="D697" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E697" s="10" t="s"/>
+      <x:c r="F697"/>
+      <x:c r="G697" s="10" t="s"/>
+      <x:c r="H697" s="3">
+        <x:v>43866</x:v>
+      </x:c>
+      <x:c r="I697"/>
+      <x:c r="J697" s="10" t="s"/>
+      <x:c r="K697" s="10" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="L697"/>
+      <x:c r="M697" s="10" t="s"/>
+      <x:c r="N697" s="10" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="O697"/>
+      <x:c r="P697" s="10" t="s"/>
+      <x:c r="Q697" s="7" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="R697"/>
+      <x:c r="S697" s="10" t="s"/>
+      <x:c r="T697" s="10" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="U697"/>
+      <x:c r="V697" s="10" t="s"/>
+    </x:row>
+    <x:row r="698" hidden="0">
+      <x:c r="A698">
+        <x:v>697</x:v>
+      </x:c>
+      <x:c r="B698" s="2">
+        <x:v>43866.3873611111</x:v>
+      </x:c>
+      <x:c r="C698" s="2">
+        <x:v>43866.3876273148</x:v>
+      </x:c>
+      <x:c r="D698" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E698" s="10" t="s"/>
+      <x:c r="F698"/>
+      <x:c r="G698" s="10" t="s"/>
+      <x:c r="H698" s="3">
+        <x:v>43866</x:v>
+      </x:c>
+      <x:c r="I698"/>
+      <x:c r="J698" s="10" t="s"/>
+      <x:c r="K698" s="10" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="L698"/>
+      <x:c r="M698" s="10" t="s"/>
+      <x:c r="N698" s="10" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="O698"/>
+      <x:c r="P698" s="10" t="s"/>
+      <x:c r="Q698" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="R698"/>
+      <x:c r="S698" s="10" t="s"/>
+      <x:c r="T698" s="10" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="U698"/>
+      <x:c r="V698" s="10" t="s"/>
+    </x:row>
+    <x:row r="699" hidden="0">
+      <x:c r="A699">
+        <x:v>698</x:v>
+      </x:c>
+      <x:c r="B699" s="2">
+        <x:v>43866.4622337963</x:v>
+      </x:c>
+      <x:c r="C699" s="2">
+        <x:v>43866.4625347222</x:v>
+      </x:c>
+      <x:c r="D699" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E699" s="10" t="s"/>
+      <x:c r="F699"/>
+      <x:c r="G699" s="10" t="s"/>
+      <x:c r="H699" s="3">
+        <x:v>43866</x:v>
+      </x:c>
+      <x:c r="I699"/>
+      <x:c r="J699" s="10" t="s"/>
+      <x:c r="K699" s="10" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="L699"/>
+      <x:c r="M699" s="10" t="s"/>
+      <x:c r="N699" s="10" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="O699"/>
+      <x:c r="P699" s="10" t="s"/>
+      <x:c r="Q699" s="7" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="R699"/>
+      <x:c r="S699" s="10" t="s"/>
+      <x:c r="T699" s="10" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="U699"/>
+      <x:c r="V699" s="10" t="s"/>
+    </x:row>
+    <x:row r="700" hidden="0">
+      <x:c r="A700">
+        <x:v>699</x:v>
+      </x:c>
+      <x:c r="B700" s="2">
+        <x:v>43866.4791550926</x:v>
+      </x:c>
+      <x:c r="C700" s="2">
+        <x:v>43866.4799189815</x:v>
+      </x:c>
+      <x:c r="D700" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E700" s="10" t="s"/>
+      <x:c r="F700"/>
+      <x:c r="G700" s="10" t="s"/>
+      <x:c r="H700" s="3">
+        <x:v>43866</x:v>
+      </x:c>
+      <x:c r="I700"/>
+      <x:c r="J700" s="10" t="s"/>
+      <x:c r="K700" s="10" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="L700"/>
+      <x:c r="M700" s="10" t="s"/>
+      <x:c r="N700" s="10" t="s">
+        <x:v>316</x:v>
+      </x:c>
+      <x:c r="O700"/>
+      <x:c r="P700" s="10" t="s"/>
+      <x:c r="Q700" s="7" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="R700"/>
+      <x:c r="S700" s="10" t="s"/>
+      <x:c r="T700" s="10" t="s">
+        <x:v>259</x:v>
+      </x:c>
+      <x:c r="U700"/>
+      <x:c r="V700" s="10" t="s"/>
+    </x:row>
+    <x:row r="701" hidden="0">
+      <x:c r="A701">
+        <x:v>700</x:v>
+      </x:c>
+      <x:c r="B701" s="2">
+        <x:v>43866.5579050926</x:v>
+      </x:c>
+      <x:c r="C701" s="2">
+        <x:v>43866.5583796296</x:v>
+      </x:c>
+      <x:c r="D701" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E701" s="10" t="s"/>
+      <x:c r="F701"/>
+      <x:c r="G701" s="10" t="s"/>
+      <x:c r="H701" s="3">
+        <x:v>43866</x:v>
+      </x:c>
+      <x:c r="I701"/>
+      <x:c r="J701" s="10" t="s"/>
+      <x:c r="K701" s="10" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="L701"/>
+      <x:c r="M701" s="10" t="s"/>
+      <x:c r="N701" s="10" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="O701"/>
+      <x:c r="P701" s="10" t="s"/>
+      <x:c r="Q701" s="7" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="R701"/>
+      <x:c r="S701" s="10" t="s"/>
+      <x:c r="T701" s="10" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="U701"/>
+      <x:c r="V701" s="10" t="s"/>
+    </x:row>
+    <x:row r="702" hidden="0">
+      <x:c r="A702">
+        <x:v>701</x:v>
+      </x:c>
+      <x:c r="B702" s="2">
+        <x:v>43866.5796064815</x:v>
+      </x:c>
+      <x:c r="C702" s="2">
+        <x:v>43866.5803587963</x:v>
+      </x:c>
+      <x:c r="D702" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E702" s="10" t="s"/>
+      <x:c r="F702"/>
+      <x:c r="G702" s="10" t="s"/>
+      <x:c r="H702" s="3">
+        <x:v>43866</x:v>
+      </x:c>
+      <x:c r="I702"/>
+      <x:c r="J702" s="10" t="s"/>
+      <x:c r="K702" s="10" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="L702"/>
+      <x:c r="M702" s="10" t="s"/>
+      <x:c r="N702" s="10" t="s">
+        <x:v>317</x:v>
+      </x:c>
+      <x:c r="O702"/>
+      <x:c r="P702" s="10" t="s"/>
+      <x:c r="Q702" s="7" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="R702"/>
+      <x:c r="S702" s="10" t="s"/>
+      <x:c r="T702" s="10" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="U702"/>
+      <x:c r="V702" s="10" t="s"/>
+    </x:row>
+    <x:row r="703" hidden="0">
+      <x:c r="A703">
+        <x:v>702</x:v>
+      </x:c>
+      <x:c r="B703" s="2">
+        <x:v>43866.644224537</x:v>
+      </x:c>
+      <x:c r="C703" s="2">
+        <x:v>43866.6444560185</x:v>
+      </x:c>
+      <x:c r="D703" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E703" s="10" t="s"/>
+      <x:c r="F703"/>
+      <x:c r="G703" s="10" t="s"/>
+      <x:c r="H703" s="3">
+        <x:v>43866</x:v>
+      </x:c>
+      <x:c r="I703"/>
+      <x:c r="J703" s="10" t="s"/>
+      <x:c r="K703" s="10" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="L703"/>
+      <x:c r="M703" s="10" t="s"/>
+      <x:c r="N703" s="10" t="s">
+        <x:v>318</x:v>
+      </x:c>
+      <x:c r="O703"/>
+      <x:c r="P703" s="10" t="s"/>
+      <x:c r="Q703" s="7" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="R703"/>
+      <x:c r="S703" s="10" t="s"/>
+      <x:c r="T703" s="10" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="U703"/>
+      <x:c r="V703" s="10" t="s"/>
+    </x:row>
+    <x:row r="704" hidden="0">
+      <x:c r="A704">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c r="B704" s="2">
+        <x:v>43866.6444791667</x:v>
+      </x:c>
+      <x:c r="C704" s="2">
+        <x:v>43866.6446875</x:v>
+      </x:c>
+      <x:c r="D704" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E704" s="10" t="s"/>
+      <x:c r="F704"/>
+      <x:c r="G704" s="10" t="s"/>
+      <x:c r="H704" s="3">
+        <x:v>43866</x:v>
+      </x:c>
+      <x:c r="I704"/>
+      <x:c r="J704" s="10" t="s"/>
+      <x:c r="K704" s="10" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="L704"/>
+      <x:c r="M704" s="10" t="s"/>
+      <x:c r="N704" s="10" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="O704"/>
+      <x:c r="P704" s="10" t="s"/>
+      <x:c r="Q704" s="7" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="R704"/>
+      <x:c r="S704" s="10" t="s"/>
+      <x:c r="T704" s="10" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="U704"/>
+      <x:c r="V704" s="10" t="s"/>
+    </x:row>
+    <x:row r="705" hidden="0">
+      <x:c r="A705">
+        <x:v>704</x:v>
+      </x:c>
+      <x:c r="B705" s="2">
+        <x:v>43866.6447106481</x:v>
+      </x:c>
+      <x:c r="C705" s="2">
+        <x:v>43866.6453125</x:v>
+      </x:c>
+      <x:c r="D705" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E705" s="10" t="s"/>
+      <x:c r="F705"/>
+      <x:c r="G705" s="10" t="s"/>
+      <x:c r="H705" s="3">
+        <x:v>43866</x:v>
+      </x:c>
+      <x:c r="I705"/>
+      <x:c r="J705" s="10" t="s"/>
+      <x:c r="K705" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="L705"/>
+      <x:c r="M705" s="10" t="s"/>
+      <x:c r="N705" s="10" t="s">
+        <x:v>305</x:v>
+      </x:c>
+      <x:c r="O705"/>
+      <x:c r="P705" s="10" t="s"/>
+      <x:c r="Q705" s="7" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="R705"/>
+      <x:c r="S705" s="10" t="s"/>
+      <x:c r="T705" s="10" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="U705"/>
+      <x:c r="V705" s="10" t="s"/>
+    </x:row>
+    <x:row r="706" hidden="0">
+      <x:c r="A706">
+        <x:v>705</x:v>
+      </x:c>
+      <x:c r="B706" s="2">
+        <x:v>43866.6590740741</x:v>
+      </x:c>
+      <x:c r="C706" s="2">
+        <x:v>43866.6593518518</x:v>
+      </x:c>
+      <x:c r="D706" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E706" s="10" t="s"/>
+      <x:c r="F706"/>
+      <x:c r="G706" s="10" t="s"/>
+      <x:c r="H706" s="3">
+        <x:v>43866</x:v>
+      </x:c>
+      <x:c r="I706"/>
+      <x:c r="J706" s="10" t="s"/>
+      <x:c r="K706" s="10" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="L706"/>
+      <x:c r="M706" s="10" t="s"/>
+      <x:c r="N706" s="10" t="s">
+        <x:v>319</x:v>
+      </x:c>
+      <x:c r="O706"/>
+      <x:c r="P706" s="10" t="s"/>
+      <x:c r="Q706" s="7" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="R706"/>
+      <x:c r="S706" s="10" t="s"/>
+      <x:c r="T706" s="10" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="U706"/>
+      <x:c r="V706" s="10" t="s"/>
+    </x:row>
+    <x:row r="707" hidden="0">
+      <x:c r="A707">
+        <x:v>706</x:v>
+      </x:c>
+      <x:c r="B707" s="2">
+        <x:v>43866.7033796296</x:v>
+      </x:c>
+      <x:c r="C707" s="2">
+        <x:v>43866.7041898148</x:v>
+      </x:c>
+      <x:c r="D707" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E707" s="10" t="s"/>
+      <x:c r="F707"/>
+      <x:c r="G707" s="10" t="s"/>
+      <x:c r="H707" s="3">
+        <x:v>43866</x:v>
+      </x:c>
+      <x:c r="I707"/>
+      <x:c r="J707" s="10" t="s"/>
+      <x:c r="K707" s="10" t="s">
+        <x:v>271</x:v>
+      </x:c>
+      <x:c r="L707"/>
+      <x:c r="M707" s="10" t="s"/>
+      <x:c r="N707" s="10" t="s">
+        <x:v>280</x:v>
+      </x:c>
+      <x:c r="O707"/>
+      <x:c r="P707" s="10" t="s"/>
+      <x:c r="Q707" s="7" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="R707"/>
+      <x:c r="S707" s="10" t="s"/>
+      <x:c r="T707" s="10" t="s">
+        <x:v>259</x:v>
+      </x:c>
+      <x:c r="U707"/>
+      <x:c r="V707" s="10" t="s"/>
+    </x:row>
+    <x:row r="708" hidden="0">
+      <x:c r="A708">
+        <x:v>707</x:v>
+      </x:c>
+      <x:c r="B708" s="2">
+        <x:v>43866.8024537037</x:v>
+      </x:c>
+      <x:c r="C708" s="2">
+        <x:v>43866.8049884259</x:v>
+      </x:c>
+      <x:c r="D708" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E708" s="10" t="s"/>
+      <x:c r="F708"/>
+      <x:c r="G708" s="10" t="s"/>
+      <x:c r="H708" s="3">
+        <x:v>43866</x:v>
+      </x:c>
+      <x:c r="I708"/>
+      <x:c r="J708" s="10" t="s"/>
+      <x:c r="K708" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="L708"/>
+      <x:c r="M708" s="10" t="s"/>
+      <x:c r="N708" s="10" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="O708"/>
+      <x:c r="P708" s="10" t="s"/>
+      <x:c r="Q708" s="7" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="R708"/>
+      <x:c r="S708" s="10" t="s"/>
+      <x:c r="T708" s="10" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="U708"/>
+      <x:c r="V708" s="10" t="s"/>
+    </x:row>
+    <x:row r="709" hidden="0">
+      <x:c r="A709">
+        <x:v>708</x:v>
+      </x:c>
+      <x:c r="B709" s="2">
+        <x:v>43866.8709953704</x:v>
+      </x:c>
+      <x:c r="C709" s="2">
+        <x:v>43866.8714930556</x:v>
+      </x:c>
+      <x:c r="D709" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E709" s="10" t="s"/>
+      <x:c r="F709"/>
+      <x:c r="G709" s="10" t="s"/>
+      <x:c r="H709" s="3">
+        <x:v>43866</x:v>
+      </x:c>
+      <x:c r="I709"/>
+      <x:c r="J709" s="10" t="s"/>
+      <x:c r="K709" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="L709"/>
+      <x:c r="M709" s="10" t="s"/>
+      <x:c r="N709" s="10" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="O709"/>
+      <x:c r="P709" s="10" t="s"/>
+      <x:c r="Q709" s="7" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="R709"/>
+      <x:c r="S709" s="10" t="s"/>
+      <x:c r="T709" s="10" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="U709"/>
+      <x:c r="V709" s="10" t="s"/>
+    </x:row>
+    <x:row r="710" hidden="0">
+      <x:c r="A710">
+        <x:v>709</x:v>
+      </x:c>
+      <x:c r="B710" s="2">
+        <x:v>43866.8715509259</x:v>
+      </x:c>
+      <x:c r="C710" s="2">
+        <x:v>43866.8721064815</x:v>
+      </x:c>
+      <x:c r="D710" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E710" s="10" t="s"/>
+      <x:c r="F710"/>
+      <x:c r="G710" s="10" t="s"/>
+      <x:c r="H710" s="3">
+        <x:v>43866</x:v>
+      </x:c>
+      <x:c r="I710"/>
+      <x:c r="J710" s="10" t="s"/>
+      <x:c r="K710" s="10" t="s">
+        <x:v>320</x:v>
+      </x:c>
+      <x:c r="L710"/>
+      <x:c r="M710" s="10" t="s"/>
+      <x:c r="N710" s="10" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="O710"/>
+      <x:c r="P710" s="10" t="s"/>
+      <x:c r="Q710" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="R710"/>
+      <x:c r="S710" s="10" t="s"/>
+      <x:c r="T710" s="10" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="U710"/>
+      <x:c r="V710" s="10" t="s"/>
+    </x:row>
+    <x:row r="711" hidden="0">
+      <x:c r="A711">
+        <x:v>710</x:v>
+      </x:c>
+      <x:c r="B711" s="2">
+        <x:v>43866.9324189815</x:v>
+      </x:c>
+      <x:c r="C711" s="2">
+        <x:v>43866.9328935185</x:v>
+      </x:c>
+      <x:c r="D711" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E711" s="10" t="s"/>
+      <x:c r="F711"/>
+      <x:c r="G711" s="10" t="s"/>
+      <x:c r="H711" s="3">
+        <x:v>43866</x:v>
+      </x:c>
+      <x:c r="I711"/>
+      <x:c r="J711" s="10" t="s"/>
+      <x:c r="K711" s="10" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="L711"/>
+      <x:c r="M711" s="10" t="s"/>
+      <x:c r="N711" s="7" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="O711"/>
+      <x:c r="P711" s="10" t="s"/>
+      <x:c r="Q711" s="7" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="R711"/>
+      <x:c r="S711" s="10" t="s"/>
+      <x:c r="T711" s="10" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="U711"/>
+      <x:c r="V711" s="10" t="s"/>
+    </x:row>
+    <x:row r="712" hidden="0">
+      <x:c r="A712">
+        <x:v>711</x:v>
+      </x:c>
+      <x:c r="B712" s="2">
+        <x:v>43867.3468865741</x:v>
+      </x:c>
+      <x:c r="C712" s="2">
+        <x:v>43867.3473032407</x:v>
+      </x:c>
+      <x:c r="D712" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E712" s="10" t="s"/>
+      <x:c r="F712"/>
+      <x:c r="G712" s="10" t="s"/>
+      <x:c r="H712" s="3">
+        <x:v>43866</x:v>
+      </x:c>
+      <x:c r="I712"/>
+      <x:c r="J712" s="10" t="s"/>
+      <x:c r="K712" s="10" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="L712"/>
+      <x:c r="M712" s="10" t="s"/>
+      <x:c r="N712" s="10" t="s">
+        <x:v>321</x:v>
+      </x:c>
+      <x:c r="O712"/>
+      <x:c r="P712" s="10" t="s"/>
+      <x:c r="Q712" s="7" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="R712"/>
+      <x:c r="S712" s="10" t="s"/>
+      <x:c r="T712" s="10" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="U712"/>
+      <x:c r="V712" s="10" t="s"/>
+    </x:row>
+    <x:row r="713" hidden="0">
+      <x:c r="A713">
+        <x:v>712</x:v>
+      </x:c>
+      <x:c r="B713" s="2">
+        <x:v>43867.347337963</x:v>
+      </x:c>
+      <x:c r="C713" s="2">
+        <x:v>43867.3476273148</x:v>
+      </x:c>
+      <x:c r="D713" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E713" s="10" t="s"/>
+      <x:c r="F713"/>
+      <x:c r="G713" s="10" t="s"/>
+      <x:c r="H713" s="3">
+        <x:v>43866</x:v>
+      </x:c>
+      <x:c r="I713"/>
+      <x:c r="J713" s="10" t="s"/>
+      <x:c r="K713" s="10" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="L713"/>
+      <x:c r="M713" s="10" t="s"/>
+      <x:c r="N713" s="10" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="O713"/>
+      <x:c r="P713" s="10" t="s"/>
+      <x:c r="Q713" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="R713"/>
+      <x:c r="S713" s="10" t="s"/>
+      <x:c r="T713" s="10" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="U713"/>
+      <x:c r="V713" s="10" t="s"/>
+    </x:row>
+    <x:row r="714" hidden="0">
+      <x:c r="A714">
+        <x:v>713</x:v>
+      </x:c>
+      <x:c r="B714" s="2">
+        <x:v>43867.3481481481</x:v>
+      </x:c>
+      <x:c r="C714" s="2">
+        <x:v>43867.3485069444</x:v>
+      </x:c>
+      <x:c r="D714" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E714" s="10" t="s"/>
+      <x:c r="F714"/>
+      <x:c r="G714" s="10" t="s"/>
+      <x:c r="H714" s="3">
+        <x:v>43866</x:v>
+      </x:c>
+      <x:c r="I714"/>
+      <x:c r="J714" s="10" t="s"/>
+      <x:c r="K714" s="10" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="L714"/>
+      <x:c r="M714" s="10" t="s"/>
+      <x:c r="N714" s="10" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="O714"/>
+      <x:c r="P714" s="10" t="s"/>
+      <x:c r="Q714" s="7" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="R714"/>
+      <x:c r="S714" s="10" t="s"/>
+      <x:c r="T714" s="10" t="s">
+        <x:v>259</x:v>
+      </x:c>
+      <x:c r="U714"/>
+      <x:c r="V714" s="10" t="s"/>
+    </x:row>
+    <x:row r="715" hidden="0">
+      <x:c r="A715">
+        <x:v>714</x:v>
+      </x:c>
+      <x:c r="B715" s="2">
+        <x:v>43867.3485300926</x:v>
+      </x:c>
+      <x:c r="C715" s="2">
+        <x:v>43867.3490972222</x:v>
+      </x:c>
+      <x:c r="D715" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E715" s="10" t="s"/>
+      <x:c r="F715"/>
+      <x:c r="G715" s="10" t="s"/>
+      <x:c r="H715" s="3">
+        <x:v>43866</x:v>
+      </x:c>
+      <x:c r="I715"/>
+      <x:c r="J715" s="10" t="s"/>
+      <x:c r="K715" s="10" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="L715"/>
+      <x:c r="M715" s="10" t="s"/>
+      <x:c r="N715" s="7" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="O715"/>
+      <x:c r="P715" s="10" t="s"/>
+      <x:c r="Q715" s="7" t="s">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="R715"/>
+      <x:c r="S715" s="10" t="s"/>
+      <x:c r="T715" s="10" t="s">
+        <x:v>278</x:v>
+      </x:c>
+      <x:c r="U715"/>
+      <x:c r="V715" s="10" t="s"/>
+    </x:row>
+    <x:row r="716" hidden="0">
+      <x:c r="A716">
+        <x:v>715</x:v>
+      </x:c>
+      <x:c r="B716" s="2">
+        <x:v>43867.3499189815</x:v>
+      </x:c>
+      <x:c r="C716" s="2">
+        <x:v>43867.3511574074</x:v>
+      </x:c>
+      <x:c r="D716" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E716" s="10" t="s"/>
+      <x:c r="F716"/>
+      <x:c r="G716" s="10" t="s"/>
+      <x:c r="H716" s="3">
+        <x:v>43867</x:v>
+      </x:c>
+      <x:c r="I716"/>
+      <x:c r="J716" s="10" t="s"/>
+      <x:c r="K716" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="L716"/>
+      <x:c r="M716" s="10" t="s"/>
+      <x:c r="N716" s="10" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="O716"/>
+      <x:c r="P716" s="10" t="s"/>
+      <x:c r="Q716" s="7" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="R716"/>
+      <x:c r="S716" s="10" t="s"/>
+      <x:c r="T716" s="10" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="U716"/>
+      <x:c r="V716" s="10" t="s"/>
+    </x:row>
+    <x:row r="717" hidden="0">
+      <x:c r="A717">
+        <x:v>716</x:v>
+      </x:c>
+      <x:c r="B717" s="2">
+        <x:v>43867.3529282407</x:v>
+      </x:c>
+      <x:c r="C717" s="2">
+        <x:v>43867.3532175926</x:v>
+      </x:c>
+      <x:c r="D717" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E717" s="10" t="s"/>
+      <x:c r="F717"/>
+      <x:c r="G717" s="10" t="s"/>
+      <x:c r="H717" s="3">
+        <x:v>43867</x:v>
+      </x:c>
+      <x:c r="I717"/>
+      <x:c r="J717" s="10" t="s"/>
+      <x:c r="K717" s="10" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="L717"/>
+      <x:c r="M717" s="10" t="s"/>
+      <x:c r="N717" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="O717"/>
+      <x:c r="P717" s="10" t="s"/>
+      <x:c r="Q717" s="7" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="R717"/>
+      <x:c r="S717" s="10" t="s"/>
+      <x:c r="T717" s="10" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="U717"/>
+      <x:c r="V717" s="10" t="s"/>
+    </x:row>
+    <x:row r="718" hidden="0">
+      <x:c r="A718">
+        <x:v>717</x:v>
+      </x:c>
+      <x:c r="B718" s="2">
+        <x:v>43867.387349537</x:v>
+      </x:c>
+      <x:c r="C718" s="2">
+        <x:v>43867.3875925926</x:v>
+      </x:c>
+      <x:c r="D718" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E718" s="10" t="s"/>
+      <x:c r="F718"/>
+      <x:c r="G718" s="10" t="s"/>
+      <x:c r="H718" s="3">
+        <x:v>43867</x:v>
+      </x:c>
+      <x:c r="I718"/>
+      <x:c r="J718" s="10" t="s"/>
+      <x:c r="K718" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="L718"/>
+      <x:c r="M718" s="10" t="s"/>
+      <x:c r="N718" s="10" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="O718"/>
+      <x:c r="P718" s="10" t="s"/>
+      <x:c r="Q718" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="R718"/>
+      <x:c r="S718" s="10" t="s"/>
+      <x:c r="T718" s="10" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="U718"/>
+      <x:c r="V718" s="10" t="s"/>
+    </x:row>
+    <x:row r="719" hidden="0">
+      <x:c r="A719">
+        <x:v>718</x:v>
+      </x:c>
+      <x:c r="B719" s="2">
+        <x:v>43867.4924652778</x:v>
+      </x:c>
+      <x:c r="C719" s="2">
+        <x:v>43867.4926967593</x:v>
+      </x:c>
+      <x:c r="D719" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E719" s="10" t="s"/>
+      <x:c r="F719"/>
+      <x:c r="G719" s="10" t="s"/>
+      <x:c r="H719" s="3">
+        <x:v>43867</x:v>
+      </x:c>
+      <x:c r="I719"/>
+      <x:c r="J719" s="10" t="s"/>
+      <x:c r="K719" s="10" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="L719"/>
+      <x:c r="M719" s="10" t="s"/>
+      <x:c r="N719" s="10" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="O719"/>
+      <x:c r="P719" s="10" t="s"/>
+      <x:c r="Q719" s="7" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="R719"/>
+      <x:c r="S719" s="10" t="s"/>
+      <x:c r="T719" s="10" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="U719"/>
+      <x:c r="V719" s="10" t="s"/>
+    </x:row>
+    <x:row r="720" hidden="0">
+      <x:c r="A720">
+        <x:v>719</x:v>
+      </x:c>
+      <x:c r="B720" s="2">
+        <x:v>43867.4927199074</x:v>
+      </x:c>
+      <x:c r="C720" s="2">
+        <x:v>43867.4929282407</x:v>
+      </x:c>
+      <x:c r="D720" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E720" s="10" t="s"/>
+      <x:c r="F720"/>
+      <x:c r="G720" s="10" t="s"/>
+      <x:c r="H720" s="3">
+        <x:v>43867</x:v>
+      </x:c>
+      <x:c r="I720"/>
+      <x:c r="J720" s="10" t="s"/>
+      <x:c r="K720" s="10" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="L720"/>
+      <x:c r="M720" s="10" t="s"/>
+      <x:c r="N720" s="10" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="O720"/>
+      <x:c r="P720" s="10" t="s"/>
+      <x:c r="Q720" s="7" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="R720"/>
+      <x:c r="S720" s="10" t="s"/>
+      <x:c r="T720" s="10" t="s">
+        <x:v>261</x:v>
+      </x:c>
+      <x:c r="U720"/>
+      <x:c r="V720" s="10" t="s"/>
+    </x:row>
+    <x:row r="721" hidden="0">
+      <x:c r="A721">
+        <x:v>720</x:v>
+      </x:c>
+      <x:c r="B721" s="2">
+        <x:v>43867.5783217593</x:v>
+      </x:c>
+      <x:c r="C721" s="2">
+        <x:v>43867.5784953704</x:v>
+      </x:c>
+      <x:c r="D721" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E721" s="10" t="s"/>
+      <x:c r="F721"/>
+      <x:c r="G721" s="10" t="s"/>
+      <x:c r="H721" s="3">
+        <x:v>43867</x:v>
+      </x:c>
+      <x:c r="I721"/>
+      <x:c r="J721" s="10" t="s"/>
+      <x:c r="K721" s="10" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="L721"/>
+      <x:c r="M721" s="10" t="s"/>
+      <x:c r="N721" s="7" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="O721"/>
+      <x:c r="P721" s="10" t="s"/>
+      <x:c r="Q721" s="7" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="R721"/>
+      <x:c r="S721" s="10" t="s"/>
+      <x:c r="T721" s="10" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="U721"/>
+      <x:c r="V721" s="10" t="s"/>
+    </x:row>
+    <x:row r="722" hidden="0">
+      <x:c r="A722">
+        <x:v>721</x:v>
+      </x:c>
+      <x:c r="B722" s="2">
+        <x:v>43867.6386805556</x:v>
+      </x:c>
+      <x:c r="C722" s="2">
+        <x:v>43867.638912037</x:v>
+      </x:c>
+      <x:c r="D722" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E722" s="10" t="s"/>
+      <x:c r="F722"/>
+      <x:c r="G722" s="10" t="s"/>
+      <x:c r="H722" s="3">
+        <x:v>43867</x:v>
+      </x:c>
+      <x:c r="I722"/>
+      <x:c r="J722" s="10" t="s"/>
+      <x:c r="K722" s="10" t="s">
+        <x:v>271</x:v>
+      </x:c>
+      <x:c r="L722"/>
+      <x:c r="M722" s="10" t="s"/>
+      <x:c r="N722" s="10" t="s">
+        <x:v>305</x:v>
+      </x:c>
+      <x:c r="O722"/>
+      <x:c r="P722" s="10" t="s"/>
+      <x:c r="Q722" s="7" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="R722"/>
+      <x:c r="S722" s="10" t="s"/>
+      <x:c r="T722" s="10" t="s">
+        <x:v>259</x:v>
+      </x:c>
+      <x:c r="U722"/>
+      <x:c r="V722" s="10" t="s"/>
+    </x:row>
+    <x:row r="723" hidden="0">
+      <x:c r="A723">
+        <x:v>722</x:v>
+      </x:c>
+      <x:c r="B723" s="2">
+        <x:v>43867.7327662037</x:v>
+      </x:c>
+      <x:c r="C723" s="2">
+        <x:v>43867.7331944444</x:v>
+      </x:c>
+      <x:c r="D723" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E723" s="10" t="s"/>
+      <x:c r="F723"/>
+      <x:c r="G723" s="10" t="s"/>
+      <x:c r="H723" s="3">
+        <x:v>43867</x:v>
+      </x:c>
+      <x:c r="I723"/>
+      <x:c r="J723" s="10" t="s"/>
+      <x:c r="K723" s="10" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="L723"/>
+      <x:c r="M723" s="10" t="s"/>
+      <x:c r="N723" s="10" t="s">
+        <x:v>298</x:v>
+      </x:c>
+      <x:c r="O723"/>
+      <x:c r="P723" s="10" t="s"/>
+      <x:c r="Q723" s="7" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="R723"/>
+      <x:c r="S723" s="10" t="s"/>
+      <x:c r="T723" s="10" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="U723"/>
+      <x:c r="V723" s="10" t="s"/>
+    </x:row>
+    <x:row r="724" hidden="0">
+      <x:c r="A724">
+        <x:v>723</x:v>
+      </x:c>
+      <x:c r="B724" s="2">
+        <x:v>43867.7332175926</x:v>
+      </x:c>
+      <x:c r="C724" s="2">
+        <x:v>43867.7333912037</x:v>
+      </x:c>
+      <x:c r="D724" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E724" s="10" t="s"/>
+      <x:c r="F724"/>
+      <x:c r="G724" s="10" t="s"/>
+      <x:c r="H724" s="3">
+        <x:v>43867</x:v>
+      </x:c>
+      <x:c r="I724"/>
+      <x:c r="J724" s="10" t="s"/>
+      <x:c r="K724" s="10" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="L724"/>
+      <x:c r="M724" s="10" t="s"/>
+      <x:c r="N724" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="O724"/>
+      <x:c r="P724" s="10" t="s"/>
+      <x:c r="Q724" s="7" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="R724"/>
+      <x:c r="S724" s="10" t="s"/>
+      <x:c r="T724" s="10" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="U724"/>
+      <x:c r="V724" s="10" t="s"/>
+    </x:row>
+    <x:row r="725" hidden="0">
+      <x:c r="A725">
+        <x:v>724</x:v>
+      </x:c>
+      <x:c r="B725" s="2">
+        <x:v>43867.8276967593</x:v>
+      </x:c>
+      <x:c r="C725" s="2">
+        <x:v>43867.8283796296</x:v>
+      </x:c>
+      <x:c r="D725" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E725" s="10" t="s"/>
+      <x:c r="F725"/>
+      <x:c r="G725" s="10" t="s"/>
+      <x:c r="H725" s="3">
+        <x:v>43867</x:v>
+      </x:c>
+      <x:c r="I725"/>
+      <x:c r="J725" s="10" t="s"/>
+      <x:c r="K725" s="10" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="L725"/>
+      <x:c r="M725" s="10" t="s"/>
+      <x:c r="N725" s="10" t="s">
+        <x:v>323</x:v>
+      </x:c>
+      <x:c r="O725"/>
+      <x:c r="P725" s="10" t="s"/>
+      <x:c r="Q725" s="7" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="R725"/>
+      <x:c r="S725" s="10" t="s"/>
+      <x:c r="T725" s="10" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="U725"/>
+      <x:c r="V725" s="10" t="s"/>
+    </x:row>
+    <x:row r="726" hidden="0">
+      <x:c r="A726">
+        <x:v>725</x:v>
+      </x:c>
+      <x:c r="B726" s="2">
+        <x:v>43867.8403703704</x:v>
+      </x:c>
+      <x:c r="C726" s="2">
+        <x:v>43867.840625</x:v>
+      </x:c>
+      <x:c r="D726" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E726" s="10" t="s"/>
+      <x:c r="F726"/>
+      <x:c r="G726" s="10" t="s"/>
+      <x:c r="H726" s="3">
+        <x:v>43867</x:v>
+      </x:c>
+      <x:c r="I726"/>
+      <x:c r="J726" s="10" t="s"/>
+      <x:c r="K726" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L726"/>
+      <x:c r="M726" s="10" t="s"/>
+      <x:c r="N726" s="7" t="s">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="O726"/>
+      <x:c r="P726" s="10" t="s"/>
+      <x:c r="Q726" s="7" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="R726"/>
+      <x:c r="S726" s="10" t="s"/>
+      <x:c r="T726" s="10" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="U726"/>
+      <x:c r="V726" s="10" t="s"/>
+    </x:row>
+    <x:row r="727" hidden="0">
+      <x:c r="A727">
+        <x:v>726</x:v>
+      </x:c>
+      <x:c r="B727" s="2">
+        <x:v>43867.8713425926</x:v>
+      </x:c>
+      <x:c r="C727" s="2">
+        <x:v>43867.8716782407</x:v>
+      </x:c>
+      <x:c r="D727" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E727" s="10" t="s"/>
+      <x:c r="F727"/>
+      <x:c r="G727" s="10" t="s"/>
+      <x:c r="H727" s="3">
+        <x:v>43867</x:v>
+      </x:c>
+      <x:c r="I727"/>
+      <x:c r="J727" s="10" t="s"/>
+      <x:c r="K727" s="10" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="L727"/>
+      <x:c r="M727" s="10" t="s"/>
+      <x:c r="N727" s="7" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="O727"/>
+      <x:c r="P727" s="10" t="s"/>
+      <x:c r="Q727" s="7" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="R727"/>
+      <x:c r="S727" s="10" t="s"/>
+      <x:c r="T727" s="10" t="s">
+        <x:v>259</x:v>
+      </x:c>
+      <x:c r="U727"/>
+      <x:c r="V727" s="10" t="s"/>
+    </x:row>
+    <x:row r="728" hidden="0">
+      <x:c r="A728">
+        <x:v>727</x:v>
+      </x:c>
+      <x:c r="B728" s="2">
+        <x:v>43867.8716898148</x:v>
+      </x:c>
+      <x:c r="C728" s="2">
+        <x:v>43867.871724537</x:v>
+      </x:c>
+      <x:c r="D728" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E728" s="10" t="s"/>
+      <x:c r="F728"/>
+      <x:c r="G728" s="10" t="s"/>
+      <x:c r="H728" s="3">
+        <x:v>43867</x:v>
+      </x:c>
+      <x:c r="I728"/>
+      <x:c r="J728" s="10" t="s"/>
+      <x:c r="K728" s="10" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="L728"/>
+      <x:c r="M728" s="10" t="s"/>
+      <x:c r="N728" s="7" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="O728"/>
+      <x:c r="P728" s="10" t="s"/>
+      <x:c r="Q728" s="7" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="R728"/>
+      <x:c r="S728" s="10" t="s"/>
+      <x:c r="T728" s="10" t="s">
+        <x:v>259</x:v>
+      </x:c>
+      <x:c r="U728"/>
+      <x:c r="V728" s="10" t="s"/>
+    </x:row>
+    <x:row r="729" hidden="0">
+      <x:c r="A729">
+        <x:v>728</x:v>
+      </x:c>
+      <x:c r="B729" s="2">
+        <x:v>43867.9320486111</x:v>
+      </x:c>
+      <x:c r="C729" s="2">
+        <x:v>43867.9327430556</x:v>
+      </x:c>
+      <x:c r="D729" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E729" s="10" t="s"/>
+      <x:c r="F729"/>
+      <x:c r="G729" s="10" t="s"/>
+      <x:c r="H729" s="3">
+        <x:v>43867</x:v>
+      </x:c>
+      <x:c r="I729"/>
+      <x:c r="J729" s="10" t="s"/>
+      <x:c r="K729" s="10" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="L729"/>
+      <x:c r="M729" s="10" t="s"/>
+      <x:c r="N729" s="7" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="O729"/>
+      <x:c r="P729" s="10" t="s"/>
+      <x:c r="Q729" s="7" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="R729"/>
+      <x:c r="S729" s="10" t="s"/>
+      <x:c r="T729" s="10" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="U729"/>
+      <x:c r="V729" s="10" t="s"/>
+    </x:row>
+    <x:row r="730" hidden="0">
+      <x:c r="A730">
+        <x:v>729</x:v>
+      </x:c>
+      <x:c r="B730" s="2">
+        <x:v>43867.9327662037</x:v>
+      </x:c>
+      <x:c r="C730" s="2">
+        <x:v>43867.9330902778</x:v>
+      </x:c>
+      <x:c r="D730" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E730" s="10" t="s"/>
+      <x:c r="F730"/>
+      <x:c r="G730" s="10" t="s"/>
+      <x:c r="H730" s="3">
+        <x:v>43867</x:v>
+      </x:c>
+      <x:c r="I730"/>
+      <x:c r="J730" s="10" t="s"/>
+      <x:c r="K730" s="10" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="L730"/>
+      <x:c r="M730" s="10" t="s"/>
+      <x:c r="N730" s="10" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="O730"/>
+      <x:c r="P730" s="10" t="s"/>
+      <x:c r="Q730" s="7" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="R730"/>
+      <x:c r="S730" s="10" t="s"/>
+      <x:c r="T730" s="10" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="U730"/>
+      <x:c r="V730" s="10" t="s"/>
+    </x:row>
+    <x:row r="731" hidden="0">
+      <x:c r="A731">
+        <x:v>730</x:v>
+      </x:c>
+      <x:c r="B731" s="2">
+        <x:v>43867.9331018519</x:v>
+      </x:c>
+      <x:c r="C731" s="2">
+        <x:v>43867.9334375</x:v>
+      </x:c>
+      <x:c r="D731" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E731" s="10" t="s"/>
+      <x:c r="F731"/>
+      <x:c r="G731" s="10" t="s"/>
+      <x:c r="H731" s="3">
+        <x:v>43867</x:v>
+      </x:c>
+      <x:c r="I731"/>
+      <x:c r="J731" s="10" t="s"/>
+      <x:c r="K731" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="L731"/>
+      <x:c r="M731" s="10" t="s"/>
+      <x:c r="N731" s="10" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="O731"/>
+      <x:c r="P731" s="10" t="s"/>
+      <x:c r="Q731" s="7" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="R731"/>
+      <x:c r="S731" s="10" t="s"/>
+      <x:c r="T731" s="10" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="U731"/>
+      <x:c r="V731" s="10" t="s"/>
+    </x:row>
+    <x:row r="732" hidden="0">
+      <x:c r="A732">
+        <x:v>731</x:v>
+      </x:c>
+      <x:c r="B732" s="2">
+        <x:v>43867.980462963</x:v>
+      </x:c>
+      <x:c r="C732" s="2">
+        <x:v>43867.9807175926</x:v>
+      </x:c>
+      <x:c r="D732" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E732" s="10" t="s"/>
+      <x:c r="F732"/>
+      <x:c r="G732" s="10" t="s"/>
+      <x:c r="H732" s="3">
+        <x:v>43867</x:v>
+      </x:c>
+      <x:c r="I732"/>
+      <x:c r="J732" s="10" t="s"/>
+      <x:c r="K732" s="10" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="L732"/>
+      <x:c r="M732" s="10" t="s"/>
+      <x:c r="N732" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="O732"/>
+      <x:c r="P732" s="10" t="s"/>
+      <x:c r="Q732" s="7" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="R732"/>
+      <x:c r="S732" s="10" t="s"/>
+      <x:c r="T732" s="10" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="U732"/>
+      <x:c r="V732" s="10" t="s"/>
+    </x:row>
+    <x:row r="733" hidden="0">
+      <x:c r="A733">
+        <x:v>732</x:v>
+      </x:c>
+      <x:c r="B733" s="2">
+        <x:v>43867.9807407407</x:v>
+      </x:c>
+      <x:c r="C733" s="2">
+        <x:v>43867.9809490741</x:v>
+      </x:c>
+      <x:c r="D733" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E733" s="10" t="s"/>
+      <x:c r="F733"/>
+      <x:c r="G733" s="10" t="s"/>
+      <x:c r="H733" s="3">
+        <x:v>43867</x:v>
+      </x:c>
+      <x:c r="I733"/>
+      <x:c r="J733" s="10" t="s"/>
+      <x:c r="K733" s="10" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="L733"/>
+      <x:c r="M733" s="10" t="s"/>
+      <x:c r="N733" s="10" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="O733"/>
+      <x:c r="P733" s="10" t="s"/>
+      <x:c r="Q733" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="R733"/>
+      <x:c r="S733" s="10" t="s"/>
+      <x:c r="T733" s="10" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="U733"/>
+      <x:c r="V733" s="10" t="s"/>
+    </x:row>
+    <x:row r="734" hidden="0">
+      <x:c r="A734">
+        <x:v>733</x:v>
+      </x:c>
+      <x:c r="B734" s="2">
+        <x:v>43868.3126388889</x:v>
+      </x:c>
+      <x:c r="C734" s="2">
+        <x:v>43868.3134143518</x:v>
+      </x:c>
+      <x:c r="D734" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E734" s="10" t="s"/>
+      <x:c r="F734"/>
+      <x:c r="G734" s="10" t="s"/>
+      <x:c r="H734" s="3">
+        <x:v>43869</x:v>
+      </x:c>
+      <x:c r="I734"/>
+      <x:c r="J734" s="10" t="s"/>
+      <x:c r="K734" s="10" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="L734"/>
+      <x:c r="M734" s="10" t="s"/>
+      <x:c r="N734" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="O734"/>
+      <x:c r="P734" s="10" t="s"/>
+      <x:c r="Q734" s="7" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="R734"/>
+      <x:c r="S734" s="10" t="s"/>
+      <x:c r="T734" s="10" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="U734"/>
+      <x:c r="V734" s="10" t="s"/>
+    </x:row>
+    <x:row r="735" hidden="0">
+      <x:c r="A735">
+        <x:v>734</x:v>
+      </x:c>
+      <x:c r="B735" s="2">
+        <x:v>43868.3306597222</x:v>
+      </x:c>
+      <x:c r="C735" s="2">
+        <x:v>43868.3316435185</x:v>
+      </x:c>
+      <x:c r="D735" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E735" s="10" t="s"/>
+      <x:c r="F735"/>
+      <x:c r="G735" s="10" t="s"/>
+      <x:c r="H735" s="3">
+        <x:v>43868</x:v>
+      </x:c>
+      <x:c r="I735"/>
+      <x:c r="J735" s="10" t="s"/>
+      <x:c r="K735" s="10" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="L735"/>
+      <x:c r="M735" s="10" t="s"/>
+      <x:c r="N735" s="10" t="s">
+        <x:v>324</x:v>
+      </x:c>
+      <x:c r="O735"/>
+      <x:c r="P735" s="10" t="s"/>
+      <x:c r="Q735" s="7" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="R735"/>
+      <x:c r="S735" s="10" t="s"/>
+      <x:c r="T735" s="10" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="U735"/>
+      <x:c r="V735" s="10" t="s"/>
+    </x:row>
+    <x:row r="736" hidden="0">
+      <x:c r="A736">
+        <x:v>735</x:v>
+      </x:c>
+      <x:c r="B736" s="2">
+        <x:v>43868.3859027778</x:v>
+      </x:c>
+      <x:c r="C736" s="2">
+        <x:v>43868.3861342593</x:v>
+      </x:c>
+      <x:c r="D736" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E736" s="10" t="s"/>
+      <x:c r="F736"/>
+      <x:c r="G736" s="10" t="s"/>
+      <x:c r="H736" s="3">
+        <x:v>43868</x:v>
+      </x:c>
+      <x:c r="I736"/>
+      <x:c r="J736" s="10" t="s"/>
+      <x:c r="K736" s="10" t="s">
+        <x:v>271</x:v>
+      </x:c>
+      <x:c r="L736"/>
+      <x:c r="M736" s="10" t="s"/>
+      <x:c r="N736" s="10" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="O736"/>
+      <x:c r="P736" s="10" t="s"/>
+      <x:c r="Q736" s="7" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="R736"/>
+      <x:c r="S736" s="10" t="s"/>
+      <x:c r="T736" s="10" t="s">
+        <x:v>259</x:v>
+      </x:c>
+      <x:c r="U736"/>
+      <x:c r="V736" s="10" t="s"/>
+    </x:row>
+    <x:row r="737" hidden="0">
+      <x:c r="A737">
+        <x:v>736</x:v>
+      </x:c>
+      <x:c r="B737" s="2">
+        <x:v>43868.4082060185</x:v>
+      </x:c>
+      <x:c r="C737" s="2">
+        <x:v>43868.4084259259</x:v>
+      </x:c>
+      <x:c r="D737" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E737" s="10" t="s"/>
+      <x:c r="F737"/>
+      <x:c r="G737" s="10" t="s"/>
+      <x:c r="H737" s="3">
+        <x:v>43868</x:v>
+      </x:c>
+      <x:c r="I737"/>
+      <x:c r="J737" s="10" t="s"/>
+      <x:c r="K737" s="10" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="L737"/>
+      <x:c r="M737" s="10" t="s"/>
+      <x:c r="N737" s="10" t="s">
+        <x:v>325</x:v>
+      </x:c>
+      <x:c r="O737"/>
+      <x:c r="P737" s="10" t="s"/>
+      <x:c r="Q737" s="7" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="R737"/>
+      <x:c r="S737" s="10" t="s"/>
+      <x:c r="T737" s="10" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="U737"/>
+      <x:c r="V737" s="10" t="s"/>
+    </x:row>
+    <x:row r="738" hidden="0">
+      <x:c r="A738">
+        <x:v>737</x:v>
+      </x:c>
+      <x:c r="B738" s="2">
+        <x:v>43868.4766319444</x:v>
+      </x:c>
+      <x:c r="C738" s="2">
+        <x:v>43868.4768402778</x:v>
+      </x:c>
+      <x:c r="D738" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E738" s="10" t="s"/>
+      <x:c r="F738"/>
+      <x:c r="G738" s="10" t="s"/>
+      <x:c r="H738" s="3">
+        <x:v>43868</x:v>
+      </x:c>
+      <x:c r="I738"/>
+      <x:c r="J738" s="10" t="s"/>
+      <x:c r="K738" s="10" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="L738"/>
+      <x:c r="M738" s="10" t="s"/>
+      <x:c r="N738" s="10" t="s">
+        <x:v>326</x:v>
+      </x:c>
+      <x:c r="O738"/>
+      <x:c r="P738" s="10" t="s"/>
+      <x:c r="Q738" s="7" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="R738"/>
+      <x:c r="S738" s="10" t="s"/>
+      <x:c r="T738" s="10" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="U738"/>
+      <x:c r="V738" s="10" t="s"/>
+    </x:row>
+    <x:row r="739" hidden="0">
+      <x:c r="A739">
+        <x:v>738</x:v>
+      </x:c>
+      <x:c r="B739" s="2">
+        <x:v>43868.4780787037</x:v>
+      </x:c>
+      <x:c r="C739" s="2">
+        <x:v>43868.4796527778</x:v>
+      </x:c>
+      <x:c r="D739" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E739" s="10" t="s"/>
+      <x:c r="F739"/>
+      <x:c r="G739" s="10" t="s"/>
+      <x:c r="H739" s="3">
+        <x:v>43867</x:v>
+      </x:c>
+      <x:c r="I739"/>
+      <x:c r="J739" s="10" t="s"/>
+      <x:c r="K739" s="10" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="L739"/>
+      <x:c r="M739" s="10" t="s"/>
+      <x:c r="N739" s="10" t="s">
+        <x:v>327</x:v>
+      </x:c>
+      <x:c r="O739"/>
+      <x:c r="P739" s="10" t="s"/>
+      <x:c r="Q739" s="7" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="R739"/>
+      <x:c r="S739" s="10" t="s"/>
+      <x:c r="T739" s="10" t="s">
+        <x:v>254</x:v>
+      </x:c>
+      <x:c r="U739"/>
+      <x:c r="V739" s="10" t="s"/>
+    </x:row>
+    <x:row r="740" hidden="0">
+      <x:c r="A740">
+        <x:v>739</x:v>
+      </x:c>
+      <x:c r="B740" s="2">
+        <x:v>43868.4797106481</x:v>
+      </x:c>
+      <x:c r="C740" s="2">
+        <x:v>43868.4806597222</x:v>
+      </x:c>
+      <x:c r="D740" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E740" s="10" t="s"/>
+      <x:c r="F740"/>
+      <x:c r="G740" s="10" t="s"/>
+      <x:c r="H740" s="3">
+        <x:v>43867</x:v>
+      </x:c>
+      <x:c r="I740"/>
+      <x:c r="J740" s="10" t="s"/>
+      <x:c r="K740" s="10" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="L740"/>
+      <x:c r="M740" s="10" t="s"/>
+      <x:c r="N740" s="10" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="O740"/>
+      <x:c r="P740" s="10" t="s"/>
+      <x:c r="Q740" s="7" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="R740"/>
+      <x:c r="S740" s="10" t="s"/>
+      <x:c r="T740" s="10" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="U740"/>
+      <x:c r="V740" s="10" t="s"/>
+    </x:row>
+    <x:row r="741" hidden="0">
+      <x:c r="A741">
+        <x:v>740</x:v>
+      </x:c>
+      <x:c r="B741" s="2">
+        <x:v>43868.4807407407</x:v>
+      </x:c>
+      <x:c r="C741" s="2">
+        <x:v>43868.4811805556</x:v>
+      </x:c>
+      <x:c r="D741" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E741" s="10" t="s"/>
+      <x:c r="F741"/>
+      <x:c r="G741" s="10" t="s"/>
+      <x:c r="H741" s="3">
+        <x:v>43867</x:v>
+      </x:c>
+      <x:c r="I741"/>
+      <x:c r="J741" s="10" t="s"/>
+      <x:c r="K741" s="10" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="L741"/>
+      <x:c r="M741" s="10" t="s"/>
+      <x:c r="N741" s="10" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="O741"/>
+      <x:c r="P741" s="10" t="s"/>
+      <x:c r="Q741" s="7" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="R741"/>
+      <x:c r="S741" s="10" t="s"/>
+      <x:c r="T741" s="10" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="U741"/>
+      <x:c r="V741" s="10" t="s"/>
+    </x:row>
+    <x:row r="742" hidden="0">
+      <x:c r="A742">
+        <x:v>741</x:v>
+      </x:c>
+      <x:c r="B742" s="2">
+        <x:v>43868.5630208333</x:v>
+      </x:c>
+      <x:c r="C742" s="2">
+        <x:v>43868.5633101852</x:v>
+      </x:c>
+      <x:c r="D742" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E742" s="10" t="s"/>
+      <x:c r="F742"/>
+      <x:c r="G742" s="10" t="s"/>
+      <x:c r="H742" s="3">
+        <x:v>43868</x:v>
+      </x:c>
+      <x:c r="I742"/>
+      <x:c r="J742" s="10" t="s"/>
+      <x:c r="K742" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L742"/>
+      <x:c r="M742" s="10" t="s"/>
+      <x:c r="N742" s="7" t="s">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="O742"/>
+      <x:c r="P742" s="10" t="s"/>
+      <x:c r="Q742" s="7" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="R742"/>
+      <x:c r="S742" s="10" t="s"/>
+      <x:c r="T742" s="10" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="U742"/>
+      <x:c r="V742" s="10" t="s"/>
+    </x:row>
+    <x:row r="743" hidden="0">
+      <x:c r="A743">
+        <x:v>742</x:v>
+      </x:c>
+      <x:c r="B743" s="2">
+        <x:v>43868.7200347222</x:v>
+      </x:c>
+      <x:c r="C743" s="2">
+        <x:v>43868.7204398148</x:v>
+      </x:c>
+      <x:c r="D743" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E743" s="10" t="s"/>
+      <x:c r="F743"/>
+      <x:c r="G743" s="10" t="s"/>
+      <x:c r="H743" s="3">
+        <x:v>43868</x:v>
+      </x:c>
+      <x:c r="I743"/>
+      <x:c r="J743" s="10" t="s"/>
+      <x:c r="K743" s="10" t="s">
+        <x:v>271</x:v>
+      </x:c>
+      <x:c r="L743"/>
+      <x:c r="M743" s="10" t="s"/>
+      <x:c r="N743" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="O743"/>
+      <x:c r="P743" s="10" t="s"/>
+      <x:c r="Q743" s="7" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="R743"/>
+      <x:c r="S743" s="10" t="s"/>
+      <x:c r="T743" s="10" t="s">
+        <x:v>259</x:v>
+      </x:c>
+      <x:c r="U743"/>
+      <x:c r="V743" s="10" t="s"/>
+    </x:row>
+    <x:row r="744" hidden="0">
+      <x:c r="A744">
+        <x:v>743</x:v>
+      </x:c>
+      <x:c r="B744" s="2">
+        <x:v>43868.7302546296</x:v>
+      </x:c>
+      <x:c r="C744" s="2">
+        <x:v>43868.7308101852</x:v>
+      </x:c>
+      <x:c r="D744" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E744" s="10" t="s"/>
+      <x:c r="F744"/>
+      <x:c r="G744" s="10" t="s"/>
+      <x:c r="H744" s="3">
+        <x:v>43868</x:v>
+      </x:c>
+      <x:c r="I744"/>
+      <x:c r="J744" s="10" t="s"/>
+      <x:c r="K744" s="10" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="L744"/>
+      <x:c r="M744" s="10" t="s"/>
+      <x:c r="N744" s="10" t="s">
+        <x:v>298</x:v>
+      </x:c>
+      <x:c r="O744"/>
+      <x:c r="P744" s="10" t="s"/>
+      <x:c r="Q744" s="7" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="R744"/>
+      <x:c r="S744" s="10" t="s"/>
+      <x:c r="T744" s="10" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="U744"/>
+      <x:c r="V744" s="10" t="s"/>
+    </x:row>
+    <x:row r="745" hidden="0">
+      <x:c r="A745">
+        <x:v>744</x:v>
+      </x:c>
+      <x:c r="B745" s="2">
+        <x:v>43868.7702199074</x:v>
+      </x:c>
+      <x:c r="C745" s="2">
+        <x:v>43868.7708101852</x:v>
+      </x:c>
+      <x:c r="D745" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E745" s="10" t="s"/>
+      <x:c r="F745"/>
+      <x:c r="G745" s="10" t="s"/>
+      <x:c r="H745" s="3">
+        <x:v>43868</x:v>
+      </x:c>
+      <x:c r="I745"/>
+      <x:c r="J745" s="10" t="s"/>
+      <x:c r="K745" s="10" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="L745"/>
+      <x:c r="M745" s="10" t="s"/>
+      <x:c r="N745" s="10" t="s">
+        <x:v>328</x:v>
+      </x:c>
+      <x:c r="O745"/>
+      <x:c r="P745" s="10" t="s"/>
+      <x:c r="Q745" s="7" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="R745"/>
+      <x:c r="S745" s="10" t="s"/>
+      <x:c r="T745" s="10" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="U745"/>
+      <x:c r="V745" s="10" t="s"/>
+    </x:row>
+    <x:row r="746" hidden="0">
+      <x:c r="A746">
+        <x:v>745</x:v>
+      </x:c>
+      <x:c r="B746" s="2">
+        <x:v>43868.7734375</x:v>
+      </x:c>
+      <x:c r="C746" s="2">
+        <x:v>43868.7755324074</x:v>
+      </x:c>
+      <x:c r="D746" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E746" s="10" t="s"/>
+      <x:c r="F746"/>
+      <x:c r="G746" s="10" t="s"/>
+      <x:c r="H746" s="3">
+        <x:v>43868</x:v>
+      </x:c>
+      <x:c r="I746"/>
+      <x:c r="J746" s="10" t="s"/>
+      <x:c r="K746" s="10" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="L746"/>
+      <x:c r="M746" s="10" t="s"/>
+      <x:c r="N746" s="10" t="s">
+        <x:v>308</x:v>
+      </x:c>
+      <x:c r="O746"/>
+      <x:c r="P746" s="10" t="s"/>
+      <x:c r="Q746" s="7" t="s">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="R746"/>
+      <x:c r="S746" s="10" t="s"/>
+      <x:c r="T746" s="10" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="U746"/>
+      <x:c r="V746" s="10" t="s"/>
+    </x:row>
+    <x:row r="747" hidden="0">
+      <x:c r="A747">
+        <x:v>746</x:v>
+      </x:c>
+      <x:c r="B747" s="2">
+        <x:v>43868.8317939815</x:v>
+      </x:c>
+      <x:c r="C747" s="2">
+        <x:v>43868.8322222222</x:v>
+      </x:c>
+      <x:c r="D747" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E747" s="10" t="s"/>
+      <x:c r="F747"/>
+      <x:c r="G747" s="10" t="s"/>
+      <x:c r="H747" s="3">
+        <x:v>43868</x:v>
+      </x:c>
+      <x:c r="I747"/>
+      <x:c r="J747" s="10" t="s"/>
+      <x:c r="K747" s="10" t="s">
+        <x:v>271</x:v>
+      </x:c>
+      <x:c r="L747"/>
+      <x:c r="M747" s="10" t="s"/>
+      <x:c r="N747" s="10" t="s">
+        <x:v>323</x:v>
+      </x:c>
+      <x:c r="O747"/>
+      <x:c r="P747" s="10" t="s"/>
+      <x:c r="Q747" s="7" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="R747"/>
+      <x:c r="S747" s="10" t="s"/>
+      <x:c r="T747" s="10" t="s">
+        <x:v>259</x:v>
+      </x:c>
+      <x:c r="U747"/>
+      <x:c r="V747" s="10" t="s"/>
+    </x:row>
+    <x:row r="748" hidden="0">
+      <x:c r="A748">
+        <x:v>747</x:v>
+      </x:c>
+      <x:c r="B748" s="2">
+        <x:v>43868.8450810185</x:v>
+      </x:c>
+      <x:c r="C748" s="2">
+        <x:v>43868.8456944444</x:v>
+      </x:c>
+      <x:c r="D748" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E748" s="10" t="s"/>
+      <x:c r="F748"/>
+      <x:c r="G748" s="10" t="s"/>
+      <x:c r="H748" s="3">
+        <x:v>43868</x:v>
+      </x:c>
+      <x:c r="I748"/>
+      <x:c r="J748" s="10" t="s"/>
+      <x:c r="K748" s="10" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="L748"/>
+      <x:c r="M748" s="10" t="s"/>
+      <x:c r="N748" s="10" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="O748"/>
+      <x:c r="P748" s="10" t="s"/>
+      <x:c r="Q748" s="7" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="R748"/>
+      <x:c r="S748" s="10" t="s"/>
+      <x:c r="T748" s="10" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="U748"/>
+      <x:c r="V748" s="10" t="s"/>
+    </x:row>
+    <x:row r="749" hidden="0">
+      <x:c r="A749">
+        <x:v>748</x:v>
+      </x:c>
+      <x:c r="B749" s="2">
+        <x:v>43868.8550578704</x:v>
+      </x:c>
+      <x:c r="C749" s="2">
+        <x:v>43868.8554166667</x:v>
+      </x:c>
+      <x:c r="D749" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E749" s="10" t="s"/>
+      <x:c r="F749"/>
+      <x:c r="G749" s="10" t="s"/>
+      <x:c r="H749" s="3">
+        <x:v>43868</x:v>
+      </x:c>
+      <x:c r="I749"/>
+      <x:c r="J749" s="10" t="s"/>
+      <x:c r="K749" s="10" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="L749"/>
+      <x:c r="M749" s="10" t="s"/>
+      <x:c r="N749" s="10" t="s">
+        <x:v>293</x:v>
+      </x:c>
+      <x:c r="O749"/>
+      <x:c r="P749" s="10" t="s"/>
+      <x:c r="Q749" s="7" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="R749"/>
+      <x:c r="S749" s="10" t="s"/>
+      <x:c r="T749" s="10" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="U749"/>
+      <x:c r="V749" s="10" t="s"/>
+    </x:row>
+    <x:row r="750" hidden="0">
+      <x:c r="A750">
+        <x:v>749</x:v>
+      </x:c>
+      <x:c r="B750" s="2">
+        <x:v>43869.5253240741</x:v>
+      </x:c>
+      <x:c r="C750" s="2">
+        <x:v>43869.5266782407</x:v>
+      </x:c>
+      <x:c r="D750" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E750" s="10" t="s"/>
+      <x:c r="F750"/>
+      <x:c r="G750" s="10" t="s"/>
+      <x:c r="H750" s="3">
+        <x:v>43869</x:v>
+      </x:c>
+      <x:c r="I750"/>
+      <x:c r="J750" s="10" t="s"/>
+      <x:c r="K750" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="L750"/>
+      <x:c r="M750" s="10" t="s"/>
+      <x:c r="N750" s="10" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="O750"/>
+      <x:c r="P750" s="10" t="s"/>
+      <x:c r="Q750" s="7" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="R750"/>
+      <x:c r="S750" s="10" t="s"/>
+      <x:c r="T750" s="10" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="U750"/>
+      <x:c r="V750" s="10" t="s"/>
+    </x:row>
+    <x:row r="751" hidden="0">
+      <x:c r="A751">
+        <x:v>750</x:v>
+      </x:c>
+      <x:c r="B751" s="2">
+        <x:v>43870.4445023148</x:v>
+      </x:c>
+      <x:c r="C751" s="2">
+        <x:v>43870.4451157407</x:v>
+      </x:c>
+      <x:c r="D751" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E751" s="10" t="s"/>
+      <x:c r="F751"/>
+      <x:c r="G751" s="10" t="s"/>
+      <x:c r="H751" s="3">
+        <x:v>43870</x:v>
+      </x:c>
+      <x:c r="I751"/>
+      <x:c r="J751" s="10" t="s"/>
+      <x:c r="K751" s="10" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="L751"/>
+      <x:c r="M751" s="10" t="s"/>
+      <x:c r="N751" s="10" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="O751"/>
+      <x:c r="P751" s="10" t="s"/>
+      <x:c r="Q751" s="7" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="R751"/>
+      <x:c r="S751" s="10" t="s"/>
+      <x:c r="T751" s="10" t="s">
+        <x:v>268</x:v>
+      </x:c>
+      <x:c r="U751"/>
+      <x:c r="V751" s="10" t="s"/>
+    </x:row>
+    <x:row r="752" hidden="0">
+      <x:c r="A752">
+        <x:v>751</x:v>
+      </x:c>
+      <x:c r="B752" s="2">
+        <x:v>43870.4545486111</x:v>
+      </x:c>
+      <x:c r="C752" s="2">
+        <x:v>43870.4547800926</x:v>
+      </x:c>
+      <x:c r="D752" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E752" s="10" t="s"/>
+      <x:c r="F752"/>
+      <x:c r="G752" s="10" t="s"/>
+      <x:c r="H752" s="3">
+        <x:v>43870</x:v>
+      </x:c>
+      <x:c r="I752"/>
+      <x:c r="J752" s="10" t="s"/>
+      <x:c r="K752" s="10" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="L752"/>
+      <x:c r="M752" s="10" t="s"/>
+      <x:c r="N752" s="10" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="O752"/>
+      <x:c r="P752" s="10" t="s"/>
+      <x:c r="Q752" s="7" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="R752"/>
+      <x:c r="S752" s="10" t="s"/>
+      <x:c r="T752" s="10" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="U752"/>
+      <x:c r="V752" s="10" t="s"/>
+    </x:row>
+    <x:row r="753" hidden="0">
+      <x:c r="A753">
+        <x:v>752</x:v>
+      </x:c>
+      <x:c r="B753" s="2">
+        <x:v>43870.4900115741</x:v>
+      </x:c>
+      <x:c r="C753" s="2">
+        <x:v>43870.4902430556</x:v>
+      </x:c>
+      <x:c r="D753" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E753" s="10" t="s"/>
+      <x:c r="F753"/>
+      <x:c r="G753" s="10" t="s"/>
+      <x:c r="H753" s="3">
+        <x:v>43870</x:v>
+      </x:c>
+      <x:c r="I753"/>
+      <x:c r="J753" s="10" t="s"/>
+      <x:c r="K753" s="10" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="L753"/>
+      <x:c r="M753" s="10" t="s"/>
+      <x:c r="N753" s="10" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="O753"/>
+      <x:c r="P753" s="10" t="s"/>
+      <x:c r="Q753" s="7" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="R753"/>
+      <x:c r="S753" s="10" t="s"/>
+      <x:c r="T753" s="10" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="U753"/>
+      <x:c r="V753" s="10" t="s"/>
+    </x:row>
+    <x:row r="754" hidden="0">
+      <x:c r="A754">
+        <x:v>753</x:v>
+      </x:c>
+      <x:c r="B754" s="2">
+        <x:v>43870.519224537</x:v>
+      </x:c>
+      <x:c r="C754" s="2">
+        <x:v>43870.5194560185</x:v>
+      </x:c>
+      <x:c r="D754" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E754" s="10" t="s"/>
+      <x:c r="F754"/>
+      <x:c r="G754" s="10" t="s"/>
+      <x:c r="H754" s="3">
+        <x:v>43870</x:v>
+      </x:c>
+      <x:c r="I754"/>
+      <x:c r="J754" s="10" t="s"/>
+      <x:c r="K754" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="L754"/>
+      <x:c r="M754" s="10" t="s"/>
+      <x:c r="N754" s="10" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="O754"/>
+      <x:c r="P754" s="10" t="s"/>
+      <x:c r="Q754" s="7" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="R754"/>
+      <x:c r="S754" s="10" t="s"/>
+      <x:c r="T754" s="10" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="U754"/>
+      <x:c r="V754" s="10" t="s"/>
+    </x:row>
+    <x:row r="755" hidden="0">
+      <x:c r="A755">
+        <x:v>754</x:v>
+      </x:c>
+      <x:c r="B755" s="2">
+        <x:v>43871.3360648148</x:v>
+      </x:c>
+      <x:c r="C755" s="2">
+        <x:v>43871.3362731481</x:v>
+      </x:c>
+      <x:c r="D755" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E755" s="10" t="s"/>
+      <x:c r="F755"/>
+      <x:c r="G755" s="10" t="s"/>
+      <x:c r="H755" s="3">
+        <x:v>43871</x:v>
+      </x:c>
+      <x:c r="I755"/>
+      <x:c r="J755" s="10" t="s"/>
+      <x:c r="K755" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L755"/>
+      <x:c r="M755" s="10" t="s"/>
+      <x:c r="N755" s="7" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="O755"/>
+      <x:c r="P755" s="10" t="s"/>
+      <x:c r="Q755" s="7" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="R755"/>
+      <x:c r="S755" s="10" t="s"/>
+      <x:c r="T755" s="10" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="U755"/>
+      <x:c r="V755" s="10" t="s"/>
+    </x:row>
+    <x:row r="756" hidden="0">
+      <x:c r="A756">
+        <x:v>755</x:v>
+      </x:c>
+      <x:c r="B756" s="2">
+        <x:v>43871.382337963</x:v>
+      </x:c>
+      <x:c r="C756" s="2">
+        <x:v>43871.3825462963</x:v>
+      </x:c>
+      <x:c r="D756" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E756" s="10" t="s"/>
+      <x:c r="F756"/>
+      <x:c r="G756" s="10" t="s"/>
+      <x:c r="H756" s="3">
+        <x:v>43871</x:v>
+      </x:c>
+      <x:c r="I756"/>
+      <x:c r="J756" s="10" t="s"/>
+      <x:c r="K756" s="10" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="L756"/>
+      <x:c r="M756" s="10" t="s"/>
+      <x:c r="N756" s="7" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="O756"/>
+      <x:c r="P756" s="10" t="s"/>
+      <x:c r="Q756" s="7" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="R756"/>
+      <x:c r="S756" s="10" t="s"/>
+      <x:c r="T756" s="10" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="U756"/>
+      <x:c r="V756" s="10" t="s"/>
+    </x:row>
+    <x:row r="757" hidden="0">
+      <x:c r="A757">
+        <x:v>756</x:v>
+      </x:c>
+      <x:c r="B757" s="2">
+        <x:v>43871.5884143518</x:v>
+      </x:c>
+      <x:c r="C757" s="2">
+        <x:v>43871.5906365741</x:v>
+      </x:c>
+      <x:c r="D757" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E757" s="10" t="s"/>
+      <x:c r="F757"/>
+      <x:c r="G757" s="10" t="s"/>
+      <x:c r="H757" s="3">
+        <x:v>43871</x:v>
+      </x:c>
+      <x:c r="I757"/>
+      <x:c r="J757" s="10" t="s"/>
+      <x:c r="K757" s="10" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="L757"/>
+      <x:c r="M757" s="10" t="s"/>
+      <x:c r="N757" s="7" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="O757"/>
+      <x:c r="P757" s="10" t="s"/>
+      <x:c r="Q757" s="7" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="R757"/>
+      <x:c r="S757" s="10" t="s"/>
+      <x:c r="T757" s="10" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="U757"/>
+      <x:c r="V757" s="10" t="s"/>
+    </x:row>
+    <x:row r="758" hidden="0">
+      <x:c r="A758">
+        <x:v>757</x:v>
+      </x:c>
+      <x:c r="B758" s="2">
+        <x:v>43871.6669675926</x:v>
+      </x:c>
+      <x:c r="C758" s="2">
+        <x:v>43871.6673611111</x:v>
+      </x:c>
+      <x:c r="D758" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E758" s="10" t="s"/>
+      <x:c r="F758"/>
+      <x:c r="G758" s="10" t="s"/>
+      <x:c r="H758" s="3">
+        <x:v>43871</x:v>
+      </x:c>
+      <x:c r="I758"/>
+      <x:c r="J758" s="10" t="s"/>
+      <x:c r="K758" s="10" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="L758"/>
+      <x:c r="M758" s="10" t="s"/>
+      <x:c r="N758" s="10" t="s">
+        <x:v>329</x:v>
+      </x:c>
+      <x:c r="O758"/>
+      <x:c r="P758" s="10" t="s"/>
+      <x:c r="Q758" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="R758"/>
+      <x:c r="S758" s="10" t="s"/>
+      <x:c r="T758" s="10" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="U758"/>
+      <x:c r="V758" s="10" t="s"/>
+    </x:row>
+    <x:row r="759" hidden="0">
+      <x:c r="A759">
+        <x:v>758</x:v>
+      </x:c>
+      <x:c r="B759" s="2">
+        <x:v>43871.6674074074</x:v>
+      </x:c>
+      <x:c r="C759" s="2">
+        <x:v>43871.6682638889</x:v>
+      </x:c>
+      <x:c r="D759" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E759" s="10" t="s"/>
+      <x:c r="F759"/>
+      <x:c r="G759" s="10" t="s"/>
+      <x:c r="H759" s="3">
+        <x:v>43871</x:v>
+      </x:c>
+      <x:c r="I759"/>
+      <x:c r="J759" s="10" t="s"/>
+      <x:c r="K759" s="10" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="L759"/>
+      <x:c r="M759" s="10" t="s"/>
+      <x:c r="N759" s="10" t="s">
+        <x:v>330</x:v>
+      </x:c>
+      <x:c r="O759"/>
+      <x:c r="P759" s="10" t="s"/>
+      <x:c r="Q759" s="7" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="R759"/>
+      <x:c r="S759" s="10" t="s"/>
+      <x:c r="T759" s="10" t="s">
+        <x:v>259</x:v>
+      </x:c>
+      <x:c r="U759"/>
+      <x:c r="V759" s="10" t="s"/>
+    </x:row>
+    <x:row r="760" hidden="0">
+      <x:c r="A760">
+        <x:v>759</x:v>
+      </x:c>
+      <x:c r="B760" s="2">
+        <x:v>43871.668275463</x:v>
+      </x:c>
+      <x:c r="C760" s="2">
+        <x:v>43871.6688425926</x:v>
+      </x:c>
+      <x:c r="D760" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E760" s="10" t="s"/>
+      <x:c r="F760"/>
+      <x:c r="G760" s="10" t="s"/>
+      <x:c r="H760" s="3">
+        <x:v>43871</x:v>
+      </x:c>
+      <x:c r="I760"/>
+      <x:c r="J760" s="10" t="s"/>
+      <x:c r="K760" s="10" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="L760"/>
+      <x:c r="M760" s="10" t="s"/>
+      <x:c r="N760" s="10" t="s">
+        <x:v>306</x:v>
+      </x:c>
+      <x:c r="O760"/>
+      <x:c r="P760" s="10" t="s"/>
+      <x:c r="Q760" s="7" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="R760"/>
+      <x:c r="S760" s="10" t="s"/>
+      <x:c r="T760" s="10" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="U760"/>
+      <x:c r="V760" s="10" t="s"/>
+    </x:row>
+    <x:row r="761" hidden="0">
+      <x:c r="A761">
+        <x:v>760</x:v>
+      </x:c>
+      <x:c r="B761" s="2">
+        <x:v>43871.6817708333</x:v>
+      </x:c>
+      <x:c r="C761" s="2">
+        <x:v>43871.6819560185</x:v>
+      </x:c>
+      <x:c r="D761" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E761" s="10" t="s"/>
+      <x:c r="F761"/>
+      <x:c r="G761" s="10" t="s"/>
+      <x:c r="H761" s="3">
+        <x:v>43871</x:v>
+      </x:c>
+      <x:c r="I761"/>
+      <x:c r="J761" s="10" t="s"/>
+      <x:c r="K761" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L761"/>
+      <x:c r="M761" s="10" t="s"/>
+      <x:c r="N761" s="7" t="s">
+        <x:v>307</x:v>
+      </x:c>
+      <x:c r="O761"/>
+      <x:c r="P761" s="10" t="s"/>
+      <x:c r="Q761" s="7" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="R761"/>
+      <x:c r="S761" s="10" t="s"/>
+      <x:c r="T761" s="10" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="U761"/>
+      <x:c r="V761" s="10" t="s"/>
+    </x:row>
+    <x:row r="762" hidden="0">
+      <x:c r="A762">
+        <x:v>761</x:v>
+      </x:c>
+      <x:c r="B762" s="2">
+        <x:v>43871.697962963</x:v>
+      </x:c>
+      <x:c r="C762" s="2">
+        <x:v>43871.6983217593</x:v>
+      </x:c>
+      <x:c r="D762" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E762" s="10" t="s"/>
+      <x:c r="F762"/>
+      <x:c r="G762" s="10" t="s"/>
+      <x:c r="H762" s="3">
+        <x:v>43871</x:v>
+      </x:c>
+      <x:c r="I762"/>
+      <x:c r="J762" s="10" t="s"/>
+      <x:c r="K762" s="10" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="L762"/>
+      <x:c r="M762" s="10" t="s"/>
+      <x:c r="N762" s="10" t="s">
+        <x:v>280</x:v>
+      </x:c>
+      <x:c r="O762"/>
+      <x:c r="P762" s="10" t="s"/>
+      <x:c r="Q762" s="7" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="R762"/>
+      <x:c r="S762" s="10" t="s"/>
+      <x:c r="T762" s="10" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="U762"/>
+      <x:c r="V762" s="10" t="s"/>
+    </x:row>
+    <x:row r="763" hidden="0">
+      <x:c r="A763">
+        <x:v>762</x:v>
+      </x:c>
+      <x:c r="B763" s="2">
+        <x:v>43871.7622685185</x:v>
+      </x:c>
+      <x:c r="C763" s="2">
+        <x:v>43871.7625231481</x:v>
+      </x:c>
+      <x:c r="D763" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E763" s="10" t="s"/>
+      <x:c r="F763"/>
+      <x:c r="G763" s="10" t="s"/>
+      <x:c r="H763" s="3">
+        <x:v>43871</x:v>
+      </x:c>
+      <x:c r="I763"/>
+      <x:c r="J763" s="10" t="s"/>
+      <x:c r="K763" s="10" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="L763"/>
+      <x:c r="M763" s="10" t="s"/>
+      <x:c r="N763" s="10" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="O763"/>
+      <x:c r="P763" s="10" t="s"/>
+      <x:c r="Q763" s="7" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="R763"/>
+      <x:c r="S763" s="10" t="s"/>
+      <x:c r="T763" s="10" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="U763"/>
+      <x:c r="V763" s="10" t="s"/>
+    </x:row>
+    <x:row r="764" hidden="0">
+      <x:c r="A764">
+        <x:v>763</x:v>
+      </x:c>
+      <x:c r="B764" s="2">
+        <x:v>43871.7830671296</x:v>
+      </x:c>
+      <x:c r="C764" s="2">
+        <x:v>43871.7834027778</x:v>
+      </x:c>
+      <x:c r="D764" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E764" s="10" t="s"/>
+      <x:c r="F764"/>
+      <x:c r="G764" s="10" t="s"/>
+      <x:c r="H764" s="3">
+        <x:v>43871</x:v>
+      </x:c>
+      <x:c r="I764"/>
+      <x:c r="J764" s="10" t="s"/>
+      <x:c r="K764" s="10" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="L764"/>
+      <x:c r="M764" s="10" t="s"/>
+      <x:c r="N764" s="10" t="s">
+        <x:v>328</x:v>
+      </x:c>
+      <x:c r="O764"/>
+      <x:c r="P764" s="10" t="s"/>
+      <x:c r="Q764" s="7" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="R764"/>
+      <x:c r="S764" s="10" t="s"/>
+      <x:c r="T764" s="10" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="U764"/>
+      <x:c r="V764" s="10" t="s"/>
+    </x:row>
+    <x:row r="765" hidden="0">
+      <x:c r="A765">
+        <x:v>764</x:v>
+      </x:c>
+      <x:c r="B765" s="2">
+        <x:v>43871.8515740741</x:v>
+      </x:c>
+      <x:c r="C765" s="2">
+        <x:v>43871.8518865741</x:v>
+      </x:c>
+      <x:c r="D765" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E765" s="10" t="s"/>
+      <x:c r="F765"/>
+      <x:c r="G765" s="10" t="s"/>
+      <x:c r="H765" s="3">
+        <x:v>43871</x:v>
+      </x:c>
+      <x:c r="I765"/>
+      <x:c r="J765" s="10" t="s"/>
+      <x:c r="K765" s="10" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="L765"/>
+      <x:c r="M765" s="10" t="s"/>
+      <x:c r="N765" s="7" t="s">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="O765"/>
+      <x:c r="P765" s="10" t="s"/>
+      <x:c r="Q765" s="7" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="R765"/>
+      <x:c r="S765" s="10" t="s"/>
+      <x:c r="T765" s="10" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="U765"/>
+      <x:c r="V765" s="10" t="s"/>
+    </x:row>
+    <x:row r="766" hidden="0">
+      <x:c r="A766">
+        <x:v>765</x:v>
+      </x:c>
+      <x:c r="B766" s="2">
+        <x:v>43871.8519097222</x:v>
+      </x:c>
+      <x:c r="C766" s="2">
+        <x:v>43871.8521412037</x:v>
+      </x:c>
+      <x:c r="D766" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E766" s="10" t="s"/>
+      <x:c r="F766"/>
+      <x:c r="G766" s="10" t="s"/>
+      <x:c r="H766" s="3">
+        <x:v>43871</x:v>
+      </x:c>
+      <x:c r="I766"/>
+      <x:c r="J766" s="10" t="s"/>
+      <x:c r="K766" s="10" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="L766"/>
+      <x:c r="M766" s="10" t="s"/>
+      <x:c r="N766" s="7" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="O766"/>
+      <x:c r="P766" s="10" t="s"/>
+      <x:c r="Q766" s="7" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="R766"/>
+      <x:c r="S766" s="10" t="s"/>
+      <x:c r="T766" s="10" t="s">
+        <x:v>259</x:v>
+      </x:c>
+      <x:c r="U766"/>
+      <x:c r="V766" s="10" t="s"/>
+    </x:row>
+    <x:row r="767" hidden="0">
+      <x:c r="A767">
+        <x:v>766</x:v>
+      </x:c>
+      <x:c r="B767" s="2">
+        <x:v>43871.8625231481</x:v>
+      </x:c>
+      <x:c r="C767" s="2">
+        <x:v>43871.8629861111</x:v>
+      </x:c>
+      <x:c r="D767" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E767" s="10" t="s"/>
+      <x:c r="F767"/>
+      <x:c r="G767" s="10" t="s"/>
+      <x:c r="H767" s="3">
+        <x:v>43871</x:v>
+      </x:c>
+      <x:c r="I767"/>
+      <x:c r="J767" s="10" t="s"/>
+      <x:c r="K767" s="10" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="L767"/>
+      <x:c r="M767" s="10" t="s"/>
+      <x:c r="N767" s="10" t="s">
+        <x:v>285</x:v>
+      </x:c>
+      <x:c r="O767"/>
+      <x:c r="P767" s="10" t="s"/>
+      <x:c r="Q767" s="7" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="R767"/>
+      <x:c r="S767" s="10" t="s"/>
+      <x:c r="T767" s="10" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="U767"/>
+      <x:c r="V767" s="10" t="s"/>
+    </x:row>
+    <x:row r="768" hidden="0">
+      <x:c r="A768">
+        <x:v>767</x:v>
+      </x:c>
+      <x:c r="B768" s="2">
+        <x:v>43871.9597800926</x:v>
+      </x:c>
+      <x:c r="C768" s="2">
+        <x:v>43871.9600810185</x:v>
+      </x:c>
+      <x:c r="D768" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E768" s="10" t="s"/>
+      <x:c r="F768"/>
+      <x:c r="G768" s="10" t="s"/>
+      <x:c r="H768" s="3">
+        <x:v>43871</x:v>
+      </x:c>
+      <x:c r="I768"/>
+      <x:c r="J768" s="10" t="s"/>
+      <x:c r="K768" s="10" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="L768"/>
+      <x:c r="M768" s="10" t="s"/>
+      <x:c r="N768" s="10" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="O768"/>
+      <x:c r="P768" s="10" t="s"/>
+      <x:c r="Q768" s="7" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="R768"/>
+      <x:c r="S768" s="10" t="s"/>
+      <x:c r="T768" s="10" t="s">
+        <x:v>278</x:v>
+      </x:c>
+      <x:c r="U768"/>
+      <x:c r="V768" s="10" t="s"/>
+    </x:row>
+    <x:row r="769" hidden="0">
+      <x:c r="A769">
+        <x:v>768</x:v>
+      </x:c>
+      <x:c r="B769" s="2">
+        <x:v>43871.9601041667</x:v>
+      </x:c>
+      <x:c r="C769" s="2">
+        <x:v>43871.9618402778</x:v>
+      </x:c>
+      <x:c r="D769" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E769" s="10" t="s"/>
+      <x:c r="F769"/>
+      <x:c r="G769" s="10" t="s"/>
+      <x:c r="H769" s="3">
+        <x:v>43871</x:v>
+      </x:c>
+      <x:c r="I769"/>
+      <x:c r="J769" s="10" t="s"/>
+      <x:c r="K769" s="10" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="L769"/>
+      <x:c r="M769" s="10" t="s"/>
+      <x:c r="N769" s="10" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="O769"/>
+      <x:c r="P769" s="10" t="s"/>
+      <x:c r="Q769" s="7" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="R769"/>
+      <x:c r="S769" s="10" t="s"/>
+      <x:c r="T769" s="10" t="s">
+        <x:v>254</x:v>
+      </x:c>
+      <x:c r="U769"/>
+      <x:c r="V769" s="10" t="s"/>
+    </x:row>
+    <x:row r="770" hidden="0">
+      <x:c r="A770">
+        <x:v>769</x:v>
+      </x:c>
+      <x:c r="B770" s="2">
+        <x:v>43872.0073726852</x:v>
+      </x:c>
+      <x:c r="C770" s="2">
+        <x:v>43872.0078472222</x:v>
+      </x:c>
+      <x:c r="D770" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E770" s="10" t="s"/>
+      <x:c r="F770"/>
+      <x:c r="G770" s="10" t="s"/>
+      <x:c r="H770" s="3">
+        <x:v>43872</x:v>
+      </x:c>
+      <x:c r="I770"/>
+      <x:c r="J770" s="10" t="s"/>
+      <x:c r="K770" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="L770"/>
+      <x:c r="M770" s="10" t="s"/>
+      <x:c r="N770" s="7" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="O770"/>
+      <x:c r="P770" s="10" t="s"/>
+      <x:c r="Q770" s="7" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="R770"/>
+      <x:c r="S770" s="10" t="s"/>
+      <x:c r="T770" s="10" t="s">
+        <x:v>251</x:v>
+      </x:c>
+      <x:c r="U770"/>
+      <x:c r="V770" s="10" t="s"/>
+    </x:row>
+    <x:row r="771" hidden="0">
+      <x:c r="A771">
+        <x:v>770</x:v>
+      </x:c>
+      <x:c r="B771" s="2">
+        <x:v>43872.3318981482</x:v>
+      </x:c>
+      <x:c r="C771" s="2">
+        <x:v>43872.3322337963</x:v>
+      </x:c>
+      <x:c r="D771" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E771" s="10" t="s"/>
+      <x:c r="F771"/>
+      <x:c r="G771" s="10" t="s"/>
+      <x:c r="H771" s="3">
+        <x:v>43872</x:v>
+      </x:c>
+      <x:c r="I771"/>
+      <x:c r="J771" s="10" t="s"/>
+      <x:c r="K771" s="10" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="L771"/>
+      <x:c r="M771" s="10" t="s"/>
+      <x:c r="N771" s="10" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="O771"/>
+      <x:c r="P771" s="10" t="s"/>
+      <x:c r="Q771" s="7" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="R771"/>
+      <x:c r="S771" s="10" t="s"/>
+      <x:c r="T771" s="10" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="U771"/>
+      <x:c r="V771" s="10" t="s"/>
+    </x:row>
+    <x:row r="772" hidden="0">
+      <x:c r="A772">
+        <x:v>771</x:v>
+      </x:c>
+      <x:c r="B772" s="2">
+        <x:v>43872.3480555556</x:v>
+      </x:c>
+      <x:c r="C772" s="2">
+        <x:v>43872.3485648148</x:v>
+      </x:c>
+      <x:c r="D772" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E772" s="10" t="s"/>
+      <x:c r="F772"/>
+      <x:c r="G772" s="10" t="s"/>
+      <x:c r="H772" s="3">
+        <x:v>43872</x:v>
+      </x:c>
+      <x:c r="I772"/>
+      <x:c r="J772" s="10" t="s"/>
+      <x:c r="K772" s="10" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="L772"/>
+      <x:c r="M772" s="10" t="s"/>
+      <x:c r="N772" s="10" t="s">
+        <x:v>294</x:v>
+      </x:c>
+      <x:c r="O772"/>
+      <x:c r="P772" s="10" t="s"/>
+      <x:c r="Q772" s="7" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="R772"/>
+      <x:c r="S772" s="10" t="s"/>
+      <x:c r="T772" s="10" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="U772"/>
+      <x:c r="V772" s="10" t="s"/>
+    </x:row>
+    <x:row r="773" hidden="0">
+      <x:c r="A773">
+        <x:v>772</x:v>
+      </x:c>
+      <x:c r="B773" s="2">
+        <x:v>43872.3698842593</x:v>
+      </x:c>
+      <x:c r="C773" s="2">
+        <x:v>43872.3702199074</x:v>
+      </x:c>
+      <x:c r="D773" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E773" s="10" t="s"/>
+      <x:c r="F773"/>
+      <x:c r="G773" s="10" t="s"/>
+      <x:c r="H773" s="3">
+        <x:v>43871</x:v>
+      </x:c>
+      <x:c r="I773"/>
+      <x:c r="J773" s="10" t="s"/>
+      <x:c r="K773" s="10" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="L773"/>
+      <x:c r="M773" s="10" t="s"/>
+      <x:c r="N773" s="10" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="O773"/>
+      <x:c r="P773" s="10" t="s"/>
+      <x:c r="Q773" s="7" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="R773"/>
+      <x:c r="S773" s="10" t="s"/>
+      <x:c r="T773" s="10" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="U773"/>
+      <x:c r="V773" s="10" t="s"/>
+    </x:row>
+    <x:row r="774" hidden="0">
+      <x:c r="A774">
+        <x:v>773</x:v>
+      </x:c>
+      <x:c r="B774" s="2">
+        <x:v>43872.3702662037</x:v>
+      </x:c>
+      <x:c r="C774" s="2">
+        <x:v>43872.3708680556</x:v>
+      </x:c>
+      <x:c r="D774" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E774" s="10" t="s"/>
+      <x:c r="F774"/>
+      <x:c r="G774" s="10" t="s"/>
+      <x:c r="H774" s="3">
+        <x:v>43871</x:v>
+      </x:c>
+      <x:c r="I774"/>
+      <x:c r="J774" s="10" t="s"/>
+      <x:c r="K774" s="10" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="L774"/>
+      <x:c r="M774" s="10" t="s"/>
+      <x:c r="N774" s="7" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="O774"/>
+      <x:c r="P774" s="10" t="s"/>
+      <x:c r="Q774" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="R774"/>
+      <x:c r="S774" s="10" t="s"/>
+      <x:c r="T774" s="10" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="U774"/>
+      <x:c r="V774" s="10" t="s"/>
+    </x:row>
+    <x:row r="775" hidden="0">
+      <x:c r="A775">
+        <x:v>774</x:v>
+      </x:c>
+      <x:c r="B775" s="2">
+        <x:v>43872.3708912037</x:v>
+      </x:c>
+      <x:c r="C775" s="2">
+        <x:v>43872.37125</x:v>
+      </x:c>
+      <x:c r="D775" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E775" s="10" t="s"/>
+      <x:c r="F775"/>
+      <x:c r="G775" s="10" t="s"/>
+      <x:c r="H775" s="3">
+        <x:v>43871</x:v>
+      </x:c>
+      <x:c r="I775"/>
+      <x:c r="J775" s="10" t="s"/>
+      <x:c r="K775" s="10" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="L775"/>
+      <x:c r="M775" s="10" t="s"/>
+      <x:c r="N775" s="10" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="O775"/>
+      <x:c r="P775" s="10" t="s"/>
+      <x:c r="Q775" s="7" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="R775"/>
+      <x:c r="S775" s="10" t="s"/>
+      <x:c r="T775" s="10" t="s">
+        <x:v>331</x:v>
+      </x:c>
+      <x:c r="U775"/>
+      <x:c r="V775" s="10" t="s"/>
+    </x:row>
+    <x:row r="776" hidden="0">
+      <x:c r="A776">
+        <x:v>775</x:v>
+      </x:c>
+      <x:c r="B776" s="2">
+        <x:v>43872.3712847222</x:v>
+      </x:c>
+      <x:c r="C776" s="2">
+        <x:v>43872.3715046296</x:v>
+      </x:c>
+      <x:c r="D776" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E776" s="10" t="s"/>
+      <x:c r="F776"/>
+      <x:c r="G776" s="10" t="s"/>
+      <x:c r="H776" s="3">
+        <x:v>43871</x:v>
+      </x:c>
+      <x:c r="I776"/>
+      <x:c r="J776" s="10" t="s"/>
+      <x:c r="K776" s="10" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="L776"/>
+      <x:c r="M776" s="10" t="s"/>
+      <x:c r="N776" s="10" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="O776"/>
+      <x:c r="P776" s="10" t="s"/>
+      <x:c r="Q776" s="7" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="R776"/>
+      <x:c r="S776" s="10" t="s"/>
+      <x:c r="T776" s="10" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="U776"/>
+      <x:c r="V776" s="10" t="s"/>
+    </x:row>
+    <x:row r="777" hidden="0">
+      <x:c r="A777">
+        <x:v>776</x:v>
+      </x:c>
+      <x:c r="B777" s="2">
+        <x:v>43872.3911689815</x:v>
+      </x:c>
+      <x:c r="C777" s="2">
+        <x:v>43872.3913194444</x:v>
+      </x:c>
+      <x:c r="D777" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E777" s="10" t="s"/>
+      <x:c r="F777"/>
+      <x:c r="G777" s="10" t="s"/>
+      <x:c r="H777" s="3">
+        <x:v>43872</x:v>
+      </x:c>
+      <x:c r="I777"/>
+      <x:c r="J777" s="10" t="s"/>
+      <x:c r="K777" s="10" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="L777"/>
+      <x:c r="M777" s="10" t="s"/>
+      <x:c r="N777" s="10" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="O777"/>
+      <x:c r="P777" s="10" t="s"/>
+      <x:c r="Q777" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="R777"/>
+      <x:c r="S777" s="10" t="s"/>
+      <x:c r="T777" s="10" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="U777"/>
+      <x:c r="V777" s="10" t="s"/>
+    </x:row>
+    <x:row r="778" hidden="0">
+      <x:c r="A778">
+        <x:v>777</x:v>
+      </x:c>
+      <x:c r="B778" s="2">
+        <x:v>43872.4283333333</x:v>
+      </x:c>
+      <x:c r="C778" s="2">
+        <x:v>43872.4285532407</x:v>
+      </x:c>
+      <x:c r="D778" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E778" s="10" t="s"/>
+      <x:c r="F778"/>
+      <x:c r="G778" s="10" t="s"/>
+      <x:c r="H778" s="3">
+        <x:v>43872</x:v>
+      </x:c>
+      <x:c r="I778"/>
+      <x:c r="J778" s="10" t="s"/>
+      <x:c r="K778" s="10" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="L778"/>
+      <x:c r="M778" s="10" t="s"/>
+      <x:c r="N778" s="10" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="O778"/>
+      <x:c r="P778" s="10" t="s"/>
+      <x:c r="Q778" s="7" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="R778"/>
+      <x:c r="S778" s="10" t="s"/>
+      <x:c r="T778" s="10" t="s">
+        <x:v>278</x:v>
+      </x:c>
+      <x:c r="U778"/>
+      <x:c r="V778" s="10" t="s"/>
+    </x:row>
+    <x:row r="779" hidden="0">
+      <x:c r="A779">
+        <x:v>778</x:v>
+      </x:c>
+      <x:c r="B779" s="2">
+        <x:v>43872.5406597222</x:v>
+      </x:c>
+      <x:c r="C779" s="2">
+        <x:v>43872.5412037037</x:v>
+      </x:c>
+      <x:c r="D779" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E779" s="10" t="s"/>
+      <x:c r="F779"/>
+      <x:c r="G779" s="10" t="s"/>
+      <x:c r="H779" s="3">
+        <x:v>43872</x:v>
+      </x:c>
+      <x:c r="I779"/>
+      <x:c r="J779" s="10" t="s"/>
+      <x:c r="K779" s="10" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="L779"/>
+      <x:c r="M779" s="10" t="s"/>
+      <x:c r="N779" s="10" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="O779"/>
+      <x:c r="P779" s="10" t="s"/>
+      <x:c r="Q779" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="R779"/>
+      <x:c r="S779" s="10" t="s"/>
+      <x:c r="T779" s="10" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="U779"/>
+      <x:c r="V779" s="10" t="s"/>
+    </x:row>
+    <x:row r="780" hidden="0">
+      <x:c r="A780">
+        <x:v>779</x:v>
+      </x:c>
+      <x:c r="B780" s="2">
+        <x:v>43872.5812731481</x:v>
+      </x:c>
+      <x:c r="C780" s="2">
+        <x:v>43872.5818171296</x:v>
+      </x:c>
+      <x:c r="D780" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E780" s="10" t="s"/>
+      <x:c r="F780"/>
+      <x:c r="G780" s="10" t="s"/>
+      <x:c r="H780" s="3">
+        <x:v>43872</x:v>
+      </x:c>
+      <x:c r="I780"/>
+      <x:c r="J780" s="10" t="s"/>
+      <x:c r="K780" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="L780"/>
+      <x:c r="M780" s="10" t="s"/>
+      <x:c r="N780" s="10" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="O780"/>
+      <x:c r="P780" s="10" t="s"/>
+      <x:c r="Q780" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="R780"/>
+      <x:c r="S780" s="10" t="s"/>
+      <x:c r="T780" s="10" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="U780"/>
+      <x:c r="V780" s="10" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <x:tableParts count="1">
-    <x:tablePart r:id="Rf14a225c778b4f16"/>
+    <x:tablePart r:id="Rf67bef735ade467e"/>
   </x:tableParts>
 </x:worksheet>
 </file>